--- a/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
+++ b/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>8.113268794593698e-06</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>1.255631762718978e-05</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>1.488798819719439e-05</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>2.149721238313961e-05</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>2.286385637455729e-05</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>2.317333874030765e-05</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>2.642134738725539e-05</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>2.602101500302434e-05</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>2.371628480881717e-05</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>2.352088281438321e-05</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>2.018631568601688e-05</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>1.53088389176712e-05</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>8.903510383757638e-06</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>1.257194803055668e-05</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>1.718842755372549e-05</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>2.008277275412086e-05</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>2.359507167888329e-05</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>2.855669060265166e-05</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>3.174475746026563e-05</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>4.853126916167463e-05</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001385392563365003</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002172017375684555</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>0.0003267242326053165</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003315311776284231</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003070368430431036</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>0.0002924368623851435</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>0.0002936232125012682</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>0.000298227821964963</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>0.000287447617467634</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>0.0002902475973755522</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>0.0002875153780151965</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002815379351541154</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002758098166696309</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>0.0002543289320453458</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>0.0002311014576631897</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001881065413277511</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>0.0001507538904569764</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>0.0001007533066530208</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001437785054931939</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>7.142307116721306e-05</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>4.90911907582069e-05</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>3.719163979242035e-05</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>2.281098860483391e-05</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>2.009910944117843e-05</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.942661468846525e-05</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>2.134873142683934e-05</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>2.696075041649824e-05</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>3.718886090500032e-05</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>5.38727348019823e-05</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>6.767823486783382e-05</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001271218455632619</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001996715335227166</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004676636448372147</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006993921326251547</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007376180551618678</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005436608153274348</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002582132325547984</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0001901613894313775</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002537065531717815</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>9.784723319493234e-05</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>6.541627210901147e-05</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>3.701413748868466e-05</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.804340436455082e-05</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>6.238147328990049e-05</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001832719352931785</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>0.00032238499165387</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>0.0005859235168474056</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0.0005868989744979476</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>0.001022200504480621</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.001134721938662179</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.001471331078209042</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.002230034727262287</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.002058648418763841</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.001047782911722176</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005624094306173774</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>0.0004521324627078339</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>0.001016899017008687</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>0.001140687492383807</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008266202971454033</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004393823180324891</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0.000259675847708712</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002163196531739345</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001134891134144898</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>5.967238544210427e-05</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>4.542291754971085e-05</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>3.646682054734993e-05</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>3.374308830791889e-05</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>4.578264435611982e-05</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>8.258918217296961e-05</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>9.31073538882677e-05</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001134628303897611</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001721244182282583</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003605671229224687</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004547168192098397</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003766486701619357</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001809709834906233</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.65702136208824e-05</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>5.373210302611565e-05</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>2.952423795346807e-05</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>1.93027159083966e-05</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>1.317196879832352e-05</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>1.272617643565598e-05</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>1.550273045835626e-05</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>2.901809408480575e-05</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>4.155044961077943e-05</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>5.309462698797256e-05</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>5.40466469083233e-05</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>5.47251312330563e-05</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>5.242434920457305e-05</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>5.420538810289613e-05</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>5.484264083253762e-05</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>5.80642906835599e-05</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>6.061715327858496e-05</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>6.494491923059329e-05</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>6.554929558358417e-05</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>6.690475785273653e-05</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>6.555374177266117e-05</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>6.52453816116822e-05</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>5.429408313533508e-05</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>5.304155267864307e-05</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>4.267330334823559e-05</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>3.410170449493718e-05</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>3.615465248128747e-05</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>4.576642328192917e-05</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>6.232206198584971e-05</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>6.031488348511882e-05</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>9.701395171569707e-05</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001790724762100528</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0001959134677370861</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002059973343063441</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002357433705071552</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002681366793096546</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002823949404465356</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002729044165321484</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.000248191843915478</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0001986155288190323</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001397712277168646</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>9.598496097773475e-05</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>7.799520302221238e-05</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>6.357353435406461e-05</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>5.344779186371237e-05</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>5.964991071525563e-05</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002225641007911923</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.0004213239301090198</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004679420490699201</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0004920633945198861</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0004812295019451203</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0004814533068235167</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0005958336363486988</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006212640943447996</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006218709723196476</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006268895006585215</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006374594663919428</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006286156524217504</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.000617223708246716</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005147397089845236</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003791896666909078</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002767524166901385</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>0.0002883086033306753</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002221198303384071</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0002220386951991223</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002139780056771204</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.000197328803071349</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.000183419839739366</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001747737959840143</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001675593141011447</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.000140476862647785</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.0001269106507144066</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>8.071646996762628e-05</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>5.983802948090401e-05</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>6.600497163521159e-05</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>8.821880339716936e-05</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001137205254380706</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001261335720527543</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001728089850224592</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002587386491283566</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003073466811827899</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003755769911170359</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005019030911133385</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0004989993897634522</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007526894261568073</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0009633180133935657</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.001262488129173153</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.001478420066147818</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.001438395614859874</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.001416300026610696</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.001331046342980817</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.001156262864688409</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.001098426443494892</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009416419643730322</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007494748804475219</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006324374409487314</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0004651002747750747</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0004799837591596374</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.000323596511585794</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0001995063779418909</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0002016900827205353</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.000152128640339068</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001443806652850121</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001353433368086314</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.0002271618673591836</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001759104720207768</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002766682990923271</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002628376208242592</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002523913228537872</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002499664822982917</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002434515212549926</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002309700224348668</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002342281548205718</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001380192483883197</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>6.049833045594503e-05</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.908058341291929e-05</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>5.452532710797551e-05</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>3.415019850698269e-05</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.663972797194945e-05</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>2.327815611840813e-05</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>2.147164096995571e-05</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.08598680768509e-05</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>2.574043296857423e-05</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>2.559400661006807e-05</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>2.884235041808614e-05</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>3.3164831435499e-05</v>

--- a/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
+++ b/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>8.113268794593698e-06</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>1.255631762718978e-05</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>1.488798819719439e-05</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>2.149721238313961e-05</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>2.286385637455729e-05</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>2.317333874030765e-05</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>2.642134738725539e-05</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>2.602101500302434e-05</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>2.371628480881717e-05</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>2.352088281438321e-05</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>2.018631568601688e-05</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>1.53088389176712e-05</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>8.903510383757638e-06</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>1.257194803055668e-05</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>1.718842755372549e-05</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>2.008277275412086e-05</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>2.359507167888329e-05</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>2.855669060265166e-05</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>3.174475746026563e-05</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>4.853126916167463e-05</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001385392563365003</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002172017375684555</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>0.0003267242326053165</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003315311776284231</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003070368430431036</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>0.0002924368623851435</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>0.0002936232125012682</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>0.000298227821964963</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>0.000287447617467634</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>0.0002902475973755522</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>0.0002875153780151965</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002815379351541154</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002758098166696309</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>0.0002543289320453458</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>0.0002311014576631897</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001881065413277511</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>0.0001507538904569764</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>0.0001007533066530208</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001437785054931939</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>7.142307116721306e-05</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>4.90911907582069e-05</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>3.719163979242035e-05</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>2.281098860483391e-05</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>2.009910944117843e-05</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.942661468846525e-05</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>2.134873142683934e-05</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>2.696075041649824e-05</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>3.718886090500032e-05</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>5.38727348019823e-05</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>6.767823486783382e-05</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001271218455632619</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001996715335227166</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004676636448372147</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006993921326251547</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007376180551618678</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005436608153274348</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002582132325547984</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0001901613894313775</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002537065531717815</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>9.784723319493234e-05</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>6.541627210901147e-05</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>3.701413748868466e-05</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.804340436455082e-05</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>6.238147328990049e-05</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001832719352931785</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>0.00032238499165387</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>0.0005859235168474056</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>0.0005868989744979476</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>0.001022200504480621</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.001134721938662179</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.001471331078209042</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.002230034727262287</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.002058648418763841</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.001047782911722176</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005624094306173774</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>0.0004521324627078339</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>0.001016899017008687</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>0.001140687492383807</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008266202971454033</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004393823180324891</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>0.000259675847708712</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002163196531739345</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001134891134144898</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>5.967238544210427e-05</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>4.542291754971085e-05</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>3.646682054734993e-05</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>3.374308830791889e-05</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>4.578264435611982e-05</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>8.258918217296961e-05</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>9.31073538882677e-05</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001134628303897611</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001721244182282583</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003605671229224687</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004547168192098397</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003766486701619357</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001809709834906233</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.65702136208824e-05</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>5.373210302611565e-05</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>2.952423795346807e-05</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>1.93027159083966e-05</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>1.317196879832352e-05</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>1.272617643565598e-05</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>1.550273045835626e-05</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>2.901809408480575e-05</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>4.155044961077943e-05</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>5.309462698797256e-05</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>5.40466469083233e-05</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>5.47251312330563e-05</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>5.242434920457305e-05</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>5.420538810289613e-05</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>5.484264083253762e-05</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>5.80642906835599e-05</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>6.061715327858496e-05</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>6.494491923059329e-05</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>6.554929558358417e-05</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>6.690475785273653e-05</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>6.555374177266117e-05</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>6.52453816116822e-05</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>5.429408313533508e-05</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>5.304155267864307e-05</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>4.267330334823559e-05</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>3.410170449493718e-05</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>3.615465248128747e-05</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>4.576642328192917e-05</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>6.232206198584971e-05</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>6.031488348511882e-05</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>9.701395171569707e-05</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001790724762100528</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0001959134677370861</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002059973343063441</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002357433705071552</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002681366793096546</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002823949404465356</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002729044165321484</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.000248191843915478</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0001986155288190323</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001397712277168646</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>9.598496097773475e-05</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>7.799520302221238e-05</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>6.357353435406461e-05</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>5.344779186371237e-05</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>5.964991071525563e-05</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002225641007911923</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.0004213239301090198</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004679420490699201</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0004920633945198861</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0004812295019451203</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0004814533068235167</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0005958336363486988</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006212640943447996</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006218709723196476</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006268895006585215</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006374594663919428</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006286156524217504</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.000617223708246716</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005147397089845236</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003791896666909078</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002767524166901385</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>0.0002883086033306753</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002221198303384071</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0002220386951991223</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002139780056771204</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.000197328803071349</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.000183419839739366</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001747737959840143</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001675593141011447</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.000140476862647785</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.0001269106507144066</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>8.071646996762628e-05</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>5.983802948090401e-05</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>6.600497163521159e-05</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>8.821880339716936e-05</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001137205254380706</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001261335720527543</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001728089850224592</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002587386491283566</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003073466811827899</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003755769911170359</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005019030911133385</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0004989993897634522</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007526894261568073</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0009633180133935657</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.001262488129173153</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.001478420066147818</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.001438395614859874</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.001416300026610696</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.001331046342980817</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.001156262864688409</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.001098426443494892</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009416419643730322</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007494748804475219</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006324374409487314</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0004651002747750747</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0004799837591596374</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.000323596511585794</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0001995063779418909</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0002016900827205353</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.000152128640339068</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001443806652850121</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001353433368086314</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.0002271618673591836</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001759104720207768</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002766682990923271</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002628376208242592</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002523913228537872</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002499664822982917</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002434515212549926</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002309700224348668</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002342281548205718</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001380192483883197</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>6.049833045594503e-05</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.908058341291929e-05</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>5.452532710797551e-05</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>3.415019850698269e-05</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.663972797194945e-05</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>2.327815611840813e-05</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>2.147164096995571e-05</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.08598680768509e-05</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>2.574043296857423e-05</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>2.559400661006807e-05</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>2.884235041808614e-05</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>3.3164831435499e-05</v>

--- a/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
+++ b/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
@@ -415,7106 +415,7106 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>8.113268794593698e-06</v>
+        <v>7721386813473.623</v>
       </c>
       <c r="C2" t="n">
-        <v>7.576244367394592e-07</v>
+        <v>1721065411293.807</v>
       </c>
       <c r="D2" t="n">
-        <v>8.35596833238748e-07</v>
+        <v>-885211000593.4023</v>
       </c>
       <c r="E2" t="n">
-        <v>2.557230444141357e-07</v>
+        <v>239236038712.9319</v>
       </c>
       <c r="F2" t="n">
-        <v>4.636223489310705e-07</v>
+        <v>425695175217.4877</v>
       </c>
       <c r="G2" t="n">
-        <v>5.811768190191004e-07</v>
+        <v>539962092616.8679</v>
       </c>
       <c r="H2" t="n">
-        <v>18.18400625646773</v>
+        <v>11.25651258587885</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001135979746663432</v>
+        <v>0.0238275089888393</v>
       </c>
       <c r="J2" t="n">
-        <v>4.546001564116932</v>
+        <v>2.814128146469713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>1.255631762718978e-05</v>
+        <v>11994793614376.07</v>
       </c>
       <c r="C3" t="n">
-        <v>3.749871273806077e-07</v>
+        <v>2296024469342.713</v>
       </c>
       <c r="D3" t="n">
-        <v>1.502740592286939e-07</v>
+        <v>-2876493866819.469</v>
       </c>
       <c r="E3" t="n">
-        <v>3.941466168350198e-07</v>
+        <v>365106760435.7393</v>
       </c>
       <c r="F3" t="n">
-        <v>7.007674647925259e-07</v>
+        <v>650634221231.104</v>
       </c>
       <c r="G3" t="n">
-        <v>8.715479913208495e-07</v>
+        <v>808835416782.1696</v>
       </c>
       <c r="H3" t="n">
-        <v>19.02894853937701</v>
+        <v>3.448992090387997</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007757180356660202</v>
+        <v>0.4856764722443805</v>
       </c>
       <c r="J3" t="n">
-        <v>4.757237134844252</v>
+        <v>0.8622480225969992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>1.488798819719439e-05</v>
+        <v>14325514672425.17</v>
       </c>
       <c r="C4" t="n">
-        <v>5.316474247427151e-07</v>
+        <v>3105785382029.143</v>
       </c>
       <c r="D4" t="n">
-        <v>9.888806616972648e-07</v>
+        <v>-3225235173265.746</v>
       </c>
       <c r="E4" t="n">
-        <v>4.437730195637492e-07</v>
+        <v>416588675094.7449</v>
       </c>
       <c r="F4" t="n">
-        <v>8.013369561687889e-07</v>
+        <v>726070441030.3999</v>
       </c>
       <c r="G4" t="n">
-        <v>9.895801661749596e-07</v>
+        <v>916805355093.6602</v>
       </c>
       <c r="H4" t="n">
-        <v>24.81922106334756</v>
+        <v>7.558296929462346</v>
       </c>
       <c r="I4" t="n">
-        <v>5.470043599398945e-05</v>
+        <v>0.1091659497740987</v>
       </c>
       <c r="J4" t="n">
-        <v>6.204805265836891</v>
+        <v>1.889574232365586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.149721238313961e-05</v>
+        <v>20152150038701.33</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.732358557953887e-07</v>
+        <v>1380579070444.877</v>
       </c>
       <c r="D5" t="n">
-        <v>1.089054551323314e-06</v>
+        <v>-1591599792314.215</v>
       </c>
       <c r="E5" t="n">
-        <v>5.948598376751771e-07</v>
+        <v>550163154280.5787</v>
       </c>
       <c r="F5" t="n">
-        <v>1.054181442904138e-06</v>
+        <v>997121070379.1755</v>
       </c>
       <c r="G5" t="n">
-        <v>1.288702332567121e-06</v>
+        <v>1200704894519.977</v>
       </c>
       <c r="H5" t="n">
-        <v>4.38777842173318</v>
+        <v>2.734367889676976</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3560621985663437</v>
+        <v>0.6032142098632453</v>
       </c>
       <c r="J5" t="n">
-        <v>1.096944605433295</v>
+        <v>0.683591972419244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.286385637455729e-05</v>
+        <v>21517745256050.07</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.476624668681566e-06</v>
+        <v>1061643325152.799</v>
       </c>
       <c r="D6" t="n">
-        <v>3.757606301648127e-07</v>
+        <v>-3260613458458.797</v>
       </c>
       <c r="E6" t="n">
-        <v>6.618932931825402e-07</v>
+        <v>613206389594.0001</v>
       </c>
       <c r="F6" t="n">
-        <v>1.163466359296474e-06</v>
+        <v>1093229225583.376</v>
       </c>
       <c r="G6" t="n">
-        <v>1.418719392947153e-06</v>
+        <v>1320746848587.003</v>
       </c>
       <c r="H6" t="n">
-        <v>8.461032670484048</v>
+        <v>3.992791301822914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07607722498501814</v>
+        <v>0.4069823200112702</v>
       </c>
       <c r="J6" t="n">
-        <v>2.115258167621012</v>
+        <v>0.9981978254557285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.317333874030765e-05</v>
+        <v>21671025141120.91</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.453154105336848e-07</v>
+        <v>1321970416614.66</v>
       </c>
       <c r="D7" t="n">
-        <v>1.082813506972704e-06</v>
+        <v>-1286493896500.008</v>
       </c>
       <c r="E7" t="n">
-        <v>6.694929422575146e-07</v>
+        <v>616319582356.4357</v>
       </c>
       <c r="F7" t="n">
-        <v>1.171115025282054e-06</v>
+        <v>1133811243143.098</v>
       </c>
       <c r="G7" t="n">
-        <v>1.432923723198563e-06</v>
+        <v>1341156463373.154</v>
       </c>
       <c r="H7" t="n">
-        <v>2.801401438187287</v>
+        <v>1.915680736936959</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5915908244030197</v>
+        <v>0.7512638513734603</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7003503595468217</v>
+        <v>0.4789201842342397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>2.642134738725539e-05</v>
+        <v>24795634391420.55</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.410580531735218e-07</v>
+        <v>1901501900699.396</v>
       </c>
       <c r="D8" t="n">
-        <v>4.680228054081183e-07</v>
+        <v>-2804787723310.758</v>
       </c>
       <c r="E8" t="n">
-        <v>6.950634920780321e-07</v>
+        <v>644437813168.057</v>
       </c>
       <c r="F8" t="n">
-        <v>1.233185141199096e-06</v>
+        <v>1150726620530.772</v>
       </c>
       <c r="G8" t="n">
-        <v>1.516710292061063e-06</v>
+        <v>1408605798551.91</v>
       </c>
       <c r="H8" t="n">
-        <v>8.092426107194557</v>
+        <v>3.787133888224095</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0882505825554853</v>
+        <v>0.4355799287151366</v>
       </c>
       <c r="J8" t="n">
-        <v>2.023106526798639</v>
+        <v>0.9467834720560239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>2.602101500302434e-05</v>
+        <v>24307513087251.76</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.897037888746045e-07</v>
+        <v>513983605398.0059</v>
       </c>
       <c r="D9" t="n">
-        <v>7.114933231670937e-07</v>
+        <v>-1483498016047.98</v>
       </c>
       <c r="E9" t="n">
-        <v>6.664420235472989e-07</v>
+        <v>616762311806.2173</v>
       </c>
       <c r="F9" t="n">
-        <v>1.184637521351897e-06</v>
+        <v>1114019451272.801</v>
       </c>
       <c r="G9" t="n">
-        <v>1.431828011230825e-06</v>
+        <v>1333247359262.285</v>
       </c>
       <c r="H9" t="n">
-        <v>2.068799025685487</v>
+        <v>1.522138016353012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7231064621019161</v>
+        <v>0.8227128937046537</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5171997564213718</v>
+        <v>0.3805345040882531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>2.371628480881717e-05</v>
+        <v>22189333396202.77</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.300214271404787e-06</v>
+        <v>527431249730.1641</v>
       </c>
       <c r="D10" t="n">
-        <v>1.596453484450278e-06</v>
+        <v>-1104091825879.75</v>
       </c>
       <c r="E10" t="n">
-        <v>6.608296355423959e-07</v>
+        <v>610847826935.4426</v>
       </c>
       <c r="F10" t="n">
-        <v>1.17339541217568e-06</v>
+        <v>1115238287775.408</v>
       </c>
       <c r="G10" t="n">
-        <v>1.413674175877486e-06</v>
+        <v>1318938055046.286</v>
       </c>
       <c r="H10" t="n">
-        <v>5.191751576985474</v>
+        <v>6.121485371631588</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2681823246143515</v>
+        <v>0.1902575113799557</v>
       </c>
       <c r="J10" t="n">
-        <v>1.297937894246368</v>
+        <v>1.530371342907897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>2.352088281438321e-05</v>
+        <v>22066215508454.26</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.164987529749856e-06</v>
+        <v>1024584501945.609</v>
       </c>
       <c r="D11" t="n">
-        <v>4.773714699298376e-08</v>
+        <v>-3031593867110.707</v>
       </c>
       <c r="E11" t="n">
-        <v>6.585903892335093e-07</v>
+        <v>609796139766.0254</v>
       </c>
       <c r="F11" t="n">
-        <v>1.161764341576962e-06</v>
+        <v>1095409504563.146</v>
       </c>
       <c r="G11" t="n">
-        <v>1.404814580104169e-06</v>
+        <v>1308237720891.139</v>
       </c>
       <c r="H11" t="n">
-        <v>6.98982661681689</v>
+        <v>2.806079707759642</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1364268197868128</v>
+        <v>0.5907837036648138</v>
       </c>
       <c r="J11" t="n">
-        <v>1.747456654204222</v>
+        <v>0.7015199269399105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>2.018631568601688e-05</v>
+        <v>18880247321605.98</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.313973442365561e-06</v>
+        <v>201866679075.7227</v>
       </c>
       <c r="D12" t="n">
-        <v>1.173069413926996e-06</v>
+        <v>-1047267522926.895</v>
       </c>
       <c r="E12" t="n">
-        <v>5.570595952378164e-07</v>
+        <v>514436201284.6808</v>
       </c>
       <c r="F12" t="n">
-        <v>9.79361005191469e-07</v>
+        <v>932427623486.6992</v>
       </c>
       <c r="G12" t="n">
-        <v>1.19050679762541e-06</v>
+        <v>1109653234223.241</v>
       </c>
       <c r="H12" t="n">
-        <v>3.545332447753548</v>
+        <v>4.469298032934616</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4710190071379167</v>
+        <v>0.3462034779970451</v>
       </c>
       <c r="J12" t="n">
-        <v>0.886333111938387</v>
+        <v>1.117324508233654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>1.53088389176712e-05</v>
+        <v>14406834764860.3</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.535875000196434e-06</v>
+        <v>932362290056.5625</v>
       </c>
       <c r="D13" t="n">
-        <v>2.233587573911764e-06</v>
+        <v>-1433337403734.262</v>
       </c>
       <c r="E13" t="n">
-        <v>4.452429949146363e-07</v>
+        <v>415508678488.1277</v>
       </c>
       <c r="F13" t="n">
-        <v>8.062288171406752e-07</v>
+        <v>737103264149.6282</v>
       </c>
       <c r="G13" t="n">
-        <v>9.575100450349033e-07</v>
+        <v>887426193950.3623</v>
       </c>
       <c r="H13" t="n">
-        <v>14.415789926969</v>
+        <v>17.51058481327946</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006079708841971235</v>
+        <v>0.001537676976930648</v>
       </c>
       <c r="J13" t="n">
-        <v>3.603947481742251</v>
+        <v>4.377646203319866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>8.903510383757638e-06</v>
+        <v>8252738679750.604</v>
       </c>
       <c r="C14" t="n">
-        <v>2.349080446038515e-07</v>
+        <v>209400114642.1123</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.579108107121961e-07</v>
+        <v>-108581332236.8301</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166507770211279e-07</v>
+        <v>282887661643.1622</v>
       </c>
       <c r="F14" t="n">
-        <v>5.207519892460562e-07</v>
+        <v>536725879369.2808</v>
       </c>
       <c r="G14" t="n">
-        <v>6.848178264392606e-07</v>
+        <v>643035976787.5741</v>
       </c>
       <c r="H14" t="n">
-        <v>2.171454204090008</v>
+        <v>2.199096004674123</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7042586585512264</v>
+        <v>0.6991947818087452</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5428635510225019</v>
+        <v>0.5497740011685307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>1.257194803055668e-05</v>
+        <v>11764960184231.79</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.003058410341329e-07</v>
+        <v>708703421322.2852</v>
       </c>
       <c r="D15" t="n">
-        <v>4.230814802782833e-07</v>
+        <v>-770480369346.8047</v>
       </c>
       <c r="E15" t="n">
-        <v>4.06059402603759e-07</v>
+        <v>372739987562.4401</v>
       </c>
       <c r="F15" t="n">
-        <v>7.049724910217907e-07</v>
+        <v>690308389194.1852</v>
       </c>
       <c r="G15" t="n">
-        <v>8.652721644045528e-07</v>
+        <v>812688950222.7509</v>
       </c>
       <c r="H15" t="n">
-        <v>2.25762299987467</v>
+        <v>1.25256385783991</v>
       </c>
       <c r="I15" t="n">
-        <v>0.688494701061301</v>
+        <v>0.8693708022327562</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5644057499686674</v>
+        <v>0.3131409644599776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>1.718842755372549e-05</v>
+        <v>16134371794105.88</v>
       </c>
       <c r="C16" t="n">
-        <v>2.415912870318084e-06</v>
+        <v>3370179961266.553</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3651202519483e-06</v>
+        <v>-528667470108.2578</v>
       </c>
       <c r="E16" t="n">
-        <v>5.416516277063854e-07</v>
+        <v>498409272925.429</v>
       </c>
       <c r="F16" t="n">
-        <v>9.669973715855368e-07</v>
+        <v>916930655003.05</v>
       </c>
       <c r="G16" t="n">
-        <v>1.22495862338137e-06</v>
+        <v>1140319622115.976</v>
       </c>
       <c r="H16" t="n">
-        <v>5.116668640186465</v>
+        <v>2.39508041184361</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2755346815861191</v>
+        <v>0.6635164987351125</v>
       </c>
       <c r="J16" t="n">
-        <v>1.279167160046616</v>
+        <v>0.5987701029609026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>2.008277275412086e-05</v>
+        <v>18869094791278.29</v>
       </c>
       <c r="C17" t="n">
-        <v>2.317919807158365e-06</v>
+        <v>3774586224832.004</v>
       </c>
       <c r="D17" t="n">
-        <v>2.696647831556292e-06</v>
+        <v>-26401236345.90234</v>
       </c>
       <c r="E17" t="n">
-        <v>6.094914618358822e-07</v>
+        <v>559778860828.7219</v>
       </c>
       <c r="F17" t="n">
-        <v>1.092371650619225e-06</v>
+        <v>1048496231142.642</v>
       </c>
       <c r="G17" t="n">
-        <v>1.351841205083866e-06</v>
+        <v>1261185042624.147</v>
       </c>
       <c r="H17" t="n">
-        <v>7.956433545482183</v>
+        <v>6.826303354816962</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09318718902122</v>
+        <v>0.1453569878480484</v>
       </c>
       <c r="J17" t="n">
-        <v>1.989108386370546</v>
+        <v>1.70657583870424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>2.359507167888329e-05</v>
+        <v>22281069479169.2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.933731611416488e-06</v>
+        <v>5113788644674.176</v>
       </c>
       <c r="D18" t="n">
-        <v>3.604396320378081e-06</v>
+        <v>-609308846745.2383</v>
       </c>
       <c r="E18" t="n">
-        <v>7.03992283865722e-07</v>
+        <v>648092638740.4064</v>
       </c>
       <c r="F18" t="n">
-        <v>1.256392928513238e-06</v>
+        <v>1193097808322.765</v>
       </c>
       <c r="G18" t="n">
-        <v>1.609456843961133e-06</v>
+        <v>1498814433693.561</v>
       </c>
       <c r="H18" t="n">
-        <v>16.39993065143626</v>
+        <v>13.94486720438003</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002526890936937979</v>
+        <v>0.007473111672536711</v>
       </c>
       <c r="J18" t="n">
-        <v>4.099982662859065</v>
+        <v>3.486216801095008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>2.855669060265166e-05</v>
+        <v>26817480783008.19</v>
       </c>
       <c r="C19" t="n">
-        <v>4.6806832672604e-06</v>
+        <v>6357976534194.328</v>
       </c>
       <c r="D19" t="n">
-        <v>2.979373406494351e-06</v>
+        <v>-513487242968.7266</v>
       </c>
       <c r="E19" t="n">
-        <v>8.100798182396709e-07</v>
+        <v>744477538379.8451</v>
       </c>
       <c r="F19" t="n">
-        <v>1.447490648312952e-06</v>
+        <v>1377288735259.043</v>
       </c>
       <c r="G19" t="n">
-        <v>1.845425907681165e-06</v>
+        <v>1718928186708.46</v>
       </c>
       <c r="H19" t="n">
-        <v>5.445617979863431</v>
+        <v>1.990701396045244</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2445512203618972</v>
+        <v>0.7374692587798745</v>
       </c>
       <c r="J19" t="n">
-        <v>1.361404494965858</v>
+        <v>0.497675349011311</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>3.174475746026563e-05</v>
+        <v>30101472295370.13</v>
       </c>
       <c r="C20" t="n">
-        <v>6.046311198075995e-06</v>
+        <v>9092393978741.797</v>
       </c>
       <c r="D20" t="n">
-        <v>2.893668348245468e-06</v>
+        <v>-2966581852525.555</v>
       </c>
       <c r="E20" t="n">
-        <v>9.189091481342365e-07</v>
+        <v>846753201601.6395</v>
       </c>
       <c r="F20" t="n">
-        <v>1.644370008159794e-06</v>
+        <v>1549650960724.254</v>
       </c>
       <c r="G20" t="n">
-        <v>2.094943429092662e-06</v>
+        <v>1947382392035.176</v>
       </c>
       <c r="H20" t="n">
-        <v>14.27541719411871</v>
+        <v>3.822860220975038</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006465984765300221</v>
+        <v>0.4305095795894317</v>
       </c>
       <c r="J20" t="n">
-        <v>3.568854298529677</v>
+        <v>0.9557150552437595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.853126916167463e-05</v>
+        <v>45565028077914.12</v>
       </c>
       <c r="C21" t="n">
-        <v>7.950672475255569e-06</v>
+        <v>10636799442079.31</v>
       </c>
       <c r="D21" t="n">
-        <v>5.49745647999461e-06</v>
+        <v>-320154907045.5547</v>
       </c>
       <c r="E21" t="n">
-        <v>1.313844181883831e-06</v>
+        <v>1212709026389.855</v>
       </c>
       <c r="F21" t="n">
-        <v>2.369197257757487e-06</v>
+        <v>2237044578438.616</v>
       </c>
       <c r="G21" t="n">
-        <v>3.014565371822453e-06</v>
+        <v>2806309510305.444</v>
       </c>
       <c r="H21" t="n">
-        <v>5.181787882394225</v>
+        <v>2.10952859073835</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2691482970854593</v>
+        <v>0.7156220230942377</v>
       </c>
       <c r="J21" t="n">
-        <v>1.295446970598556</v>
+        <v>0.5273821476845876</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001385392563365003</v>
+        <v>130451912951058.1</v>
       </c>
       <c r="C22" t="n">
-        <v>3.692339082901565e-05</v>
+        <v>44285701083793.25</v>
       </c>
       <c r="D22" t="n">
-        <v>2.141235560243281e-05</v>
+        <v>2243807197250.031</v>
       </c>
       <c r="E22" t="n">
-        <v>3.592253293287639e-06</v>
+        <v>3320769156975.773</v>
       </c>
       <c r="F22" t="n">
-        <v>6.61417392719377e-06</v>
+        <v>6204813150641.089</v>
       </c>
       <c r="G22" t="n">
-        <v>8.498645790878241e-06</v>
+        <v>7900553051590.967</v>
       </c>
       <c r="H22" t="n">
-        <v>6.453292461290568</v>
+        <v>1.12673227674652</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1677572298106549</v>
+        <v>0.8900079704188313</v>
       </c>
       <c r="J22" t="n">
-        <v>1.613323115322642</v>
+        <v>0.2816830691866301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002172017375684555</v>
+        <v>206108230748798.1</v>
       </c>
       <c r="C23" t="n">
-        <v>5.677891359444733e-05</v>
+        <v>74167782591061.88</v>
       </c>
       <c r="D23" t="n">
-        <v>3.564032076722672e-05</v>
+        <v>-5664251678381.531</v>
       </c>
       <c r="E23" t="n">
-        <v>5.560938329378597e-06</v>
+        <v>5192411678617.655</v>
       </c>
       <c r="F23" t="n">
-        <v>1.036762634866103e-05</v>
+        <v>9540693063256.197</v>
       </c>
       <c r="G23" t="n">
-        <v>1.326218383763461e-05</v>
+        <v>12313693615819.7</v>
       </c>
       <c r="H23" t="n">
-        <v>12.94880582630552</v>
+        <v>3.320864147130329</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01152866570795437</v>
+        <v>0.5056333230999506</v>
       </c>
       <c r="J23" t="n">
-        <v>3.237201456576381</v>
+        <v>0.8302160367825822</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003267242326053165</v>
+        <v>308723361594694.8</v>
       </c>
       <c r="C24" t="n">
-        <v>7.56292614583948e-05</v>
+        <v>97390113637050.55</v>
       </c>
       <c r="D24" t="n">
-        <v>3.396516118471451e-05</v>
+        <v>-15658170688942.19</v>
       </c>
       <c r="E24" t="n">
-        <v>8.231237033102889e-06</v>
+        <v>7662180814845.796</v>
       </c>
       <c r="F24" t="n">
-        <v>1.519429236613164e-05</v>
+        <v>14055522933919.8</v>
       </c>
       <c r="G24" t="n">
-        <v>1.931389661284664e-05</v>
+        <v>17936093113281.16</v>
       </c>
       <c r="H24" t="n">
-        <v>11.92101602016924</v>
+        <v>2.221020162988578</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01794837767334848</v>
+        <v>0.6951828194518205</v>
       </c>
       <c r="J24" t="n">
-        <v>2.980254005042311</v>
+        <v>0.5552550407471444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003315311776284231</v>
+        <v>312630571053684.5</v>
       </c>
       <c r="C25" t="n">
-        <v>8.4608582580331e-05</v>
+        <v>101673977332514.6</v>
       </c>
       <c r="D25" t="n">
-        <v>3.802766091585698e-05</v>
+        <v>-6273745534168.688</v>
       </c>
       <c r="E25" t="n">
-        <v>8.120205811888306e-06</v>
+        <v>7566305287909.939</v>
       </c>
       <c r="F25" t="n">
-        <v>1.507797517691112e-05</v>
+        <v>13932211752182.65</v>
       </c>
       <c r="G25" t="n">
-        <v>1.935568119288231e-05</v>
+        <v>17977802322173.15</v>
       </c>
       <c r="H25" t="n">
-        <v>10.48375518863905</v>
+        <v>2.53532214684474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03302149517341597</v>
+        <v>0.6383221809720363</v>
       </c>
       <c r="J25" t="n">
-        <v>2.620938797159762</v>
+        <v>0.6338305367111851</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003070368430431036</v>
+        <v>290648201353995.6</v>
       </c>
       <c r="C26" t="n">
-        <v>6.253995184692869e-05</v>
+        <v>86810014802649.88</v>
       </c>
       <c r="D26" t="n">
-        <v>4.62601668145007e-05</v>
+        <v>-8143417378775.438</v>
       </c>
       <c r="E26" t="n">
-        <v>7.670343780992542e-06</v>
+        <v>7190111285742.86</v>
       </c>
       <c r="F26" t="n">
-        <v>1.433143889809654e-05</v>
+        <v>13065493356952.25</v>
       </c>
       <c r="G26" t="n">
-        <v>1.813190706645858e-05</v>
+        <v>16820943202163.91</v>
       </c>
       <c r="H26" t="n">
-        <v>11.19878120569296</v>
+        <v>3.986395676874399</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02441852310646846</v>
+        <v>0.4078501255624862</v>
       </c>
       <c r="J26" t="n">
-        <v>2.79969530142324</v>
+        <v>0.9965989192185997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0002924368623851435</v>
+        <v>276251723586837.3</v>
       </c>
       <c r="C27" t="n">
-        <v>6.774695635675915e-05</v>
+        <v>88041497218929.47</v>
       </c>
       <c r="D27" t="n">
-        <v>4.272038627543774e-05</v>
+        <v>-4815911457981.5</v>
       </c>
       <c r="E27" t="n">
-        <v>7.505426102205581e-06</v>
+        <v>6977489233526.492</v>
       </c>
       <c r="F27" t="n">
-        <v>1.385025461496862e-05</v>
+        <v>12842659190745.02</v>
       </c>
       <c r="G27" t="n">
-        <v>1.771943613239006e-05</v>
+        <v>16458405353629.29</v>
       </c>
       <c r="H27" t="n">
-        <v>10.91584497388156</v>
+        <v>3.915235333319286</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02752626009733442</v>
+        <v>0.4175990302027284</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72896124347039</v>
+        <v>0.9788088333298216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0002936232125012682</v>
+        <v>277584891121239.9</v>
       </c>
       <c r="C28" t="n">
-        <v>6.110412840075954e-05</v>
+        <v>83306360528638.02</v>
       </c>
       <c r="D28" t="n">
-        <v>4.075029152756239e-05</v>
+        <v>-8692737792126.625</v>
       </c>
       <c r="E28" t="n">
-        <v>7.522188443587795e-06</v>
+        <v>7010503354756.363</v>
       </c>
       <c r="F28" t="n">
-        <v>1.390268775461123e-05</v>
+        <v>12829789513057.14</v>
       </c>
       <c r="G28" t="n">
-        <v>1.76982507667637e-05</v>
+        <v>16431778548464.55</v>
       </c>
       <c r="H28" t="n">
-        <v>10.43634656234932</v>
+        <v>3.184171164520975</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03368518669334894</v>
+        <v>0.5274913633996021</v>
       </c>
       <c r="J28" t="n">
-        <v>2.609086640587329</v>
+        <v>0.7960427911302438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>0.000298227821964963</v>
+        <v>281989341898140.6</v>
       </c>
       <c r="C29" t="n">
-        <v>5.851460579486383e-05</v>
+        <v>81548496708454.23</v>
       </c>
       <c r="D29" t="n">
-        <v>4.073452872846493e-05</v>
+        <v>-9610572009857.5</v>
       </c>
       <c r="E29" t="n">
-        <v>7.465839098660281e-06</v>
+        <v>6984895668969.661</v>
       </c>
       <c r="F29" t="n">
-        <v>1.390746874937535e-05</v>
+        <v>12723761011921.54</v>
       </c>
       <c r="G29" t="n">
-        <v>1.750384861528239e-05</v>
+        <v>16240865614753.37</v>
       </c>
       <c r="H29" t="n">
-        <v>9.902052269666504</v>
+        <v>2.536429196592683</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04211031861805519</v>
+        <v>0.6381246766087277</v>
       </c>
       <c r="J29" t="n">
-        <v>2.475513067416626</v>
+        <v>0.6341072991481708</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.000287447617467634</v>
+        <v>271929484020871.6</v>
       </c>
       <c r="C30" t="n">
-        <v>5.447359074618803e-05</v>
+        <v>78553248555675.28</v>
       </c>
       <c r="D30" t="n">
-        <v>4.540910488763292e-05</v>
+        <v>-6655412670067.312</v>
       </c>
       <c r="E30" t="n">
-        <v>7.222299348343078e-06</v>
+        <v>6763036136712.661</v>
       </c>
       <c r="F30" t="n">
-        <v>1.350724144043951e-05</v>
+        <v>12326310337519.76</v>
       </c>
       <c r="G30" t="n">
-        <v>1.696411439698276e-05</v>
+        <v>15731842325949.05</v>
       </c>
       <c r="H30" t="n">
-        <v>11.04461279450158</v>
+        <v>4.787881622402524</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02606717700862815</v>
+        <v>0.309762599240295</v>
       </c>
       <c r="J30" t="n">
-        <v>2.761153198625395</v>
+        <v>1.196970405600631</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0002902475973755522</v>
+        <v>274564814277344.2</v>
       </c>
       <c r="C31" t="n">
-        <v>6.689073779670354e-05</v>
+        <v>87743824798374.06</v>
       </c>
       <c r="D31" t="n">
-        <v>4.03141316488767e-05</v>
+        <v>-8164702819208.188</v>
       </c>
       <c r="E31" t="n">
-        <v>7.321313976229263e-06</v>
+        <v>6836366360803.684</v>
       </c>
       <c r="F31" t="n">
-        <v>1.360587791972866e-05</v>
+        <v>12506735905422.34</v>
       </c>
       <c r="G31" t="n">
-        <v>1.730804469933702e-05</v>
+        <v>16067756658592.87</v>
       </c>
       <c r="H31" t="n">
-        <v>11.2875010126022</v>
+        <v>3.007592059008516</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02351600873516738</v>
+        <v>0.5565556921959443</v>
       </c>
       <c r="J31" t="n">
-        <v>2.821875253150549</v>
+        <v>0.751898014752129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0002875153780151965</v>
+        <v>273330254402903.6</v>
       </c>
       <c r="C32" t="n">
-        <v>6.951776946326197e-05</v>
+        <v>95237232900119.39</v>
       </c>
       <c r="D32" t="n">
-        <v>4.990887012603246e-05</v>
+        <v>-9536801180916.438</v>
       </c>
       <c r="E32" t="n">
-        <v>7.351902158173862e-06</v>
+        <v>6885387149617.343</v>
       </c>
       <c r="F32" t="n">
-        <v>1.372291151892546e-05</v>
+        <v>12550527098756.3</v>
       </c>
       <c r="G32" t="n">
-        <v>1.757523730492217e-05</v>
+        <v>16313330579813.01</v>
       </c>
       <c r="H32" t="n">
-        <v>14.12330057906398</v>
+        <v>4.545933846325117</v>
       </c>
       <c r="I32" t="n">
-        <v>0.006911752859434919</v>
+        <v>0.3371356074201325</v>
       </c>
       <c r="J32" t="n">
-        <v>3.530825144765994</v>
+        <v>1.136483461581279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0002815379351541154</v>
+        <v>265438540401236.5</v>
       </c>
       <c r="C33" t="n">
-        <v>6.082890957378112e-05</v>
+        <v>78848186766453.42</v>
       </c>
       <c r="D33" t="n">
-        <v>4.190892289703961e-05</v>
+        <v>-528906403834.6875</v>
       </c>
       <c r="E33" t="n">
-        <v>7.057457993535474e-06</v>
+        <v>6567936383560.923</v>
       </c>
       <c r="F33" t="n">
-        <v>1.30652335648726e-05</v>
+        <v>12089138475627.64</v>
       </c>
       <c r="G33" t="n">
-        <v>1.661621984064538e-05</v>
+        <v>15430317943200.82</v>
       </c>
       <c r="H33" t="n">
-        <v>8.667787598312724</v>
+        <v>3.331263747220198</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06996135339401825</v>
+        <v>0.5039940869082669</v>
       </c>
       <c r="J33" t="n">
-        <v>2.166946899578181</v>
+        <v>0.8328159368050496</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002758098166696309</v>
+        <v>259034761724710.1</v>
       </c>
       <c r="C34" t="n">
-        <v>6.5161380448451e-05</v>
+        <v>78210840879518.19</v>
       </c>
       <c r="D34" t="n">
-        <v>3.049304586756586e-05</v>
+        <v>-2047592770650.688</v>
       </c>
       <c r="E34" t="n">
-        <v>7.116230327939352e-06</v>
+        <v>6556962223495.88</v>
       </c>
       <c r="F34" t="n">
-        <v>1.29167252390089e-05</v>
+        <v>12200303867320.34</v>
       </c>
       <c r="G34" t="n">
-        <v>1.666258132362898e-05</v>
+        <v>15497473962462.28</v>
       </c>
       <c r="H34" t="n">
-        <v>7.660394717209442</v>
+        <v>2.129924101738447</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1048410347493473</v>
+        <v>0.711876952570843</v>
       </c>
       <c r="J34" t="n">
-        <v>1.915098679302361</v>
+        <v>0.5324810254346118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002543289320453458</v>
+        <v>241323014178667.2</v>
       </c>
       <c r="C35" t="n">
-        <v>5.460554999947023e-05</v>
+        <v>77960045581123.31</v>
       </c>
       <c r="D35" t="n">
-        <v>4.488342077359182e-05</v>
+        <v>-6894632278713.938</v>
       </c>
       <c r="E35" t="n">
-        <v>6.438335614329267e-06</v>
+        <v>6033334358583.57</v>
       </c>
       <c r="F35" t="n">
-        <v>1.206431971850782e-05</v>
+        <v>11005755837483.34</v>
       </c>
       <c r="G35" t="n">
-        <v>1.526207591163695e-05</v>
+        <v>14158635261849.97</v>
       </c>
       <c r="H35" t="n">
-        <v>13.02921639700054</v>
+        <v>5.204802810902348</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01113391623520547</v>
+        <v>0.2669214855857543</v>
       </c>
       <c r="J35" t="n">
-        <v>3.257304099250134</v>
+        <v>1.301200702725587</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002311014576631897</v>
+        <v>219563859687977.3</v>
       </c>
       <c r="C36" t="n">
-        <v>5.020586796903296e-05</v>
+        <v>72262926138008.16</v>
       </c>
       <c r="D36" t="n">
-        <v>4.418277915133978e-05</v>
+        <v>-5392865289526.125</v>
       </c>
       <c r="E36" t="n">
-        <v>5.826401056146153e-06</v>
+        <v>5476856551986.388</v>
       </c>
       <c r="F36" t="n">
-        <v>1.097458392360725e-05</v>
+        <v>9951030372518.508</v>
       </c>
       <c r="G36" t="n">
-        <v>1.390726888437488e-05</v>
+        <v>12899176868906.71</v>
       </c>
       <c r="H36" t="n">
-        <v>13.56885806572728</v>
+        <v>6.008887716973292</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00880616202681923</v>
+        <v>0.1984855158733536</v>
       </c>
       <c r="J36" t="n">
-        <v>3.39221451643182</v>
+        <v>1.502221929243323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001881065413277511</v>
+        <v>178422696843763.6</v>
       </c>
       <c r="C37" t="n">
-        <v>4.388681092290462e-05</v>
+        <v>58894084423736.41</v>
       </c>
       <c r="D37" t="n">
-        <v>2.678217415880125e-05</v>
+        <v>-7658388949741.562</v>
       </c>
       <c r="E37" t="n">
-        <v>4.709668221128742e-06</v>
+        <v>4410945949236.481</v>
       </c>
       <c r="F37" t="n">
-        <v>8.789830027096051e-06</v>
+        <v>8040028979161.729</v>
       </c>
       <c r="G37" t="n">
-        <v>1.116979514300572e-05</v>
+        <v>10368688937336.86</v>
       </c>
       <c r="H37" t="n">
-        <v>13.29777808534098</v>
+        <v>3.259378006837856</v>
       </c>
       <c r="I37" t="n">
-        <v>0.009908833682270159</v>
+        <v>0.5153941074098113</v>
       </c>
       <c r="J37" t="n">
-        <v>3.324444521335244</v>
+        <v>0.814844501709464</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001507538904569764</v>
+        <v>142323757112282.2</v>
       </c>
       <c r="C38" t="n">
-        <v>3.08270916374151e-05</v>
+        <v>41032193552462.77</v>
       </c>
       <c r="D38" t="n">
-        <v>1.861034144070618e-05</v>
+        <v>-4504582819438.312</v>
       </c>
       <c r="E38" t="n">
-        <v>3.760565617795579e-06</v>
+        <v>3507119036631.457</v>
       </c>
       <c r="F38" t="n">
-        <v>6.958071799545333e-06</v>
+        <v>6412680951471.05</v>
       </c>
       <c r="G38" t="n">
-        <v>8.849045231596972e-06</v>
+        <v>8215787050361.881</v>
       </c>
       <c r="H38" t="n">
-        <v>9.896114636504981</v>
+        <v>2.669009367260516</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04221445195654756</v>
+        <v>0.6146483631476474</v>
       </c>
       <c r="J38" t="n">
-        <v>2.474028659126245</v>
+        <v>0.667252341815129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001007533066530208</v>
+        <v>95725341402996.52</v>
       </c>
       <c r="C39" t="n">
-        <v>2.222345155771879e-05</v>
+        <v>31805582464031.36</v>
       </c>
       <c r="D39" t="n">
-        <v>1.997847755407474e-05</v>
+        <v>-1708667681753.469</v>
       </c>
       <c r="E39" t="n">
-        <v>2.5370039273538e-06</v>
+        <v>2387160426518.613</v>
       </c>
       <c r="F39" t="n">
-        <v>4.79057167783252e-06</v>
+        <v>4334238133698.686</v>
       </c>
       <c r="G39" t="n">
-        <v>6.058016087416129e-06</v>
+        <v>5616247304611.053</v>
       </c>
       <c r="H39" t="n">
-        <v>11.71415435594222</v>
+        <v>4.638863375485355</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0196084262507758</v>
+        <v>0.3263978973492176</v>
       </c>
       <c r="J39" t="n">
-        <v>2.928538588985554</v>
+        <v>1.159715843871339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001437785054931939</v>
+        <v>135459738729064.9</v>
       </c>
       <c r="C40" t="n">
-        <v>3.235165715109308e-05</v>
+        <v>40965356819094.99</v>
       </c>
       <c r="D40" t="n">
-        <v>1.803347973958119e-05</v>
+        <v>-2242084017044.406</v>
       </c>
       <c r="E40" t="n">
-        <v>3.673364624470947e-06</v>
+        <v>3405256979896.177</v>
       </c>
       <c r="F40" t="n">
-        <v>6.750227082747198e-06</v>
+        <v>6293994547753.458</v>
       </c>
       <c r="G40" t="n">
-        <v>8.627360607745127e-06</v>
+        <v>8015711623386.268</v>
       </c>
       <c r="H40" t="n">
-        <v>8.125526239606472</v>
+        <v>1.769183734357053</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08708673399798898</v>
+        <v>0.7781152840198553</v>
       </c>
       <c r="J40" t="n">
-        <v>2.031381559901618</v>
+        <v>0.4422959335892632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>7.142307116721306e-05</v>
+        <v>67707278445691.77</v>
       </c>
       <c r="C41" t="n">
-        <v>1.660601400585675e-05</v>
+        <v>22692310124447.83</v>
       </c>
       <c r="D41" t="n">
-        <v>1.108907434923506e-05</v>
+        <v>-2491249892262.672</v>
       </c>
       <c r="E41" t="n">
-        <v>1.862520336095129e-06</v>
+        <v>1735815129098.486</v>
       </c>
       <c r="F41" t="n">
-        <v>3.454600282553664e-06</v>
+        <v>3188547913288.899</v>
       </c>
       <c r="G41" t="n">
-        <v>4.385826531149414e-06</v>
+        <v>4071491011739.768</v>
       </c>
       <c r="H41" t="n">
-        <v>12.14984381687197</v>
+        <v>3.210441586903634</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01627108776894703</v>
+        <v>0.5232461035710634</v>
       </c>
       <c r="J41" t="n">
-        <v>3.037460954217993</v>
+        <v>0.8026103967259086</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>4.90911907582069e-05</v>
+        <v>46001316239469.5</v>
       </c>
       <c r="C42" t="n">
-        <v>8.019937545475525e-06</v>
+        <v>10397802470579.71</v>
       </c>
       <c r="D42" t="n">
-        <v>4.543462559433465e-06</v>
+        <v>-633993915092.4297</v>
       </c>
       <c r="E42" t="n">
-        <v>1.299337472379027e-06</v>
+        <v>1194169898247.184</v>
       </c>
       <c r="F42" t="n">
-        <v>2.32844843284469e-06</v>
+        <v>2217976805939.377</v>
       </c>
       <c r="G42" t="n">
-        <v>2.977053348645272e-06</v>
+        <v>2772743954884.706</v>
       </c>
       <c r="H42" t="n">
-        <v>5.058864173314173</v>
+        <v>1.677745590426927</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2813108169988172</v>
+        <v>0.7947560850891799</v>
       </c>
       <c r="J42" t="n">
-        <v>1.264716043328543</v>
+        <v>0.4194363976067316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719163979242035e-05</v>
+        <v>35157113130996.13</v>
       </c>
       <c r="C43" t="n">
-        <v>4.919605580164355e-06</v>
+        <v>8467722729293.133</v>
       </c>
       <c r="D43" t="n">
-        <v>4.817520174807272e-06</v>
+        <v>-1968639393217.898</v>
       </c>
       <c r="E43" t="n">
-        <v>9.984579482633211e-07</v>
+        <v>927143338401.3923</v>
       </c>
       <c r="F43" t="n">
-        <v>1.816508537602277e-06</v>
+        <v>1687704655539.449</v>
       </c>
       <c r="G43" t="n">
-        <v>2.2746245561667e-06</v>
+        <v>2111647544989.217</v>
       </c>
       <c r="H43" t="n">
-        <v>10.65961354729619</v>
+        <v>4.860596195180093</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03066795245965427</v>
+        <v>0.3019025694815825</v>
       </c>
       <c r="J43" t="n">
-        <v>2.664903386824049</v>
+        <v>1.215149048795023</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.281098860483391e-05</v>
+        <v>21340838477139.95</v>
       </c>
       <c r="C44" t="n">
-        <v>2.934300131750403e-06</v>
+        <v>3916866503915.406</v>
       </c>
       <c r="D44" t="n">
-        <v>1.698599094147266e-06</v>
+        <v>-329971922716.5625</v>
       </c>
       <c r="E44" t="n">
-        <v>6.662927595243442e-07</v>
+        <v>608650404720.1685</v>
       </c>
       <c r="F44" t="n">
-        <v>1.171379668801235e-06</v>
+        <v>1130561046962.863</v>
       </c>
       <c r="G44" t="n">
-        <v>1.505454296073684e-06</v>
+        <v>1403057009113.843</v>
       </c>
       <c r="H44" t="n">
-        <v>6.703171547713543</v>
+        <v>4.735391699108916</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1524306638700331</v>
+        <v>0.3155408705599239</v>
       </c>
       <c r="J44" t="n">
-        <v>1.675792886928386</v>
+        <v>1.183847924777229</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.009910944117843e-05</v>
+        <v>18937513786009.22</v>
       </c>
       <c r="C45" t="n">
-        <v>5.582370545872623e-07</v>
+        <v>2378696042849.102</v>
       </c>
       <c r="D45" t="n">
-        <v>1.807738993469897e-06</v>
+        <v>-1299127814075.758</v>
       </c>
       <c r="E45" t="n">
-        <v>6.177982581813627e-07</v>
+        <v>568799855405.0635</v>
       </c>
       <c r="F45" t="n">
-        <v>1.07939463342827e-06</v>
+        <v>1033008315111</v>
       </c>
       <c r="G45" t="n">
-        <v>1.377411342809602e-06</v>
+        <v>1285223062692.899</v>
       </c>
       <c r="H45" t="n">
-        <v>10.92568831667161</v>
+        <v>9.096998309106388</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02741199287326768</v>
+        <v>0.05872018841558982</v>
       </c>
       <c r="J45" t="n">
-        <v>2.731422079167902</v>
+        <v>2.274249577276597</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.942661468846525e-05</v>
+        <v>18074694999434.38</v>
       </c>
       <c r="C46" t="n">
-        <v>5.175618377183698e-07</v>
+        <v>1059918884214.436</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.390145929419564e-07</v>
+        <v>-1305710238434.863</v>
       </c>
       <c r="E46" t="n">
-        <v>5.863931837926556e-07</v>
+        <v>531478944070.1121</v>
       </c>
       <c r="F46" t="n">
-        <v>9.943608954934874e-07</v>
+        <v>984099889395.6605</v>
       </c>
       <c r="G46" t="n">
-        <v>1.272290480099766e-06</v>
+        <v>1189757468027.766</v>
       </c>
       <c r="H46" t="n">
-        <v>3.674636675076442</v>
+        <v>2.473404632179429</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4518256160490223</v>
+        <v>0.6494043536255441</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9186591687691106</v>
+        <v>0.6183511580448572</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.134873142683934e-05</v>
+        <v>19768434244162.53</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.031911175963356e-08</v>
+        <v>-44563216063.28906</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.28678582376389e-06</v>
+        <v>-1064652433283.668</v>
       </c>
       <c r="E47" t="n">
-        <v>6.117562947159795e-07</v>
+        <v>555908761365.5531</v>
       </c>
       <c r="F47" t="n">
-        <v>1.027037094222265e-06</v>
+        <v>1027890044659.109</v>
       </c>
       <c r="G47" t="n">
-        <v>1.307351436804207e-06</v>
+        <v>1228700923430.883</v>
       </c>
       <c r="H47" t="n">
-        <v>3.294392274615927</v>
+        <v>3.447975608269373</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5098212428883679</v>
+        <v>0.4858327291408072</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8235980686539817</v>
+        <v>0.8619939020673433</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.696075041649824e-05</v>
+        <v>25150014226828.13</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.755794538986234e-06</v>
+        <v>-2459314780786.068</v>
       </c>
       <c r="D48" t="n">
-        <v>1.363477542957964e-06</v>
+        <v>2244753265475.758</v>
       </c>
       <c r="E48" t="n">
-        <v>7.382519707909985e-07</v>
+        <v>678399228897.358</v>
       </c>
       <c r="F48" t="n">
-        <v>1.271962144325017e-06</v>
+        <v>1282642043465.615</v>
       </c>
       <c r="G48" t="n">
-        <v>1.552582114394241e-06</v>
+        <v>1469200038561.356</v>
       </c>
       <c r="H48" t="n">
-        <v>3.197663913141508</v>
+        <v>1.175213041355949</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5253083476423703</v>
+        <v>0.8821625247693849</v>
       </c>
       <c r="J48" t="n">
-        <v>0.799415978285377</v>
+        <v>0.2938032603389872</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>3.718886090500032e-05</v>
+        <v>34674509981723.06</v>
       </c>
       <c r="C49" t="n">
-        <v>-3.509979945053021e-06</v>
+        <v>-2559700715512.809</v>
       </c>
       <c r="D49" t="n">
-        <v>1.785644378404054e-06</v>
+        <v>496094918638.0391</v>
       </c>
       <c r="E49" t="n">
-        <v>9.847910836932516e-07</v>
+        <v>909086920938.3792</v>
       </c>
       <c r="F49" t="n">
-        <v>1.713940525102587e-06</v>
+        <v>1663897181938.89</v>
       </c>
       <c r="G49" t="n">
-        <v>2.087341670154899e-06</v>
+        <v>1958881079684.098</v>
       </c>
       <c r="H49" t="n">
-        <v>3.028666068521109</v>
+        <v>4.382362584053487</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5530397159259903</v>
+        <v>0.3567249890726178</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7571665171302772</v>
+        <v>1.095590646013372</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>5.38727348019823e-05</v>
+        <v>50227451751363.61</v>
       </c>
       <c r="C50" t="n">
-        <v>-4.137211812883745e-06</v>
+        <v>-1791221503665.836</v>
       </c>
       <c r="D50" t="n">
-        <v>2.646791103405347e-06</v>
+        <v>-623440202477.2188</v>
       </c>
       <c r="E50" t="n">
-        <v>1.393633358394333e-06</v>
+        <v>1289212343673.363</v>
       </c>
       <c r="F50" t="n">
-        <v>2.46803121233001e-06</v>
+        <v>2350687600771.805</v>
       </c>
       <c r="G50" t="n">
-        <v>2.961667633493056e-06</v>
+        <v>2765957046287.586</v>
       </c>
       <c r="H50" t="n">
-        <v>3.719769971682326</v>
+        <v>5.354250982407403</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4452570262132987</v>
+        <v>0.2528410721965829</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9299424929205814</v>
+        <v>1.338562745601851</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>6.767823486783382e-05</v>
+        <v>63020350522555.77</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.636433181740811e-06</v>
+        <v>-2779751253425.156</v>
       </c>
       <c r="D51" t="n">
-        <v>1.282822413544403e-06</v>
+        <v>-1133622373803.234</v>
       </c>
       <c r="E51" t="n">
-        <v>1.686011172514885e-06</v>
+        <v>1558882559699.772</v>
       </c>
       <c r="F51" t="n">
-        <v>2.96379279893891e-06</v>
+        <v>2838020601415.822</v>
       </c>
       <c r="G51" t="n">
-        <v>3.576138990708295e-06</v>
+        <v>3345244342225.424</v>
       </c>
       <c r="H51" t="n">
-        <v>1.170167615566126</v>
+        <v>1.853406287952236</v>
       </c>
       <c r="I51" t="n">
-        <v>0.882985476623214</v>
+        <v>0.7626982400964577</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2925419038915316</v>
+        <v>0.4633515719880591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001271218455632619</v>
+        <v>118410349359121.3</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.189708552669799e-05</v>
+        <v>-10422716179710.12</v>
       </c>
       <c r="D52" t="n">
-        <v>3.059970947071495e-06</v>
+        <v>1471426910492</v>
       </c>
       <c r="E52" t="n">
-        <v>3.288516673558152e-06</v>
+        <v>3033495058022.745</v>
       </c>
       <c r="F52" t="n">
-        <v>5.708780650495653e-06</v>
+        <v>5593283113101.032</v>
       </c>
       <c r="G52" t="n">
-        <v>6.897823418924693e-06</v>
+        <v>6488870709844.793</v>
       </c>
       <c r="H52" t="n">
-        <v>2.687244868883448</v>
+        <v>3.141636585109226</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6114484348054642</v>
+        <v>0.5344088787050966</v>
       </c>
       <c r="J52" t="n">
-        <v>0.671811217220862</v>
+        <v>0.7854091462773065</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001996715335227166</v>
+        <v>185822818651899.6</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.36175265067109e-05</v>
+        <v>-20920109510399.59</v>
       </c>
       <c r="D53" t="n">
-        <v>-9.261685681042427e-07</v>
+        <v>-2746745881370.062</v>
       </c>
       <c r="E53" t="n">
-        <v>5.006545085914123e-06</v>
+        <v>4628172195518.131</v>
       </c>
       <c r="F53" t="n">
-        <v>8.712687150308527e-06</v>
+        <v>8459998222461.073</v>
       </c>
       <c r="G53" t="n">
-        <v>1.03488952642473e-05</v>
+        <v>9716187013556.285</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7500534123645869</v>
+        <v>1.092430894851585</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9450158751071185</v>
+        <v>0.8954712625086172</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1875133530911467</v>
+        <v>0.2731077237128963</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004676636448372147</v>
+        <v>435309024868020.1</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.19887873249163e-05</v>
+        <v>-53514562863243.81</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.216705959133194e-06</v>
+        <v>1742186870143.875</v>
       </c>
       <c r="E54" t="n">
-        <v>1.194818789396906e-05</v>
+        <v>11022384846324.28</v>
       </c>
       <c r="F54" t="n">
-        <v>2.058133553036233e-05</v>
+        <v>20395010200719.07</v>
       </c>
       <c r="G54" t="n">
-        <v>2.458246361447236e-05</v>
+        <v>23197524007704.7</v>
       </c>
       <c r="H54" t="n">
-        <v>1.014184284334282</v>
+        <v>0.5796602293035675</v>
       </c>
       <c r="I54" t="n">
-        <v>0.907637615774083</v>
+        <v>0.965296859023698</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2535460710835705</v>
+        <v>0.1449150573258919</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006993921326251547</v>
+        <v>651251046209255.5</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.667541500419161e-05</v>
+        <v>-62545725287849.62</v>
       </c>
       <c r="D55" t="n">
-        <v>1.99064108709721e-05</v>
+        <v>4127320151609.625</v>
       </c>
       <c r="E55" t="n">
-        <v>1.740682342983751e-05</v>
+        <v>16105033435649.56</v>
       </c>
       <c r="F55" t="n">
-        <v>3.0505584665134e-05</v>
+        <v>29359407145656.31</v>
       </c>
       <c r="G55" t="n">
-        <v>3.645663488896725e-05</v>
+        <v>34150420933836.38</v>
       </c>
       <c r="H55" t="n">
-        <v>2.401552547057157</v>
+        <v>3.392020654343173</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6623467134632012</v>
+        <v>0.4944855728484546</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6003881367642891</v>
+        <v>0.8480051635857934</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007376180551618678</v>
+        <v>686727331313491.8</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0001101843095454303</v>
+        <v>-88323024589652.12</v>
       </c>
       <c r="D56" t="n">
-        <v>3.155983817078865e-05</v>
+        <v>7615658435341.625</v>
       </c>
       <c r="E56" t="n">
-        <v>1.801233384675751e-05</v>
+        <v>16704426697146.81</v>
       </c>
       <c r="F56" t="n">
-        <v>3.177415707590239e-05</v>
+        <v>30233255993276.25</v>
       </c>
       <c r="G56" t="n">
-        <v>3.738348074297235e-05</v>
+        <v>34940142031193.61</v>
       </c>
       <c r="H56" t="n">
-        <v>2.664921100094122</v>
+        <v>4.740805893116094</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6153667732850375</v>
+        <v>0.314940785417221</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6662302750235306</v>
+        <v>1.185201473279023</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005436608153274348</v>
+        <v>506365703660203.8</v>
       </c>
       <c r="C57" t="n">
-        <v>-6.617111855859812e-05</v>
+        <v>-59413713624808.44</v>
       </c>
       <c r="D57" t="n">
-        <v>1.506758868167048e-05</v>
+        <v>9067744262601</v>
       </c>
       <c r="E57" t="n">
-        <v>1.360651050198318e-05</v>
+        <v>12588089183374.41</v>
       </c>
       <c r="F57" t="n">
-        <v>2.37420809253554e-05</v>
+        <v>23031975096450.03</v>
       </c>
       <c r="G57" t="n">
-        <v>2.827850003490757e-05</v>
+        <v>26549291746275.28</v>
       </c>
       <c r="H57" t="n">
-        <v>2.570093274381442</v>
+        <v>3.120209403273081</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6321300043500573</v>
+        <v>0.5379140204377246</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6425233185953604</v>
+        <v>0.7800523508182702</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002582132325547984</v>
+        <v>240624732518166.8</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.350758201709587e-05</v>
+        <v>-19319467242420.31</v>
       </c>
       <c r="D58" t="n">
-        <v>9.767875865132039e-06</v>
+        <v>-8065473592856.875</v>
       </c>
       <c r="E58" t="n">
-        <v>6.550463018530956e-06</v>
+        <v>6073561306637.576</v>
       </c>
       <c r="F58" t="n">
-        <v>1.158221549743684e-05</v>
+        <v>10937250138019.81</v>
       </c>
       <c r="G58" t="n">
-        <v>1.366176497047219e-05</v>
+        <v>12739246115244.73</v>
       </c>
       <c r="H58" t="n">
-        <v>1.805154885104883</v>
+        <v>4.28857734757888</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7715391007880659</v>
+        <v>0.3683576322096381</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4512887212762207</v>
+        <v>1.07214433689472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0001901613894313775</v>
+        <v>177043151214137.3</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.964965877816931e-05</v>
+        <v>-15943587082532.09</v>
       </c>
       <c r="D59" t="n">
-        <v>1.102093921313981e-06</v>
+        <v>-2682857585597.625</v>
       </c>
       <c r="E59" t="n">
-        <v>4.880913394549753e-06</v>
+        <v>4508246845011.298</v>
       </c>
       <c r="F59" t="n">
-        <v>8.499951764587545e-06</v>
+        <v>8272080732433.468</v>
       </c>
       <c r="G59" t="n">
-        <v>1.014518987899759e-05</v>
+        <v>9529086191029.957</v>
       </c>
       <c r="H59" t="n">
-        <v>1.703980891050444</v>
+        <v>2.292885153342747</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7899943635303733</v>
+        <v>0.6820647253602583</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4259952227626109</v>
+        <v>0.5732212883356869</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002537065531717815</v>
+        <v>236298048818852.2</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.559358539397705e-05</v>
+        <v>-30207097606233.69</v>
       </c>
       <c r="D60" t="n">
-        <v>6.42379990053874e-06</v>
+        <v>1099527102420.438</v>
       </c>
       <c r="E60" t="n">
-        <v>6.34555455798798e-06</v>
+        <v>5874441312859.572</v>
       </c>
       <c r="F60" t="n">
-        <v>1.108951602924058e-05</v>
+        <v>10696144200288.17</v>
       </c>
       <c r="G60" t="n">
-        <v>1.315162733621183e-05</v>
+        <v>12329040824190.69</v>
       </c>
       <c r="H60" t="n">
-        <v>2.548951115373176</v>
+        <v>3.679566934044522</v>
       </c>
       <c r="I60" t="n">
-        <v>0.635892308681192</v>
+        <v>0.4511047694178517</v>
       </c>
       <c r="J60" t="n">
-        <v>0.637237778843294</v>
+        <v>0.9198917335111305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>9.784723319493234e-05</v>
+        <v>91220258369202.84</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.652055871014058e-06</v>
+        <v>-5831682382976.68</v>
       </c>
       <c r="D61" t="n">
-        <v>4.429693044146182e-06</v>
+        <v>560977348503.4062</v>
       </c>
       <c r="E61" t="n">
-        <v>2.568396732861742e-06</v>
+        <v>2369997602701.934</v>
       </c>
       <c r="F61" t="n">
-        <v>4.471467036347216e-06</v>
+        <v>4335532125638.179</v>
       </c>
       <c r="G61" t="n">
-        <v>5.434632245126869e-06</v>
+        <v>5095513866844.909</v>
       </c>
       <c r="H61" t="n">
-        <v>3.175181516996641</v>
+        <v>4.575419223590987</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5289488599952421</v>
+        <v>0.3336981436796406</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7937953792491602</v>
+        <v>1.143854805897747</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>6.541627210901147e-05</v>
+        <v>61030555255486.98</v>
       </c>
       <c r="C62" t="n">
-        <v>-4.060670272181106e-06</v>
+        <v>-714774708063.0156</v>
       </c>
       <c r="D62" t="n">
-        <v>4.843657025911427e-06</v>
+        <v>-154443669359.6719</v>
       </c>
       <c r="E62" t="n">
-        <v>1.681627057219709e-06</v>
+        <v>1557914301851.195</v>
       </c>
       <c r="F62" t="n">
-        <v>2.993699188195611e-06</v>
+        <v>2827474878019.66</v>
       </c>
       <c r="G62" t="n">
-        <v>3.613739338891732e-06</v>
+        <v>3369769726743.35</v>
       </c>
       <c r="H62" t="n">
-        <v>2.178460613895448</v>
+        <v>4.46713702391243</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7029745548012858</v>
+        <v>0.3464619834988116</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5446151534738619</v>
+        <v>1.116784255978107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.701413748868466e-05</v>
+        <v>34677756908311.16</v>
       </c>
       <c r="C63" t="n">
-        <v>1.058008825058965e-06</v>
+        <v>3452229697108.914</v>
       </c>
       <c r="D63" t="n">
-        <v>3.009939132047049e-06</v>
+        <v>-1058505728859.805</v>
       </c>
       <c r="E63" t="n">
-        <v>1.020005218294928e-06</v>
+        <v>941567629609.6213</v>
       </c>
       <c r="F63" t="n">
-        <v>1.812759603612605e-06</v>
+        <v>1722221984841.45</v>
       </c>
       <c r="G63" t="n">
-        <v>2.249512547947809e-06</v>
+        <v>2096869332224.602</v>
       </c>
       <c r="H63" t="n">
-        <v>4.120072577336406</v>
+        <v>3.5919981628422</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3899996201893676</v>
+        <v>0.4640283703715926</v>
       </c>
       <c r="J63" t="n">
-        <v>1.030018144334101</v>
+        <v>0.8979995407105501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.804340436455082e-05</v>
+        <v>26025557824001.81</v>
       </c>
       <c r="C64" t="n">
-        <v>2.592610487826546e-06</v>
+        <v>2469726776336.795</v>
       </c>
       <c r="D64" t="n">
-        <v>8.20197233141063e-07</v>
+        <v>709373426359.25</v>
       </c>
       <c r="E64" t="n">
-        <v>7.85476726273211e-07</v>
+        <v>712127432432.0382</v>
       </c>
       <c r="F64" t="n">
-        <v>1.350064675485702e-06</v>
+        <v>1341123592033.695</v>
       </c>
       <c r="G64" t="n">
-        <v>1.739008521435334e-06</v>
+        <v>1629716440438.147</v>
       </c>
       <c r="H64" t="n">
-        <v>3.109278029345967</v>
+        <v>3.093250523700246</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5397074276810849</v>
+        <v>0.5423432334602291</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7773195073364917</v>
+        <v>0.7733126309250615</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>6.238147328990049e-05</v>
+        <v>58457265368013.01</v>
       </c>
       <c r="C65" t="n">
-        <v>1.345919028131053e-05</v>
+        <v>15940989914373.58</v>
       </c>
       <c r="D65" t="n">
-        <v>8.583979530480039e-06</v>
+        <v>2153142101636.062</v>
       </c>
       <c r="E65" t="n">
-        <v>1.681617217126348e-06</v>
+        <v>1545710814635.071</v>
       </c>
       <c r="F65" t="n">
-        <v>3.050997457459692e-06</v>
+        <v>2899329226394.004</v>
       </c>
       <c r="G65" t="n">
-        <v>3.905538110487209e-06</v>
+        <v>3635692494780.26</v>
       </c>
       <c r="H65" t="n">
-        <v>4.048031406319596</v>
+        <v>1.876914799371375</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3995445314563142</v>
+        <v>0.7583844001199989</v>
       </c>
       <c r="J65" t="n">
-        <v>1.012007851579899</v>
+        <v>0.4692286998428437</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001832719352931785</v>
+        <v>173329757763573.6</v>
       </c>
       <c r="C66" t="n">
-        <v>3.543637822247256e-05</v>
+        <v>50556070677241.17</v>
       </c>
       <c r="D66" t="n">
-        <v>2.773334808693027e-05</v>
+        <v>-5241717584177.281</v>
       </c>
       <c r="E66" t="n">
-        <v>4.750635583020969e-06</v>
+        <v>4425875572742.378</v>
       </c>
       <c r="F66" t="n">
-        <v>8.757112400026147e-06</v>
+        <v>8082053475029.379</v>
       </c>
       <c r="G66" t="n">
-        <v>1.116444682086703e-05</v>
+        <v>10366836125956.96</v>
       </c>
       <c r="H66" t="n">
-        <v>11.34705316929306</v>
+        <v>4.872616990341964</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02292841882473371</v>
+        <v>0.3006192660148261</v>
       </c>
       <c r="J66" t="n">
-        <v>2.836763292323264</v>
+        <v>1.218154247585491</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00032238499165387</v>
+        <v>302361764295271.9</v>
       </c>
       <c r="C67" t="n">
-        <v>5.593350150162585e-05</v>
+        <v>71376441604514.17</v>
       </c>
       <c r="D67" t="n">
-        <v>3.916742225224294e-05</v>
+        <v>3179296555633.438</v>
       </c>
       <c r="E67" t="n">
-        <v>8.005853936710199e-06</v>
+        <v>7419820741808.447</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46834484924058e-05</v>
+        <v>13719294235105.77</v>
       </c>
       <c r="G67" t="n">
-        <v>1.858256677961061e-05</v>
+        <v>17273456147148.61</v>
       </c>
       <c r="H67" t="n">
-        <v>4.895133855111297</v>
+        <v>2.091651871241436</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2982276423193541</v>
+        <v>0.7189062298905355</v>
       </c>
       <c r="J67" t="n">
-        <v>1.223783463777824</v>
+        <v>0.5229129678103589</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0005859235168474056</v>
+        <v>550625864174920.3</v>
       </c>
       <c r="C68" t="n">
-        <v>7.95148922959075e-05</v>
+        <v>115422386406557.7</v>
       </c>
       <c r="D68" t="n">
-        <v>6.095300417726149e-05</v>
+        <v>-14007964170428.25</v>
       </c>
       <c r="E68" t="n">
-        <v>1.457699691344295e-05</v>
+        <v>13558679259940.72</v>
       </c>
       <c r="F68" t="n">
-        <v>2.665566979031699e-05</v>
+        <v>24682786461194.24</v>
       </c>
       <c r="G68" t="n">
-        <v>3.365976076529687e-05</v>
+        <v>31256128411716.52</v>
       </c>
       <c r="H68" t="n">
-        <v>8.392237905292451</v>
+        <v>4.515708221782883</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07822179506586444</v>
+        <v>0.340688952596323</v>
       </c>
       <c r="J68" t="n">
-        <v>2.098059476323113</v>
+        <v>1.128927055445721</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0005868989744979476</v>
+        <v>551069918138956.3</v>
       </c>
       <c r="C69" t="n">
-        <v>8.900456398678371e-05</v>
+        <v>120529745603497.6</v>
       </c>
       <c r="D69" t="n">
-        <v>6.383126743508642e-05</v>
+        <v>-5449308747348</v>
       </c>
       <c r="E69" t="n">
-        <v>1.39787030335255e-05</v>
+        <v>13039766264075.38</v>
       </c>
       <c r="F69" t="n">
-        <v>2.589803083538233e-05</v>
+        <v>23804786384999.59</v>
       </c>
       <c r="G69" t="n">
-        <v>3.240320162735539e-05</v>
+        <v>30064579972326.55</v>
       </c>
       <c r="H69" t="n">
-        <v>5.759242612714679</v>
+        <v>2.095935406125134</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2178641100522103</v>
+        <v>0.7181191576319998</v>
       </c>
       <c r="J69" t="n">
-        <v>1.43981065317867</v>
+        <v>0.5239838515312836</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001022200504480621</v>
+        <v>956671828456326.1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001346499548630993</v>
+        <v>177050075539897.7</v>
       </c>
       <c r="D70" t="n">
-        <v>8.878447974131152e-05</v>
+        <v>-3895081517715.75</v>
       </c>
       <c r="E70" t="n">
-        <v>2.464978196397956e-05</v>
+        <v>22868202711675.12</v>
       </c>
       <c r="F70" t="n">
-        <v>4.505417568008516e-05</v>
+        <v>42008751264594.55</v>
       </c>
       <c r="G70" t="n">
-        <v>5.639615448077564e-05</v>
+        <v>52416456667018.23</v>
       </c>
       <c r="H70" t="n">
-        <v>4.038810828276742</v>
+        <v>1.637541152998279</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4007788560893277</v>
+        <v>0.8020295622882458</v>
       </c>
       <c r="J70" t="n">
-        <v>1.009702707069186</v>
+        <v>0.4093852882495698</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001134721938662179</v>
+        <v>1061943690844194</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001289098198260747</v>
+        <v>178630101535858.6</v>
       </c>
       <c r="D71" t="n">
-        <v>8.68940014729922e-05</v>
+        <v>-16475632969591.25</v>
       </c>
       <c r="E71" t="n">
-        <v>2.826983603421669e-05</v>
+        <v>26170711057983.45</v>
       </c>
       <c r="F71" t="n">
-        <v>5.102767365932053e-05</v>
+        <v>47872501990144.96</v>
       </c>
       <c r="G71" t="n">
-        <v>6.438327588261383e-05</v>
+        <v>59886477332333.08</v>
       </c>
       <c r="H71" t="n">
-        <v>5.371444132372785</v>
+        <v>3.039907019623633</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2512628661568325</v>
+        <v>0.5511694105367935</v>
       </c>
       <c r="J71" t="n">
-        <v>1.342861033093196</v>
+        <v>0.7599767549059082</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001471331078209042</v>
+        <v>1372064736075229</v>
       </c>
       <c r="C72" t="n">
-        <v>4.886582579005064e-05</v>
+        <v>92092660949152</v>
       </c>
       <c r="D72" t="n">
-        <v>5.671345781969373e-05</v>
+        <v>-22068438023728.25</v>
       </c>
       <c r="E72" t="n">
-        <v>3.286615423170997e-05</v>
+        <v>30625503006842.43</v>
       </c>
       <c r="F72" t="n">
-        <v>5.99674135597527e-05</v>
+        <v>55071178291145.17</v>
       </c>
       <c r="G72" t="n">
-        <v>7.345840770337936e-05</v>
+        <v>68108940432684.41</v>
       </c>
       <c r="H72" t="n">
-        <v>1.847894586324632</v>
+        <v>1.224287355170797</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7637090891437074</v>
+        <v>0.8740839044171624</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4619736465811581</v>
+        <v>0.3060718387926993</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002230034727262287</v>
+        <v>2075767865757876</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.0001145582890854616</v>
+        <v>-47883788534120.75</v>
       </c>
       <c r="D73" t="n">
-        <v>9.852241552665408e-05</v>
+        <v>2445311112434.5</v>
       </c>
       <c r="E73" t="n">
-        <v>5.121819967557001e-05</v>
+        <v>47572888726881.52</v>
       </c>
       <c r="F73" t="n">
-        <v>9.21722435464477e-05</v>
+        <v>85710177089069.25</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0001109602270117172</v>
+        <v>103101088437684.8</v>
       </c>
       <c r="H73" t="n">
-        <v>3.01423202965285</v>
+        <v>4.238209679308798</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5554465354415263</v>
+        <v>0.3747265236344364</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7535580074132125</v>
+        <v>1.059552419827199</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002058648418763841</v>
+        <v>1914674979672317</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0001182630120646205</v>
+        <v>-93725087840846.75</v>
       </c>
       <c r="D74" t="n">
-        <v>4.696888735506062e-05</v>
+        <v>17273121021761</v>
       </c>
       <c r="E74" t="n">
-        <v>4.778310301156161e-05</v>
+        <v>44251229820684.24</v>
       </c>
       <c r="F74" t="n">
-        <v>8.469125892139106e-05</v>
+        <v>80209544844643.28</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001029335731724625</v>
+        <v>96015561866149.45</v>
       </c>
       <c r="H74" t="n">
-        <v>3.499849956612674</v>
+        <v>3.911062975063331</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4779011592827039</v>
+        <v>0.4181759540064321</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8749624891531684</v>
+        <v>0.9777657437658327</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001047782911722176</v>
+        <v>976362044059050.1</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.224737162697965e-05</v>
+        <v>-36323764363040</v>
       </c>
       <c r="D75" t="n">
-        <v>5.587663956681732e-05</v>
+        <v>-8420883481308.5</v>
       </c>
       <c r="E75" t="n">
-        <v>2.585302723973293e-05</v>
+        <v>23969926327775.01</v>
       </c>
       <c r="F75" t="n">
-        <v>4.605701430065202e-05</v>
+        <v>43360763751799.84</v>
       </c>
       <c r="G75" t="n">
-        <v>5.519801471560555e-05</v>
+        <v>51429811153401.76</v>
       </c>
       <c r="H75" t="n">
-        <v>2.803510746658318</v>
+        <v>4.773847269127954</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5912268479357019</v>
+        <v>0.3112989396897213</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7008776866645794</v>
+        <v>1.193461817281988</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005624094306173774</v>
+        <v>522794302397261.1</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.613038386522392e-05</v>
+        <v>-27062436466168.19</v>
       </c>
       <c r="D76" t="n">
-        <v>6.036872778038488e-07</v>
+        <v>3845486875326</v>
       </c>
       <c r="E76" t="n">
-        <v>1.379001819556206e-05</v>
+        <v>12708633280859.71</v>
       </c>
       <c r="F76" t="n">
-        <v>2.406549540241759e-05</v>
+        <v>23457102848899.95</v>
       </c>
       <c r="G76" t="n">
-        <v>2.92873683297639e-05</v>
+        <v>27492926944711.34</v>
       </c>
       <c r="H76" t="n">
-        <v>1.387480671644867</v>
+        <v>1.275877605424425</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8463679913635305</v>
+        <v>0.8654547575205922</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3468701679112168</v>
+        <v>0.3189694013561063</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004521324627078339</v>
+        <v>422852538469050.4</v>
       </c>
       <c r="C77" t="n">
-        <v>3.6655158171686e-05</v>
+        <v>57312246677677.44</v>
       </c>
       <c r="D77" t="n">
-        <v>3.37743637552968e-05</v>
+        <v>-6149697663778.375</v>
       </c>
       <c r="E77" t="n">
-        <v>1.129227565254528e-05</v>
+        <v>10453840585745.69</v>
       </c>
       <c r="F77" t="n">
-        <v>2.035070977852762e-05</v>
+        <v>19115416514211.96</v>
       </c>
       <c r="G77" t="n">
-        <v>2.53878750372547e-05</v>
+        <v>23624056792872.53</v>
       </c>
       <c r="H77" t="n">
-        <v>4.174197263456412</v>
+        <v>2.725033515723377</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3829438386066184</v>
+        <v>0.6048412305551103</v>
       </c>
       <c r="J77" t="n">
-        <v>1.043549315864103</v>
+        <v>0.6812583789308443</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001016899017008687</v>
+        <v>954769503794769.4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0001653124276812188</v>
+        <v>214274327691228.1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0001005866157767082</v>
+        <v>-11300086315027.25</v>
       </c>
       <c r="E78" t="n">
-        <v>2.412650397858534e-05</v>
+        <v>22517531488639.72</v>
       </c>
       <c r="F78" t="n">
-        <v>4.467688892078919e-05</v>
+        <v>41042343961812.31</v>
       </c>
       <c r="G78" t="n">
-        <v>5.615345676254292e-05</v>
+        <v>52102914866651.88</v>
       </c>
       <c r="H78" t="n">
-        <v>6.463465482335463</v>
+        <v>2.396334043712947</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1671069586696195</v>
+        <v>0.6632898660436395</v>
       </c>
       <c r="J78" t="n">
-        <v>1.615866370583866</v>
+        <v>0.5990835109282366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001140687492383807</v>
+        <v>1073977293364180</v>
       </c>
       <c r="C79" t="n">
-        <v>0.000201206292998019</v>
+        <v>269403060571836.3</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0001287731215288443</v>
+        <v>-23612973504682.5</v>
       </c>
       <c r="E79" t="n">
-        <v>2.78693451757911e-05</v>
+        <v>26027524073822.77</v>
       </c>
       <c r="F79" t="n">
-        <v>5.170018804694218e-05</v>
+        <v>47451832964970.47</v>
       </c>
       <c r="G79" t="n">
-        <v>6.523466553867782e-05</v>
+        <v>60531447021716.49</v>
       </c>
       <c r="H79" t="n">
-        <v>8.591191437181703</v>
+        <v>3.279790558612525</v>
       </c>
       <c r="I79" t="n">
-        <v>0.07217076442175284</v>
+        <v>0.5121406268370108</v>
       </c>
       <c r="J79" t="n">
-        <v>2.147797859295426</v>
+        <v>0.8199476396531312</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008266202971454033</v>
+        <v>780797843178695.1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001795802008926333</v>
+        <v>229233871308579.5</v>
       </c>
       <c r="D80" t="n">
-        <v>8.973689091748647e-05</v>
+        <v>-28172046736871.88</v>
       </c>
       <c r="E80" t="n">
-        <v>1.97146962718741e-05</v>
+        <v>18497969222870.25</v>
       </c>
       <c r="F80" t="n">
-        <v>3.687420646888931e-05</v>
+        <v>33580490367007.49</v>
       </c>
       <c r="G80" t="n">
-        <v>4.648348428201617e-05</v>
+        <v>43126520876303.93</v>
       </c>
       <c r="H80" t="n">
-        <v>9.25779782523211</v>
+        <v>0.7087142016780238</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0549690453164872</v>
+        <v>0.9502499502887795</v>
       </c>
       <c r="J80" t="n">
-        <v>2.314449456308028</v>
+        <v>0.1771785504195059</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004393823180324891</v>
+        <v>414024909323293.8</v>
       </c>
       <c r="C81" t="n">
-        <v>6.303677915203227e-05</v>
+        <v>94381386313603.72</v>
       </c>
       <c r="D81" t="n">
-        <v>4.454890817223614e-05</v>
+        <v>-18954701751310.5</v>
       </c>
       <c r="E81" t="n">
-        <v>1.097098104393626e-05</v>
+        <v>10237841293784.14</v>
       </c>
       <c r="F81" t="n">
-        <v>2.01947565310273e-05</v>
+        <v>18557296339690.57</v>
       </c>
       <c r="G81" t="n">
-        <v>2.527265859621263e-05</v>
+        <v>23450172221913.75</v>
       </c>
       <c r="H81" t="n">
-        <v>8.178728530732586</v>
+        <v>2.339630318262455</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0852462338630742</v>
+        <v>0.6735633845863972</v>
       </c>
       <c r="J81" t="n">
-        <v>2.044682132683147</v>
+        <v>0.5849075795656138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000259675847708712</v>
+        <v>244375841450667</v>
       </c>
       <c r="C82" t="n">
-        <v>2.75282259666598e-05</v>
+        <v>46809186558670.41</v>
       </c>
       <c r="D82" t="n">
-        <v>2.394315912131667e-05</v>
+        <v>-12437052007313</v>
       </c>
       <c r="E82" t="n">
-        <v>6.643937525526997e-06</v>
+        <v>6188130828963.411</v>
       </c>
       <c r="F82" t="n">
-        <v>1.215020033367314e-05</v>
+        <v>11204147944348.6</v>
       </c>
       <c r="G82" t="n">
-        <v>1.508574169003653e-05</v>
+        <v>13998837839560.29</v>
       </c>
       <c r="H82" t="n">
-        <v>6.679552974094296</v>
+        <v>2.149079940710259</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1538228534508106</v>
+        <v>0.7083616275695386</v>
       </c>
       <c r="J82" t="n">
-        <v>1.669888243523574</v>
+        <v>0.5372699851775649</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002163196531739345</v>
+        <v>201893492396413.4</v>
       </c>
       <c r="C83" t="n">
-        <v>9.318152405299042e-06</v>
+        <v>16859397520189.08</v>
       </c>
       <c r="D83" t="n">
-        <v>1.918927000723041e-05</v>
+        <v>4754094754198.312</v>
       </c>
       <c r="E83" t="n">
-        <v>5.583659205804975e-06</v>
+        <v>5153284961550.874</v>
       </c>
       <c r="F83" t="n">
-        <v>9.986713964235517e-06</v>
+        <v>9503308005698.365</v>
       </c>
       <c r="G83" t="n">
-        <v>1.234990448367371e-05</v>
+        <v>11519258936392.68</v>
       </c>
       <c r="H83" t="n">
-        <v>3.43606910624063</v>
+        <v>4.107873531596952</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4876655166810592</v>
+        <v>0.3916035650403735</v>
       </c>
       <c r="J83" t="n">
-        <v>0.8590172765601576</v>
+        <v>1.026968382899238</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001134891134144898</v>
+        <v>105951999445656.5</v>
       </c>
       <c r="C84" t="n">
-        <v>9.286788011685546e-06</v>
+        <v>13020841594929.57</v>
       </c>
       <c r="D84" t="n">
-        <v>2.637221039180119e-06</v>
+        <v>-4320452211458.781</v>
       </c>
       <c r="E84" t="n">
-        <v>2.995739793938198e-06</v>
+        <v>2762522561280.733</v>
       </c>
       <c r="F84" t="n">
-        <v>5.305942953189143e-06</v>
+        <v>5034275299547.312</v>
       </c>
       <c r="G84" t="n">
-        <v>6.644835833722812e-06</v>
+        <v>6189231685569.96</v>
       </c>
       <c r="H84" t="n">
-        <v>2.317721218439523</v>
+        <v>0.3022349924069858</v>
       </c>
       <c r="I84" t="n">
-        <v>0.677544515785681</v>
+        <v>0.9896694407632796</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5794303046098808</v>
+        <v>0.07555874810174644</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>5.967238544210427e-05</v>
+        <v>55716435845718.8</v>
       </c>
       <c r="C85" t="n">
-        <v>5.595336943411591e-06</v>
+        <v>7652399411450.32</v>
       </c>
       <c r="D85" t="n">
-        <v>1.698063603288919e-06</v>
+        <v>-2215235252429.5</v>
       </c>
       <c r="E85" t="n">
-        <v>1.695976422283584e-06</v>
+        <v>1554383153958.386</v>
       </c>
       <c r="F85" t="n">
-        <v>2.96566164478519e-06</v>
+        <v>2846758447238.134</v>
       </c>
       <c r="G85" t="n">
-        <v>3.79291312902765e-06</v>
+        <v>3535600648146.213</v>
       </c>
       <c r="H85" t="n">
-        <v>5.663347023237627</v>
+        <v>3.724232610978282</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2257398936308125</v>
+        <v>0.4446112441243506</v>
       </c>
       <c r="J85" t="n">
-        <v>1.415836755809407</v>
+        <v>0.9310581527445706</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>4.542291754971085e-05</v>
+        <v>42513730921553.62</v>
       </c>
       <c r="C86" t="n">
-        <v>3.657706967418112e-06</v>
+        <v>5713434528693.992</v>
       </c>
       <c r="D86" t="n">
-        <v>3.831747195032177e-06</v>
+        <v>-165702074259.4297</v>
       </c>
       <c r="E86" t="n">
-        <v>1.292291519104755e-06</v>
+        <v>1186258002945.849</v>
       </c>
       <c r="F86" t="n">
-        <v>2.2727785517096e-06</v>
+        <v>2178632941806.518</v>
       </c>
       <c r="G86" t="n">
-        <v>2.889627042010601e-06</v>
+        <v>2694796563330.956</v>
       </c>
       <c r="H86" t="n">
-        <v>5.936979814523076</v>
+        <v>5.221345748597897</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2039043513689431</v>
+        <v>0.2653305882766535</v>
       </c>
       <c r="J86" t="n">
-        <v>1.484244953630769</v>
+        <v>1.305336437149474</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>3.646682054734993e-05</v>
+        <v>33955806463695.47</v>
       </c>
       <c r="C87" t="n">
-        <v>3.318508370783171e-06</v>
+        <v>3723568530853.73</v>
       </c>
       <c r="D87" t="n">
-        <v>2.625216869114717e-06</v>
+        <v>1417250482173.133</v>
       </c>
       <c r="E87" t="n">
-        <v>9.790296885042794e-07</v>
+        <v>897390687216.3076</v>
       </c>
       <c r="F87" t="n">
-        <v>1.733258829041546e-06</v>
+        <v>1681327469949.555</v>
       </c>
       <c r="G87" t="n">
-        <v>2.170113798987149e-06</v>
+        <v>2029678753211.361</v>
       </c>
       <c r="H87" t="n">
-        <v>0.345673445359073</v>
+        <v>0.3563366856548191</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9866781725335718</v>
+        <v>0.9858930861235287</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08641836133976824</v>
+        <v>0.08908417141370478</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>3.374308830791889e-05</v>
+        <v>31521315801315.64</v>
       </c>
       <c r="C88" t="n">
-        <v>4.48560804222946e-06</v>
+        <v>5609449350209.328</v>
       </c>
       <c r="D88" t="n">
-        <v>2.11912684754674e-06</v>
+        <v>-238783562093.4297</v>
       </c>
       <c r="E88" t="n">
-        <v>9.834808259294685e-07</v>
+        <v>902265495665.1029</v>
       </c>
       <c r="F88" t="n">
-        <v>1.748487103293318e-06</v>
+        <v>1673735630572.126</v>
       </c>
       <c r="G88" t="n">
-        <v>2.187011795726043e-06</v>
+        <v>2037657116305.994</v>
       </c>
       <c r="H88" t="n">
-        <v>2.9285452155781</v>
+        <v>1.303855751091838</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5698535209549813</v>
+        <v>0.8607210074094543</v>
       </c>
       <c r="J88" t="n">
-        <v>0.732136303894525</v>
+        <v>0.3259639377729594</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>4.578264435611982e-05</v>
+        <v>42705068160589.98</v>
       </c>
       <c r="C89" t="n">
-        <v>4.46566233412354e-06</v>
+        <v>5559531486988.613</v>
       </c>
       <c r="D89" t="n">
-        <v>3.41161609377063e-06</v>
+        <v>962743994997.5703</v>
       </c>
       <c r="E89" t="n">
-        <v>1.342401386866001e-06</v>
+        <v>1223484906056.736</v>
       </c>
       <c r="F89" t="n">
-        <v>2.339648974156737e-06</v>
+        <v>2288786205507.421</v>
       </c>
       <c r="G89" t="n">
-        <v>2.976093254472289e-06</v>
+        <v>2782862459179.707</v>
       </c>
       <c r="H89" t="n">
-        <v>2.767382492506834</v>
+        <v>2.469711121667051</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5974760878946505</v>
+        <v>0.6500675743993414</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6918456231267086</v>
+        <v>0.6174277804167627</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>8.258918217296961e-05</v>
+        <v>76697060813822.81</v>
       </c>
       <c r="C90" t="n">
-        <v>9.494311677571055e-06</v>
+        <v>9068325855926.914</v>
       </c>
       <c r="D90" t="n">
-        <v>3.594051829170994e-06</v>
+        <v>3043681604078.703</v>
       </c>
       <c r="E90" t="n">
-        <v>2.392004807783405e-06</v>
+        <v>2183223525044.124</v>
       </c>
       <c r="F90" t="n">
-        <v>4.177254668741962e-06</v>
+        <v>4059725196332.487</v>
       </c>
       <c r="G90" t="n">
-        <v>5.303518753117035e-06</v>
+        <v>4954770463519.035</v>
       </c>
       <c r="H90" t="n">
-        <v>2.337116616076218</v>
+        <v>2.29743672735742</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6740198378736271</v>
+        <v>0.6812357782402702</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5842791540190545</v>
+        <v>0.5743591818393551</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>9.31073538882677e-05</v>
+        <v>87199656972113.02</v>
       </c>
       <c r="C91" t="n">
-        <v>4.957045263134292e-06</v>
+        <v>9618739835412.969</v>
       </c>
       <c r="D91" t="n">
-        <v>5.816718262116138e-06</v>
+        <v>-2346941623093.109</v>
       </c>
       <c r="E91" t="n">
-        <v>2.624241214212975e-06</v>
+        <v>2426730883603.741</v>
       </c>
       <c r="F91" t="n">
-        <v>4.66820012822591e-06</v>
+        <v>4389707800907.484</v>
       </c>
       <c r="G91" t="n">
-        <v>5.781198970224363e-06</v>
+        <v>5377808272013.113</v>
       </c>
       <c r="H91" t="n">
-        <v>2.8228797194619</v>
+        <v>1.750625415121135</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5878897559979286</v>
+        <v>0.7815022229347797</v>
       </c>
       <c r="J91" t="n">
-        <v>0.705719929865475</v>
+        <v>0.4376563537802837</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001134628303897611</v>
+        <v>106265704200534.6</v>
       </c>
       <c r="C92" t="n">
-        <v>8.31518399148938e-06</v>
+        <v>14292019397134.33</v>
       </c>
       <c r="D92" t="n">
-        <v>1.303106599022811e-05</v>
+        <v>1669434814633.219</v>
       </c>
       <c r="E92" t="n">
-        <v>3.107192959660507e-06</v>
+        <v>2874446300578.66</v>
       </c>
       <c r="F92" t="n">
-        <v>5.590363471567173e-06</v>
+        <v>5260256353392.689</v>
       </c>
       <c r="G92" t="n">
-        <v>6.923872064183823e-06</v>
+        <v>6443073847782.266</v>
       </c>
       <c r="H92" t="n">
-        <v>1.873142560182883</v>
+        <v>2.159798305198517</v>
       </c>
       <c r="I92" t="n">
-        <v>0.759076852270911</v>
+        <v>0.7063956805917202</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4682856400457207</v>
+        <v>0.5399495762996291</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001721244182282583</v>
+        <v>161112850921255.9</v>
       </c>
       <c r="C93" t="n">
-        <v>1.609186717203457e-05</v>
+        <v>24612452487648.12</v>
       </c>
       <c r="D93" t="n">
-        <v>1.467965228700455e-05</v>
+        <v>-1774641615266.688</v>
       </c>
       <c r="E93" t="n">
-        <v>4.510016055079844e-06</v>
+        <v>4170988766376.846</v>
       </c>
       <c r="F93" t="n">
-        <v>8.126002343501789e-06</v>
+        <v>7654872902833.225</v>
       </c>
       <c r="G93" t="n">
-        <v>1.009824608376459e-05</v>
+        <v>9400436808178.943</v>
       </c>
       <c r="H93" t="n">
-        <v>2.998524836076548</v>
+        <v>1.510698530019327</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5580722958826894</v>
+        <v>0.8247446823450122</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7496312090191369</v>
+        <v>0.3776746325048317</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003605671229224687</v>
+        <v>341957939031623.5</v>
       </c>
       <c r="C94" t="n">
-        <v>5.213997876314221e-05</v>
+        <v>86831052520745.88</v>
       </c>
       <c r="D94" t="n">
-        <v>3.656863278285601e-05</v>
+        <v>-31563095548374.5</v>
       </c>
       <c r="E94" t="n">
-        <v>9.274771666164085e-06</v>
+        <v>8685202006332.952</v>
       </c>
       <c r="F94" t="n">
-        <v>1.7060033761588e-05</v>
+        <v>15564037836362.21</v>
       </c>
       <c r="G94" t="n">
-        <v>2.148653712409209e-05</v>
+        <v>19927116736430.93</v>
       </c>
       <c r="H94" t="n">
-        <v>13.32388015721024</v>
+        <v>3.162387646326167</v>
       </c>
       <c r="I94" t="n">
-        <v>0.00979704124220333</v>
+        <v>0.5310273199327399</v>
       </c>
       <c r="J94" t="n">
-        <v>3.330970039302561</v>
+        <v>0.7905969115815417</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004547168192098397</v>
+        <v>425713080858664.2</v>
       </c>
       <c r="C95" t="n">
-        <v>8.258356678465158e-05</v>
+        <v>98500154836225.19</v>
       </c>
       <c r="D95" t="n">
-        <v>4.225186362034992e-05</v>
+        <v>1979851691817.688</v>
       </c>
       <c r="E95" t="n">
-        <v>1.109931545938608e-05</v>
+        <v>10274040939927.38</v>
       </c>
       <c r="F95" t="n">
-        <v>2.027317291782965e-05</v>
+        <v>18988791080890.41</v>
       </c>
       <c r="G95" t="n">
-        <v>2.583075777036568e-05</v>
+        <v>24015195192028.92</v>
       </c>
       <c r="H95" t="n">
-        <v>5.589975274022755</v>
+        <v>2.466050732896974</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2319330598977328</v>
+        <v>0.6507250775716962</v>
       </c>
       <c r="J95" t="n">
-        <v>1.397493818505689</v>
+        <v>0.6165126832242435</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003766486701619357</v>
+        <v>351880136982225.1</v>
       </c>
       <c r="C96" t="n">
-        <v>6.275432726214223e-05</v>
+        <v>72527469739641.62</v>
       </c>
       <c r="D96" t="n">
-        <v>2.035755485202851e-05</v>
+        <v>-4630060001495.625</v>
       </c>
       <c r="E96" t="n">
-        <v>9.170928849166195e-06</v>
+        <v>8477536181473.931</v>
       </c>
       <c r="F96" t="n">
-        <v>1.663074881237387e-05</v>
+        <v>15632420868025.84</v>
       </c>
       <c r="G96" t="n">
-        <v>2.11082688695423e-05</v>
+        <v>19634118628323.95</v>
       </c>
       <c r="H96" t="n">
-        <v>4.403607770958815</v>
+        <v>1.380611725944608</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3541305954114504</v>
+        <v>0.8475576941039693</v>
       </c>
       <c r="J96" t="n">
-        <v>1.100901942739704</v>
+        <v>0.3451529314861519</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001809709834906233</v>
+        <v>168972558604918.4</v>
       </c>
       <c r="C97" t="n">
-        <v>3.29768291309768e-05</v>
+        <v>37404558309888.7</v>
       </c>
       <c r="D97" t="n">
-        <v>1.930949487425124e-05</v>
+        <v>6768071600307.344</v>
       </c>
       <c r="E97" t="n">
-        <v>4.883613531999857e-06</v>
+        <v>4467592437208.807</v>
       </c>
       <c r="F97" t="n">
-        <v>8.725839422633325e-06</v>
+        <v>8409020856410.614</v>
       </c>
       <c r="G97" t="n">
-        <v>1.120704457490727e-05</v>
+        <v>10449419973453.05</v>
       </c>
       <c r="H97" t="n">
-        <v>3.161623442613519</v>
+        <v>2.0028858172326</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5311516256198422</v>
+        <v>0.735228066111518</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7904058606533798</v>
+        <v>0.50072145430815</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.65702136208824e-05</v>
+        <v>81142879029885.78</v>
       </c>
       <c r="C98" t="n">
-        <v>1.585379414965318e-05</v>
+        <v>20467085740000.97</v>
       </c>
       <c r="D98" t="n">
-        <v>7.904688093940914e-06</v>
+        <v>-1760209425329.562</v>
       </c>
       <c r="E98" t="n">
-        <v>2.515880366036001e-06</v>
+        <v>2296807585778.064</v>
       </c>
       <c r="F98" t="n">
-        <v>4.468342162951224e-06</v>
+        <v>4313631505458.989</v>
       </c>
       <c r="G98" t="n">
-        <v>5.69668110243833e-06</v>
+        <v>5310472181835.438</v>
       </c>
       <c r="H98" t="n">
-        <v>4.051743836997887</v>
+        <v>0.2766261861152149</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3990483741266974</v>
+        <v>0.9912726369878153</v>
       </c>
       <c r="J98" t="n">
-        <v>1.012935959249472</v>
+        <v>0.06915654652880372</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>5.373210302611565e-05</v>
+        <v>50213177080886.31</v>
       </c>
       <c r="C99" t="n">
-        <v>1.037625224314367e-05</v>
+        <v>12161822529834.78</v>
       </c>
       <c r="D99" t="n">
-        <v>6.454005205281968e-06</v>
+        <v>1974905009096.93</v>
       </c>
       <c r="E99" t="n">
-        <v>1.594643337907183e-06</v>
+        <v>1455148652029.459</v>
       </c>
       <c r="F99" t="n">
-        <v>2.843796776899145e-06</v>
+        <v>2767136128566.375</v>
       </c>
       <c r="G99" t="n">
-        <v>3.605826418406426e-06</v>
+        <v>3369110529797.146</v>
       </c>
       <c r="H99" t="n">
-        <v>2.296350796327577</v>
+        <v>1.045214806357082</v>
       </c>
       <c r="I99" t="n">
-        <v>0.6814335293880256</v>
+        <v>0.9028641849820261</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5740876990818942</v>
+        <v>0.2613037015892706</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>2.952423795346807e-05</v>
+        <v>27586286573379.54</v>
       </c>
       <c r="C100" t="n">
-        <v>5.692846984765705e-06</v>
+        <v>7096769413862.303</v>
       </c>
       <c r="D100" t="n">
-        <v>1.141493171702737e-06</v>
+        <v>-1596837990078.188</v>
       </c>
       <c r="E100" t="n">
-        <v>9.256554581597477e-07</v>
+        <v>839458596492.075</v>
       </c>
       <c r="F100" t="n">
-        <v>1.61965380936388e-06</v>
+        <v>1582247266168.063</v>
       </c>
       <c r="G100" t="n">
-        <v>2.06801182640715e-06</v>
+        <v>1929878935384.063</v>
       </c>
       <c r="H100" t="n">
-        <v>4.655253268788712</v>
+        <v>0.3043048034358451</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3245332421600774</v>
+        <v>0.9895345924394137</v>
       </c>
       <c r="J100" t="n">
-        <v>1.163813317197178</v>
+        <v>0.07607620085896127</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>1.93027159083966e-05</v>
+        <v>17857465209026.25</v>
       </c>
       <c r="C101" t="n">
-        <v>2.342533752392483e-06</v>
+        <v>2339554658757.951</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.324055158148367e-07</v>
+        <v>-323564039451.1719</v>
       </c>
       <c r="E101" t="n">
-        <v>5.971067287116709e-07</v>
+        <v>536154916131.5477</v>
       </c>
       <c r="F101" t="n">
-        <v>1.010284618358477e-06</v>
+        <v>1018220083318.954</v>
       </c>
       <c r="G101" t="n">
-        <v>1.320227702562879e-06</v>
+        <v>1237623140275.401</v>
       </c>
       <c r="H101" t="n">
-        <v>2.429214467620281</v>
+        <v>2.256157770596589</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6573542798385497</v>
+        <v>0.6887621731907905</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6073036169050703</v>
+        <v>0.5640394426491473</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>1.317196879832352e-05</v>
+        <v>12307126274714.89</v>
       </c>
       <c r="C102" t="n">
-        <v>1.481113447821541e-06</v>
+        <v>1852664030149.273</v>
       </c>
       <c r="D102" t="n">
-        <v>1.855228507407259e-06</v>
+        <v>962077315711.9883</v>
       </c>
       <c r="E102" t="n">
-        <v>4.64878216080537e-07</v>
+        <v>425044675550.1993</v>
       </c>
       <c r="F102" t="n">
-        <v>8.242433410094497e-07</v>
+        <v>802311052661.4478</v>
       </c>
       <c r="G102" t="n">
-        <v>1.017896105723229e-06</v>
+        <v>951885674071.4492</v>
       </c>
       <c r="H102" t="n">
-        <v>3.621755844153251</v>
+        <v>4.204840412982755</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4596081227050348</v>
+        <v>0.3789929453876786</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9054389610383127</v>
+        <v>1.051210103245689</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>1.272617643565598e-05</v>
+        <v>11900875142676.17</v>
       </c>
       <c r="C103" t="n">
-        <v>2.31613769712819e-06</v>
+        <v>2710653817685.709</v>
       </c>
       <c r="D103" t="n">
-        <v>1.844800857246067e-06</v>
+        <v>808473730089.7852</v>
       </c>
       <c r="E103" t="n">
-        <v>4.935250010320531e-07</v>
+        <v>439926667464.5685</v>
       </c>
       <c r="F103" t="n">
-        <v>8.369466699267886e-07</v>
+        <v>854506273497.1949</v>
       </c>
       <c r="G103" t="n">
-        <v>1.093397603582182e-06</v>
+        <v>1025138088721.069</v>
       </c>
       <c r="H103" t="n">
-        <v>4.608976225938994</v>
+        <v>4.498653048465205</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3298205585865168</v>
+        <v>0.3427072233092791</v>
       </c>
       <c r="J103" t="n">
-        <v>1.152244056484748</v>
+        <v>1.124663262116301</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>1.550273045835626e-05</v>
+        <v>14370237766893.13</v>
       </c>
       <c r="C104" t="n">
-        <v>2.938043736202653e-06</v>
+        <v>2741750310481.978</v>
       </c>
       <c r="D104" t="n">
-        <v>9.095354644946954e-07</v>
+        <v>884116746877.3125</v>
       </c>
       <c r="E104" t="n">
-        <v>4.858261777529835e-07</v>
+        <v>439361402780.9331</v>
       </c>
       <c r="F104" t="n">
-        <v>8.416041287397727e-07</v>
+        <v>826811805253.7449</v>
       </c>
       <c r="G104" t="n">
-        <v>1.11964716474535e-06</v>
+        <v>1043529766980.333</v>
       </c>
       <c r="H104" t="n">
-        <v>4.981550668976043</v>
+        <v>5.028040099140438</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2891957559139359</v>
+        <v>0.2844324879737629</v>
       </c>
       <c r="J104" t="n">
-        <v>1.245387667244011</v>
+        <v>1.257010024785109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>2.901809408480575e-05</v>
+        <v>27122202399583.24</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.577328521954923e-07</v>
+        <v>860244984670.5625</v>
       </c>
       <c r="D105" t="n">
-        <v>4.906741127020306e-07</v>
+        <v>-1918636629664.211</v>
       </c>
       <c r="E105" t="n">
-        <v>9.37512179679572e-07</v>
+        <v>856463098542.0408</v>
       </c>
       <c r="F105" t="n">
-        <v>1.60924125783392e-06</v>
+        <v>1592179447122.362</v>
       </c>
       <c r="G105" t="n">
-        <v>1.980193164875396e-06</v>
+        <v>1861610350430.181</v>
       </c>
       <c r="H105" t="n">
-        <v>2.788822086112702</v>
+        <v>1.998499282298288</v>
       </c>
       <c r="I105" t="n">
-        <v>0.5937637574404235</v>
+        <v>0.7360349239117021</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6972055215281756</v>
+        <v>0.499624820574572</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>4.155044961077943e-05</v>
+        <v>38716969986331.7</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.272861071993168e-06</v>
+        <v>-527130084098.4219</v>
       </c>
       <c r="D106" t="n">
-        <v>1.617057360271814e-06</v>
+        <v>412816102689.3672</v>
       </c>
       <c r="E106" t="n">
-        <v>1.162247696556665e-06</v>
+        <v>1066228690999.274</v>
       </c>
       <c r="F106" t="n">
-        <v>2.006809921923088e-06</v>
+        <v>1971360097525.457</v>
       </c>
       <c r="G106" t="n">
-        <v>2.492026456013917e-06</v>
+        <v>2339235563629.891</v>
       </c>
       <c r="H106" t="n">
-        <v>2.391722455942201</v>
+        <v>2.869626681283667</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6641236682971954</v>
+        <v>0.5798746938516317</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5979306139855504</v>
+        <v>0.7174066703209168</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>5.309462698797256e-05</v>
+        <v>49473146902110.71</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.456827937556664e-06</v>
+        <v>-2135945230087.004</v>
       </c>
       <c r="D107" t="n">
-        <v>1.16117718225621e-06</v>
+        <v>-574857101318.8594</v>
       </c>
       <c r="E107" t="n">
-        <v>1.498882524345083e-06</v>
+        <v>1378557575126.46</v>
       </c>
       <c r="F107" t="n">
-        <v>2.607933165371629e-06</v>
+        <v>2560126316509.856</v>
       </c>
       <c r="G107" t="n">
-        <v>3.13846566067291e-06</v>
+        <v>2951263018532.785</v>
       </c>
       <c r="H107" t="n">
-        <v>1.693049118157072</v>
+        <v>2.242487016321222</v>
       </c>
       <c r="I107" t="n">
-        <v>0.7919798705078778</v>
+        <v>0.6912587755869049</v>
       </c>
       <c r="J107" t="n">
-        <v>0.423262279539268</v>
+        <v>0.5606217540803056</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>5.40466469083233e-05</v>
+        <v>50239816804044.71</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.669515886805524e-07</v>
+        <v>58578958234.69141</v>
       </c>
       <c r="D108" t="n">
-        <v>5.280989228564437e-07</v>
+        <v>145264983075.3125</v>
       </c>
       <c r="E108" t="n">
-        <v>1.371986482688066e-06</v>
+        <v>1261086195440.589</v>
       </c>
       <c r="F108" t="n">
-        <v>2.394158407710298e-06</v>
+        <v>2328558847222.767</v>
       </c>
       <c r="G108" t="n">
-        <v>2.966760686088645e-06</v>
+        <v>2779984201624.131</v>
       </c>
       <c r="H108" t="n">
-        <v>1.434321890677441</v>
+        <v>1.460159958951438</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8382083083129486</v>
+        <v>0.8336744161752354</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3585804726693603</v>
+        <v>0.3650399897378594</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>5.47251312330563e-05</v>
+        <v>50830184232776.69</v>
       </c>
       <c r="C109" t="n">
-        <v>2.679807197291158e-06</v>
+        <v>2783816942066.441</v>
       </c>
       <c r="D109" t="n">
-        <v>8.495930467057291e-07</v>
+        <v>401778283760.5781</v>
       </c>
       <c r="E109" t="n">
-        <v>1.511443846625376e-06</v>
+        <v>1373458650002.104</v>
       </c>
       <c r="F109" t="n">
-        <v>2.584390364679374e-06</v>
+        <v>2573591729593.975</v>
       </c>
       <c r="G109" t="n">
-        <v>3.31238289908047e-06</v>
+        <v>3107708404399.328</v>
       </c>
       <c r="H109" t="n">
-        <v>3.685790996296107</v>
+        <v>3.626115263655282</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4501959152442823</v>
+        <v>0.4589630309051889</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9214477490740267</v>
+        <v>0.9065288159138204</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>5.242434920457305e-05</v>
+        <v>48786039908561.75</v>
       </c>
       <c r="C110" t="n">
-        <v>1.761865975014508e-06</v>
+        <v>1897300869297.32</v>
       </c>
       <c r="D110" t="n">
-        <v>3.425522875418231e-06</v>
+        <v>2661549210433.531</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33844540259382e-06</v>
+        <v>1230617375978.162</v>
       </c>
       <c r="F110" t="n">
-        <v>2.360219018545027e-06</v>
+        <v>2285343707181.135</v>
       </c>
       <c r="G110" t="n">
-        <v>2.96222894134995e-06</v>
+        <v>2773337925247.359</v>
       </c>
       <c r="H110" t="n">
-        <v>3.302878737248101</v>
+        <v>3.511666464015006</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5084762766801751</v>
+        <v>0.4761066517405459</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8257196843120251</v>
+        <v>0.8779166160037515</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>5.420538810289613e-05</v>
+        <v>50400979428113.06</v>
       </c>
       <c r="C111" t="n">
-        <v>1.873460491500929e-06</v>
+        <v>1917859868033.555</v>
       </c>
       <c r="D111" t="n">
-        <v>2.18799023686333e-06</v>
+        <v>1695044382906.781</v>
       </c>
       <c r="E111" t="n">
-        <v>1.394515357364506e-06</v>
+        <v>1279719046220.398</v>
       </c>
       <c r="F111" t="n">
-        <v>2.438947237975429e-06</v>
+        <v>2365935977142.612</v>
       </c>
       <c r="G111" t="n">
-        <v>3.088796795443164e-06</v>
+        <v>2890456594137.762</v>
       </c>
       <c r="H111" t="n">
-        <v>6.385746565605628</v>
+        <v>6.444804144937136</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1721331392491708</v>
+        <v>0.1683015623211329</v>
       </c>
       <c r="J111" t="n">
-        <v>1.596436641401407</v>
+        <v>1.611201036234284</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>5.484264083253762e-05</v>
+        <v>51101034994360.48</v>
       </c>
       <c r="C112" t="n">
-        <v>4.332683378820551e-06</v>
+        <v>5290855167723.613</v>
       </c>
       <c r="D112" t="n">
-        <v>3.831554833100143e-06</v>
+        <v>1515675286262.078</v>
       </c>
       <c r="E112" t="n">
-        <v>1.509048478153629e-06</v>
+        <v>1380888823812.116</v>
       </c>
       <c r="F112" t="n">
-        <v>2.653171750324585e-06</v>
+        <v>2582927515030.744</v>
       </c>
       <c r="G112" t="n">
-        <v>3.358802346548262e-06</v>
+        <v>3142704637359.427</v>
       </c>
       <c r="H112" t="n">
-        <v>6.777589575529898</v>
+        <v>6.759411700225125</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1481188726259937</v>
+        <v>0.1491617061292226</v>
       </c>
       <c r="J112" t="n">
-        <v>1.694397393882475</v>
+        <v>1.689852925056281</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>5.80642906835599e-05</v>
+        <v>53963976321040.19</v>
       </c>
       <c r="C113" t="n">
-        <v>3.220731125758513e-06</v>
+        <v>2916322683855.215</v>
       </c>
       <c r="D113" t="n">
-        <v>2.763144607964492e-06</v>
+        <v>2632192565530.422</v>
       </c>
       <c r="E113" t="n">
-        <v>1.487697190793486e-06</v>
+        <v>1364987681141.782</v>
       </c>
       <c r="F113" t="n">
-        <v>2.617341061098719e-06</v>
+        <v>2549357678923.531</v>
       </c>
       <c r="G113" t="n">
-        <v>3.256431259150364e-06</v>
+        <v>3050677387813.483</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8015872915690762</v>
+        <v>0.7917338642968332</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9382351392026163</v>
+        <v>0.9395528079290754</v>
       </c>
       <c r="J113" t="n">
-        <v>0.200396822892269</v>
+        <v>0.1979334660742083</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.061715327858496e-05</v>
+        <v>56432746220125.48</v>
       </c>
       <c r="C114" t="n">
-        <v>4.948135170847376e-06</v>
+        <v>5631221023971.25</v>
       </c>
       <c r="D114" t="n">
-        <v>3.83042325485736e-06</v>
+        <v>1904574921384.312</v>
       </c>
       <c r="E114" t="n">
-        <v>1.530944978679094e-06</v>
+        <v>1410860697162.061</v>
       </c>
       <c r="F114" t="n">
-        <v>2.737803172809861e-06</v>
+        <v>2613436523642.95</v>
       </c>
       <c r="G114" t="n">
-        <v>3.413924399630927e-06</v>
+        <v>3185030805588.935</v>
       </c>
       <c r="H114" t="n">
-        <v>2.027838203783433</v>
+        <v>1.986839764138095</v>
       </c>
       <c r="I114" t="n">
-        <v>0.7306384951152215</v>
+        <v>0.7381795549240924</v>
       </c>
       <c r="J114" t="n">
-        <v>0.5069595509458582</v>
+        <v>0.4967099410345239</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.494491923059329e-05</v>
+        <v>60312594215350.2</v>
       </c>
       <c r="C115" t="n">
-        <v>4.720389193025222e-06</v>
+        <v>4118723971300.645</v>
       </c>
       <c r="D115" t="n">
-        <v>2.704929321142873e-06</v>
+        <v>2914772419868.047</v>
       </c>
       <c r="E115" t="n">
-        <v>1.650757068658758e-06</v>
+        <v>1513403641465.711</v>
       </c>
       <c r="F115" t="n">
-        <v>2.910990440895135e-06</v>
+        <v>2833495127960.602</v>
       </c>
       <c r="G115" t="n">
-        <v>3.625837552694651e-06</v>
+        <v>3394393942772.479</v>
       </c>
       <c r="H115" t="n">
-        <v>1.190950095711332</v>
+        <v>1.174535984399644</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8795863662921395</v>
+        <v>0.8822730435111279</v>
       </c>
       <c r="J115" t="n">
-        <v>0.297737523927833</v>
+        <v>0.2936339960999109</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.554929558358417e-05</v>
+        <v>61057455891530.29</v>
       </c>
       <c r="C116" t="n">
-        <v>5.719449397037179e-06</v>
+        <v>6566928996032.293</v>
       </c>
       <c r="D116" t="n">
-        <v>4.939977226474859e-06</v>
+        <v>2513813323419.906</v>
       </c>
       <c r="E116" t="n">
-        <v>1.676670065365667e-06</v>
+        <v>1543352260915.349</v>
       </c>
       <c r="F116" t="n">
-        <v>2.98968666893519e-06</v>
+        <v>2854341070798.82</v>
       </c>
       <c r="G116" t="n">
-        <v>3.774599549195499e-06</v>
+        <v>3520632727970.291</v>
       </c>
       <c r="H116" t="n">
-        <v>2.653471963137753</v>
+        <v>2.70861495694223</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6173806167305167</v>
+        <v>0.6077079495271462</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6633679907844382</v>
+        <v>0.6771537392355574</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>6.690475785273653e-05</v>
+        <v>62698502585171.28</v>
       </c>
       <c r="C117" t="n">
-        <v>4.512186518339599e-06</v>
+        <v>8500795400404.355</v>
       </c>
       <c r="D117" t="n">
-        <v>7.565512933199021e-06</v>
+        <v>20898901564.40625</v>
       </c>
       <c r="E117" t="n">
-        <v>1.798612415545321e-06</v>
+        <v>1665265396564.116</v>
       </c>
       <c r="F117" t="n">
-        <v>3.247293716109898e-06</v>
+        <v>3053149079770.636</v>
       </c>
       <c r="G117" t="n">
-        <v>4.06121415182073e-06</v>
+        <v>3780590285962.548</v>
       </c>
       <c r="H117" t="n">
-        <v>6.656281642659972</v>
+        <v>6.614272879622392</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1552058865673046</v>
+        <v>0.1577311692348331</v>
       </c>
       <c r="J117" t="n">
-        <v>1.664070410664993</v>
+        <v>1.653568219905598</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.555374177266117e-05</v>
+        <v>60991508652065.77</v>
       </c>
       <c r="C118" t="n">
-        <v>6.656383047920374e-06</v>
+        <v>6844374399809.586</v>
       </c>
       <c r="D118" t="n">
-        <v>5.22910221736245e-06</v>
+        <v>3741976609340.484</v>
       </c>
       <c r="E118" t="n">
-        <v>1.605037638285001e-06</v>
+        <v>1476702498943.505</v>
       </c>
       <c r="F118" t="n">
-        <v>2.87493293660934e-06</v>
+        <v>2751306713087.136</v>
       </c>
       <c r="G118" t="n">
-        <v>3.63012800172519e-06</v>
+        <v>3385361034794.623</v>
       </c>
       <c r="H118" t="n">
-        <v>2.318162261505146</v>
+        <v>2.424642361933324</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6774643131078739</v>
+        <v>0.6581786312111588</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5795405653762866</v>
+        <v>0.606160590483331</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.52453816116822e-05</v>
+        <v>60872386303325.45</v>
       </c>
       <c r="C119" t="n">
-        <v>6.708797140301309e-06</v>
+        <v>8555091157479.461</v>
       </c>
       <c r="D119" t="n">
-        <v>3.483719419890556e-06</v>
+        <v>-404140589084.9688</v>
       </c>
       <c r="E119" t="n">
-        <v>1.675042084427731e-06</v>
+        <v>1545054216166.909</v>
       </c>
       <c r="F119" t="n">
-        <v>3.006421893742897e-06</v>
+        <v>2857429551511.239</v>
       </c>
       <c r="G119" t="n">
-        <v>3.744182207584208e-06</v>
+        <v>3491779174932.127</v>
       </c>
       <c r="H119" t="n">
-        <v>4.205002242563033</v>
+        <v>2.866848137498797</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3789721642783854</v>
+        <v>0.5803495286029492</v>
       </c>
       <c r="J119" t="n">
-        <v>1.051250560640758</v>
+        <v>0.7167120343746992</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>5.429408313533508e-05</v>
+        <v>50586429184858.24</v>
       </c>
       <c r="C120" t="n">
-        <v>4.136378906455351e-06</v>
+        <v>4827585087476.113</v>
       </c>
       <c r="D120" t="n">
-        <v>5.007592769333715e-06</v>
+        <v>2999341696161.633</v>
       </c>
       <c r="E120" t="n">
-        <v>1.400812293080256e-06</v>
+        <v>1288058954387.012</v>
       </c>
       <c r="F120" t="n">
-        <v>2.491808978026665e-06</v>
+        <v>2398632065868.316</v>
       </c>
       <c r="G120" t="n">
-        <v>3.119663107077396e-06</v>
+        <v>2914802154452.109</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6879597192540865</v>
+        <v>1.134851650341338</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9528053908682149</v>
+        <v>0.8887039147383837</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1719899298135216</v>
+        <v>0.2837129125853346</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>5.304155267864307e-05</v>
+        <v>49663933750784.97</v>
       </c>
       <c r="C121" t="n">
-        <v>5.658088501352757e-06</v>
+        <v>8172586699596.27</v>
       </c>
       <c r="D121" t="n">
-        <v>4.968293950221312e-06</v>
+        <v>-143122126910.6719</v>
       </c>
       <c r="E121" t="n">
-        <v>1.486367819390085e-06</v>
+        <v>1367169611456.58</v>
       </c>
       <c r="F121" t="n">
-        <v>2.647399282274632e-06</v>
+        <v>2525340468937.193</v>
       </c>
       <c r="G121" t="n">
-        <v>3.374214897143449e-06</v>
+        <v>3144798960600.79</v>
       </c>
       <c r="H121" t="n">
-        <v>7.373545290451587</v>
+        <v>6.161958555480326</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1174164297064213</v>
+        <v>0.1873751917764018</v>
       </c>
       <c r="J121" t="n">
-        <v>1.843386322612897</v>
+        <v>1.540489638870082</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>4.267330334823559e-05</v>
+        <v>39546084855923.79</v>
       </c>
       <c r="C122" t="n">
-        <v>5.024490472631948e-06</v>
+        <v>4104870381471.871</v>
       </c>
       <c r="D122" t="n">
-        <v>1.624407206677079e-06</v>
+        <v>2476178622976.789</v>
       </c>
       <c r="E122" t="n">
-        <v>1.131153336944135e-06</v>
+        <v>1031267314702.86</v>
       </c>
       <c r="F122" t="n">
-        <v>1.978208647381857e-06</v>
+        <v>1945284220991.677</v>
       </c>
       <c r="G122" t="n">
-        <v>2.530141875907964e-06</v>
+        <v>2370049639751.988</v>
       </c>
       <c r="H122" t="n">
-        <v>4.336332676089206</v>
+        <v>4.477873724443218</v>
       </c>
       <c r="I122" t="n">
-        <v>0.362397588249945</v>
+        <v>0.3451791521255627</v>
       </c>
       <c r="J122" t="n">
-        <v>1.084083169022302</v>
+        <v>1.119468431110805</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>3.410170449493718e-05</v>
+        <v>31693747201348.93</v>
       </c>
       <c r="C123" t="n">
-        <v>2.839336513910719e-06</v>
+        <v>2920258528456.473</v>
       </c>
       <c r="D123" t="n">
-        <v>1.19729598226466e-06</v>
+        <v>703022515288.4297</v>
       </c>
       <c r="E123" t="n">
-        <v>9.067567440549036e-07</v>
+        <v>829230355093.1722</v>
       </c>
       <c r="F123" t="n">
-        <v>1.594052955796151e-06</v>
+        <v>1550671581850.065</v>
       </c>
       <c r="G123" t="n">
-        <v>1.996134097127156e-06</v>
+        <v>1866778360521.61</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4249587710274803</v>
+        <v>0.2995662791414613</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9803829253662655</v>
+        <v>0.9898421537082488</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1062396927568701</v>
+        <v>0.07489156978536533</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>3.615465248128747e-05</v>
+        <v>33681919491480.3</v>
       </c>
       <c r="C124" t="n">
-        <v>3.345245080413242e-06</v>
+        <v>3645453739067.48</v>
       </c>
       <c r="D124" t="n">
-        <v>3.17797638615485e-06</v>
+        <v>2062771183552.18</v>
       </c>
       <c r="E124" t="n">
-        <v>1.108250815058388e-06</v>
+        <v>1009877186217.933</v>
       </c>
       <c r="F124" t="n">
-        <v>1.937357241255267e-06</v>
+        <v>1911261182858.444</v>
       </c>
       <c r="G124" t="n">
-        <v>2.436024985242874e-06</v>
+        <v>2283947526600.441</v>
       </c>
       <c r="H124" t="n">
-        <v>1.875800446705723</v>
+        <v>2.04604339644021</v>
       </c>
       <c r="I124" t="n">
-        <v>0.7585889656209261</v>
+        <v>0.7272904124261397</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4689501116764307</v>
+        <v>0.5115108491100526</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>4.576642328192917e-05</v>
+        <v>42692819957290.62</v>
       </c>
       <c r="C125" t="n">
-        <v>6.359341814074913e-06</v>
+        <v>7299238283752.711</v>
       </c>
       <c r="D125" t="n">
-        <v>4.413085471787932e-06</v>
+        <v>1810712740165.445</v>
       </c>
       <c r="E125" t="n">
-        <v>1.232442697413956e-06</v>
+        <v>1126629865106.597</v>
       </c>
       <c r="F125" t="n">
-        <v>2.183430876401856e-06</v>
+        <v>2114791428137.022</v>
       </c>
       <c r="G125" t="n">
-        <v>2.796454387026101e-06</v>
+        <v>2610692567409.167</v>
       </c>
       <c r="H125" t="n">
-        <v>3.198522994051363</v>
+        <v>2.770351561502069</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5251695417006488</v>
+        <v>0.5969613210761111</v>
       </c>
       <c r="J125" t="n">
-        <v>0.7996307485128407</v>
+        <v>0.6925878903755172</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>6.232206198584971e-05</v>
+        <v>58094997114667.94</v>
       </c>
       <c r="C126" t="n">
-        <v>6.821219394901831e-06</v>
+        <v>7872802938619.562</v>
       </c>
       <c r="D126" t="n">
-        <v>5.936537457132e-06</v>
+        <v>2993708022064.078</v>
       </c>
       <c r="E126" t="n">
-        <v>1.602885569635111e-06</v>
+        <v>1475958271404.957</v>
       </c>
       <c r="F126" t="n">
-        <v>2.884022925315261e-06</v>
+        <v>2749560609291.322</v>
       </c>
       <c r="G126" t="n">
-        <v>3.613354544651799e-06</v>
+        <v>3369747582013.938</v>
       </c>
       <c r="H126" t="n">
-        <v>1.476510018814251</v>
+        <v>1.572411632658073</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8307941174865389</v>
+        <v>0.8137418492370063</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3691275047035628</v>
+        <v>0.3931029081645181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>6.031488348511882e-05</v>
+        <v>56141366709886.98</v>
       </c>
       <c r="C127" t="n">
-        <v>6.238682225593133e-06</v>
+        <v>7106897533421.488</v>
       </c>
       <c r="D127" t="n">
-        <v>2.018694355747629e-06</v>
+        <v>-96362597579</v>
       </c>
       <c r="E127" t="n">
-        <v>1.554198396858351e-06</v>
+        <v>1427645512936.019</v>
       </c>
       <c r="F127" t="n">
-        <v>2.758442415587794e-06</v>
+        <v>2645675866970.192</v>
       </c>
       <c r="G127" t="n">
-        <v>3.452208679134685e-06</v>
+        <v>3221718268990.393</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8945986699899083</v>
+        <v>0.04431272299681059</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9253344467044723</v>
+        <v>0.9997581434278008</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2236496674974771</v>
+        <v>0.01107818074920265</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>9.701395171569707e-05</v>
+        <v>90650940040291.53</v>
       </c>
       <c r="C128" t="n">
-        <v>1.326535008542155e-05</v>
+        <v>16517033164391.16</v>
       </c>
       <c r="D128" t="n">
-        <v>8.152537688413934e-06</v>
+        <v>806248068369.75</v>
       </c>
       <c r="E128" t="n">
-        <v>2.460382306298626e-06</v>
+        <v>2270880828210.21</v>
       </c>
       <c r="F128" t="n">
-        <v>4.448310854837312e-06</v>
+        <v>4206766526409.106</v>
       </c>
       <c r="G128" t="n">
-        <v>5.55403338408357e-06</v>
+        <v>5172926756725.21</v>
       </c>
       <c r="H128" t="n">
-        <v>2.021350657139685</v>
+        <v>0.3795142202653133</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7318317226304</v>
+        <v>0.9841195130292738</v>
       </c>
       <c r="J128" t="n">
-        <v>0.5053376642849212</v>
+        <v>0.09487855506632834</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001790724762100528</v>
+        <v>167553837103697.1</v>
       </c>
       <c r="C129" t="n">
-        <v>2.147601979050248e-05</v>
+        <v>29122273555523.84</v>
       </c>
       <c r="D129" t="n">
-        <v>6.325772521782117e-06</v>
+        <v>-8557839728476.469</v>
       </c>
       <c r="E129" t="n">
-        <v>4.561219110830096e-06</v>
+        <v>4216196508045.745</v>
       </c>
       <c r="F129" t="n">
-        <v>8.209219289260491e-06</v>
+        <v>7726226025927.356</v>
       </c>
       <c r="G129" t="n">
-        <v>1.023931794295163e-05</v>
+        <v>9528059500675.133</v>
       </c>
       <c r="H129" t="n">
-        <v>4.253722019139429</v>
+        <v>0.3144350737433567</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3727559434584468</v>
+        <v>0.9888633880519365</v>
       </c>
       <c r="J129" t="n">
-        <v>1.063430504784857</v>
+        <v>0.07860876843583918</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0001959134677370861</v>
+        <v>183473953042612.2</v>
       </c>
       <c r="C130" t="n">
-        <v>2.437912675026614e-05</v>
+        <v>33651059220874.89</v>
       </c>
       <c r="D130" t="n">
-        <v>6.151581205490666e-06</v>
+        <v>-11643430532728.88</v>
       </c>
       <c r="E130" t="n">
-        <v>5.089077628326244e-06</v>
+        <v>4696915859144.479</v>
       </c>
       <c r="F130" t="n">
-        <v>9.100230938720749e-06</v>
+        <v>8591869573963.706</v>
       </c>
       <c r="G130" t="n">
-        <v>1.1435349003913e-05</v>
+        <v>10642176024509.22</v>
       </c>
       <c r="H130" t="n">
-        <v>4.839396283518592</v>
+        <v>0.1259809902693346</v>
       </c>
       <c r="I130" t="n">
-        <v>0.3041768944336496</v>
+        <v>0.9980974747372774</v>
       </c>
       <c r="J130" t="n">
-        <v>1.209849070879648</v>
+        <v>0.03149524756733365</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002059973343063441</v>
+        <v>192196496761091.3</v>
       </c>
       <c r="C131" t="n">
-        <v>2.517957207279362e-05</v>
+        <v>29959771381301.42</v>
       </c>
       <c r="D131" t="n">
-        <v>1.925042922426904e-05</v>
+        <v>7066287491202.344</v>
       </c>
       <c r="E131" t="n">
-        <v>5.490216915343684e-06</v>
+        <v>5038745207188.402</v>
       </c>
       <c r="F131" t="n">
-        <v>9.783816791068837e-06</v>
+        <v>9409099263462.928</v>
       </c>
       <c r="G131" t="n">
-        <v>1.246356106961257e-05</v>
+        <v>11631579537439.97</v>
       </c>
       <c r="H131" t="n">
-        <v>4.794677962142912</v>
+        <v>4.461521803106248</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3090208562189749</v>
+        <v>0.3471344122587808</v>
       </c>
       <c r="J131" t="n">
-        <v>1.198669490535728</v>
+        <v>1.115380450776562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002357433705071552</v>
+        <v>219174492244273.8</v>
       </c>
       <c r="C132" t="n">
-        <v>4.003925441496414e-05</v>
+        <v>41417808461719.69</v>
       </c>
       <c r="D132" t="n">
-        <v>8.109839986653543e-06</v>
+        <v>1301599689896.938</v>
       </c>
       <c r="E132" t="n">
-        <v>5.899847418375968e-06</v>
+        <v>5404997279429.759</v>
       </c>
       <c r="F132" t="n">
-        <v>1.05093893407767e-05</v>
+        <v>10092616875778.63</v>
       </c>
       <c r="G132" t="n">
-        <v>1.342031691312918e-05</v>
+        <v>12510389475872.34</v>
       </c>
       <c r="H132" t="n">
-        <v>1.71226704459018</v>
+        <v>0.5479321560992697</v>
       </c>
       <c r="I132" t="n">
-        <v>0.7884881118373439</v>
+        <v>0.9686701305582173</v>
       </c>
       <c r="J132" t="n">
-        <v>0.428066761147545</v>
+        <v>0.1369830390248174</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002681366793096546</v>
+        <v>250605247638866.8</v>
       </c>
       <c r="C133" t="n">
-        <v>3.485863032639576e-05</v>
+        <v>43736974302839</v>
       </c>
       <c r="D133" t="n">
-        <v>1.450003308613623e-05</v>
+        <v>-4940225265792.688</v>
       </c>
       <c r="E133" t="n">
-        <v>6.571513919814568e-06</v>
+        <v>6078298046782.861</v>
       </c>
       <c r="F133" t="n">
-        <v>1.188532576843327e-05</v>
+        <v>11166844940011.38</v>
       </c>
       <c r="G133" t="n">
-        <v>1.491754836922229e-05</v>
+        <v>13876510475855.38</v>
       </c>
       <c r="H133" t="n">
-        <v>2.916442458669078</v>
+        <v>0.204513694407625</v>
       </c>
       <c r="I133" t="n">
-        <v>0.5719045235282452</v>
+        <v>0.9951148812527698</v>
       </c>
       <c r="J133" t="n">
-        <v>0.7291106146672695</v>
+        <v>0.05112842360190625</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002823949404465356</v>
+        <v>263461852419616.9</v>
       </c>
       <c r="C134" t="n">
-        <v>4.411354213248195e-05</v>
+        <v>50213965913528.62</v>
       </c>
       <c r="D134" t="n">
-        <v>9.103896803355424e-06</v>
+        <v>-6223089369894.125</v>
       </c>
       <c r="E134" t="n">
-        <v>6.889401869241958e-06</v>
+        <v>6359681413110.878</v>
       </c>
       <c r="F134" t="n">
-        <v>1.244123711708848e-05</v>
+        <v>11738555632917.04</v>
       </c>
       <c r="G134" t="n">
-        <v>1.565346616891507e-05</v>
+        <v>14566213219702.69</v>
       </c>
       <c r="H134" t="n">
-        <v>3.027000454508418</v>
+        <v>0.2204537973331936</v>
       </c>
       <c r="I134" t="n">
-        <v>0.5533171505671733</v>
+        <v>0.9943535106661517</v>
       </c>
       <c r="J134" t="n">
-        <v>0.7567501136271045</v>
+        <v>0.05511344933329839</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002729044165321484</v>
+        <v>254514138195408.3</v>
       </c>
       <c r="C135" t="n">
-        <v>4.813474829529861e-05</v>
+        <v>53490004464952.89</v>
       </c>
       <c r="D135" t="n">
-        <v>1.613717543048085e-05</v>
+        <v>947607193790.75</v>
       </c>
       <c r="E135" t="n">
-        <v>6.862076957705078e-06</v>
+        <v>6311422524588.105</v>
       </c>
       <c r="F135" t="n">
-        <v>1.23511224248732e-05</v>
+        <v>11746488281072.87</v>
       </c>
       <c r="G135" t="n">
-        <v>1.568908391041062e-05</v>
+        <v>14609653080272.98</v>
       </c>
       <c r="H135" t="n">
-        <v>2.46098616312789</v>
+        <v>0.3107048393010508</v>
       </c>
       <c r="I135" t="n">
-        <v>0.6516351837852399</v>
+        <v>0.989112703346961</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6152465407819726</v>
+        <v>0.07767620982526269</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000248191843915478</v>
+        <v>232088446074654.7</v>
       </c>
       <c r="C136" t="n">
-        <v>3.684824740234961e-05</v>
+        <v>45757812521317.02</v>
       </c>
       <c r="D136" t="n">
-        <v>1.687397201455607e-05</v>
+        <v>-2967052760009</v>
       </c>
       <c r="E136" t="n">
-        <v>6.188101343175086e-06</v>
+        <v>5723881273325.737</v>
       </c>
       <c r="F136" t="n">
-        <v>1.124431359839511e-05</v>
+        <v>10566547386810.47</v>
       </c>
       <c r="G136" t="n">
-        <v>1.403058388403492e-05</v>
+        <v>13053722393276.85</v>
       </c>
       <c r="H136" t="n">
-        <v>3.156652864595412</v>
+        <v>0.2298187161973078</v>
       </c>
       <c r="I136" t="n">
-        <v>0.531960567571705</v>
+        <v>0.9938825386543326</v>
       </c>
       <c r="J136" t="n">
-        <v>0.7891632161488529</v>
+        <v>0.05745467904932694</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001986155288190323</v>
+        <v>185907307488042.6</v>
       </c>
       <c r="C137" t="n">
-        <v>3.745109453231659e-05</v>
+        <v>44924063027348.89</v>
       </c>
       <c r="D137" t="n">
-        <v>1.779587537247901e-05</v>
+        <v>-236967020175.3125</v>
       </c>
       <c r="E137" t="n">
-        <v>5.155137317545351e-06</v>
+        <v>4742382139201.39</v>
       </c>
       <c r="F137" t="n">
-        <v>9.296198764196702e-06</v>
+        <v>8830309834743.807</v>
       </c>
       <c r="G137" t="n">
-        <v>1.188587749766191e-05</v>
+        <v>11065063675311.29</v>
       </c>
       <c r="H137" t="n">
-        <v>4.758027480224886</v>
+        <v>1.494732739825552</v>
       </c>
       <c r="I137" t="n">
-        <v>0.313038257942413</v>
+        <v>0.8275740850288882</v>
       </c>
       <c r="J137" t="n">
-        <v>1.189506870056221</v>
+        <v>0.3736831849563881</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001397712277168646</v>
+        <v>132139827516566.4</v>
       </c>
       <c r="C138" t="n">
-        <v>2.612917379094013e-05</v>
+        <v>37004365024319.93</v>
       </c>
       <c r="D138" t="n">
-        <v>1.259739028901209e-05</v>
+        <v>-9654199725919.719</v>
       </c>
       <c r="E138" t="n">
-        <v>3.608055843395911e-06</v>
+        <v>3363625290542.472</v>
       </c>
       <c r="F138" t="n">
-        <v>6.632190045666273e-06</v>
+        <v>6115909177820.515</v>
       </c>
       <c r="G138" t="n">
-        <v>8.300312836817014e-06</v>
+        <v>7705935208154.146</v>
       </c>
       <c r="H138" t="n">
-        <v>10.41059622698029</v>
+        <v>0.6970246594563216</v>
       </c>
       <c r="I138" t="n">
-        <v>0.03405104175780052</v>
+        <v>0.951695333847952</v>
       </c>
       <c r="J138" t="n">
-        <v>2.602649056745072</v>
+        <v>0.1742561648640804</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>9.598496097773475e-05</v>
+        <v>89403147660786.59</v>
       </c>
       <c r="C139" t="n">
-        <v>1.738827025924312e-05</v>
+        <v>19247874568754.05</v>
       </c>
       <c r="D139" t="n">
-        <v>2.196654606736076e-06</v>
+        <v>-2566830908391.281</v>
       </c>
       <c r="E139" t="n">
-        <v>2.611594312299574e-06</v>
+        <v>2385808807873.293</v>
       </c>
       <c r="F139" t="n">
-        <v>4.604780091266502e-06</v>
+        <v>4429709384773.549</v>
       </c>
       <c r="G139" t="n">
-        <v>5.899803366462746e-06</v>
+        <v>5495473079388.382</v>
       </c>
       <c r="H139" t="n">
-        <v>3.141196853802111</v>
+        <v>0.5869308393240023</v>
       </c>
       <c r="I139" t="n">
-        <v>0.5344806751553914</v>
+        <v>0.964504837299163</v>
       </c>
       <c r="J139" t="n">
-        <v>0.7852992134505277</v>
+        <v>0.1467327098310006</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>7.799520302221238e-05</v>
+        <v>72465277565398.97</v>
       </c>
       <c r="C140" t="n">
-        <v>1.487803957445241e-05</v>
+        <v>14522592067995.77</v>
       </c>
       <c r="D140" t="n">
-        <v>7.248827414076608e-06</v>
+        <v>5725905489220.328</v>
       </c>
       <c r="E140" t="n">
-        <v>2.31653786036153e-06</v>
+        <v>2092434819763.496</v>
       </c>
       <c r="F140" t="n">
-        <v>4.031401079112158e-06</v>
+        <v>4005844608154.825</v>
       </c>
       <c r="G140" t="n">
-        <v>5.254112775469452e-06</v>
+        <v>4915362769118.457</v>
       </c>
       <c r="H140" t="n">
-        <v>1.830506037339379</v>
+        <v>1.708753016597836</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7668966134370832</v>
+        <v>0.7891270197137639</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4576265093348448</v>
+        <v>0.427188254149459</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>6.357353435406461e-05</v>
+        <v>59178085314862.94</v>
       </c>
       <c r="C141" t="n">
-        <v>1.202139655619056e-05</v>
+        <v>13170537574204.32</v>
       </c>
       <c r="D141" t="n">
-        <v>2.749870281514507e-06</v>
+        <v>-344339864586.25</v>
       </c>
       <c r="E141" t="n">
-        <v>1.771857675821897e-06</v>
+        <v>1612837471487.559</v>
       </c>
       <c r="F141" t="n">
-        <v>3.13108413477352e-06</v>
+        <v>3041948192113.447</v>
       </c>
       <c r="G141" t="n">
-        <v>3.975039547291217e-06</v>
+        <v>3708566037460.505</v>
       </c>
       <c r="H141" t="n">
-        <v>3.121424360156918</v>
+        <v>1.147605236203697</v>
       </c>
       <c r="I141" t="n">
-        <v>0.5377149107532999</v>
+        <v>0.8866474159629933</v>
       </c>
       <c r="J141" t="n">
-        <v>0.7803560900392295</v>
+        <v>0.2869013090509244</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>5.344779186371237e-05</v>
+        <v>49979104080287.42</v>
       </c>
       <c r="C142" t="n">
-        <v>1.041071001734688e-05</v>
+        <v>12082200516015.37</v>
       </c>
       <c r="D142" t="n">
-        <v>4.552512010549159e-06</v>
+        <v>376796689089.6562</v>
       </c>
       <c r="E142" t="n">
-        <v>1.616992220435233e-06</v>
+        <v>1476975751273.085</v>
       </c>
       <c r="F142" t="n">
-        <v>2.849877378802417e-06</v>
+        <v>2738042420295.958</v>
       </c>
       <c r="G142" t="n">
-        <v>3.676054750385064e-06</v>
+        <v>3422890948079.646</v>
       </c>
       <c r="H142" t="n">
-        <v>4.87982532848716</v>
+        <v>2.80918939208376</v>
       </c>
       <c r="I142" t="n">
-        <v>0.2998519034195899</v>
+        <v>0.5902475037058249</v>
       </c>
       <c r="J142" t="n">
-        <v>1.21995633212179</v>
+        <v>0.70229734802094</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>5.964991071525563e-05</v>
+        <v>55473840461636.96</v>
       </c>
       <c r="C143" t="n">
-        <v>1.08989153315556e-05</v>
+        <v>10911079604056.05</v>
       </c>
       <c r="D143" t="n">
-        <v>5.244994811968025e-06</v>
+        <v>3685498310450.562</v>
       </c>
       <c r="E143" t="n">
-        <v>1.819834217473156e-06</v>
+        <v>1653105832600.909</v>
       </c>
       <c r="F143" t="n">
-        <v>3.181884666155033e-06</v>
+        <v>3115549981171.545</v>
       </c>
       <c r="G143" t="n">
-        <v>4.104809485954801e-06</v>
+        <v>3833463880052.26</v>
       </c>
       <c r="H143" t="n">
-        <v>1.286065863119996</v>
+        <v>1.065723406873416</v>
       </c>
       <c r="I143" t="n">
-        <v>0.8637351909163962</v>
+        <v>0.8996717353970096</v>
       </c>
       <c r="J143" t="n">
-        <v>0.321516465779999</v>
+        <v>0.2664308517183541</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002225641007911923</v>
+        <v>208288347225201.8</v>
       </c>
       <c r="C144" t="n">
-        <v>4.533293638612202e-05</v>
+        <v>52648492893574.2</v>
       </c>
       <c r="D144" t="n">
-        <v>1.031358696878984e-05</v>
+        <v>-7127312928354.438</v>
       </c>
       <c r="E144" t="n">
-        <v>5.863931262524989e-06</v>
+        <v>5406977609063.819</v>
       </c>
       <c r="F144" t="n">
-        <v>1.060198444722183e-05</v>
+        <v>10004301602464.69</v>
       </c>
       <c r="G144" t="n">
-        <v>1.33311398262488e-05</v>
+        <v>12401547885722.42</v>
       </c>
       <c r="H144" t="n">
-        <v>5.725032829762883</v>
+        <v>1.164950218251112</v>
       </c>
       <c r="I144" t="n">
-        <v>0.2206455915469472</v>
+        <v>0.8838349313314193</v>
       </c>
       <c r="J144" t="n">
-        <v>1.431258207440721</v>
+        <v>0.2912375545627779</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004213239301090198</v>
+        <v>394329078688168</v>
       </c>
       <c r="C145" t="n">
-        <v>8.447384378091775e-05</v>
+        <v>95342330029555.56</v>
       </c>
       <c r="D145" t="n">
-        <v>4.361844524125276e-05</v>
+        <v>10700478366206.81</v>
       </c>
       <c r="E145" t="n">
-        <v>9.756826572800204e-06</v>
+        <v>9092503811439.889</v>
       </c>
       <c r="F145" t="n">
-        <v>1.816957541476695e-05</v>
+        <v>16760921804540.58</v>
       </c>
       <c r="G145" t="n">
-        <v>2.296368087677431e-05</v>
+        <v>21318676454361.75</v>
       </c>
       <c r="H145" t="n">
-        <v>4.078047389913618</v>
+        <v>1.470440055565962</v>
       </c>
       <c r="I145" t="n">
-        <v>0.3955463187996712</v>
+        <v>0.8318644224222197</v>
       </c>
       <c r="J145" t="n">
-        <v>1.019511847478404</v>
+        <v>0.3676100138914904</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0004679420490699201</v>
+        <v>438172222589403.4</v>
       </c>
       <c r="C146" t="n">
-        <v>9.384830578909196e-05</v>
+        <v>108134791461082.7</v>
       </c>
       <c r="D146" t="n">
-        <v>5.211997792835537e-05</v>
+        <v>12045252174485</v>
       </c>
       <c r="E146" t="n">
-        <v>1.109697884371533e-05</v>
+        <v>10327069980288.19</v>
       </c>
       <c r="F146" t="n">
-        <v>2.062912971070801e-05</v>
+        <v>19088164688076.77</v>
       </c>
       <c r="G146" t="n">
-        <v>2.593325393663309e-05</v>
+        <v>24083760271221.7</v>
       </c>
       <c r="H146" t="n">
-        <v>3.439776545966237</v>
+        <v>0.8024327222310357</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4870943343495798</v>
+        <v>0.9381216267473841</v>
       </c>
       <c r="J146" t="n">
-        <v>0.8599441364915593</v>
+        <v>0.2006081805577589</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0004920633945198861</v>
+        <v>461572760340374.9</v>
       </c>
       <c r="C147" t="n">
-        <v>9.366511353460242e-05</v>
+        <v>112980671816695.1</v>
       </c>
       <c r="D147" t="n">
-        <v>4.86280250340446e-05</v>
+        <v>224892855559.75</v>
       </c>
       <c r="E147" t="n">
-        <v>1.186046676339387e-05</v>
+        <v>11040923524765.45</v>
       </c>
       <c r="F147" t="n">
-        <v>2.191003094183678e-05</v>
+        <v>20262236437027.31</v>
       </c>
       <c r="G147" t="n">
-        <v>2.76727983580113e-05</v>
+        <v>25697563317937.2</v>
       </c>
       <c r="H147" t="n">
-        <v>4.451007777231496</v>
+        <v>0.5886102973099089</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3483962818821095</v>
+        <v>0.9643208939215485</v>
       </c>
       <c r="J147" t="n">
-        <v>1.112751944307874</v>
+        <v>0.1471525743274772</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0004812295019451203</v>
+        <v>452005989064727</v>
       </c>
       <c r="C148" t="n">
-        <v>8.998125863815169e-05</v>
+        <v>112083276417774.8</v>
       </c>
       <c r="D148" t="n">
-        <v>5.484275084222839e-05</v>
+        <v>1297644011434.125</v>
       </c>
       <c r="E148" t="n">
-        <v>1.157811118723136e-05</v>
+        <v>10808148551999.85</v>
       </c>
       <c r="F148" t="n">
-        <v>2.151211144484022e-05</v>
+        <v>19768371068471.16</v>
       </c>
       <c r="G148" t="n">
-        <v>2.70544627135465e-05</v>
+        <v>25109387813271.41</v>
       </c>
       <c r="H148" t="n">
-        <v>5.018659024325855</v>
+        <v>1.149018927350498</v>
       </c>
       <c r="I148" t="n">
-        <v>0.2853883156296646</v>
+        <v>0.8864188552098906</v>
       </c>
       <c r="J148" t="n">
-        <v>1.254664756081464</v>
+        <v>0.2872547318376246</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0004814533068235167</v>
+        <v>451106548554193.6</v>
       </c>
       <c r="C149" t="n">
-        <v>8.592013443026295e-05</v>
+        <v>102958579381282.8</v>
       </c>
       <c r="D149" t="n">
-        <v>4.283508883170313e-05</v>
+        <v>73589188566</v>
       </c>
       <c r="E149" t="n">
-        <v>1.158175136576416e-05</v>
+        <v>10775482240767.02</v>
       </c>
       <c r="F149" t="n">
-        <v>2.135105768341663e-05</v>
+        <v>19767040928410.86</v>
       </c>
       <c r="G149" t="n">
-        <v>2.693128786653747e-05</v>
+        <v>25010846417365.27</v>
       </c>
       <c r="H149" t="n">
-        <v>4.051201381880541</v>
+        <v>0.6820839162507173</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3991208428528575</v>
+        <v>0.9535198218600458</v>
       </c>
       <c r="J149" t="n">
-        <v>1.012800345470135</v>
+        <v>0.1705209790626793</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0005958336363486988</v>
+        <v>557768344071548.9</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001222323920003169</v>
+        <v>138287052967271.2</v>
       </c>
       <c r="D150" t="n">
-        <v>4.116599920502353e-05</v>
+        <v>-4561811308155.125</v>
       </c>
       <c r="E150" t="n">
-        <v>1.416711845408635e-05</v>
+        <v>13144635988379.48</v>
       </c>
       <c r="F150" t="n">
-        <v>2.597021133372698e-05</v>
+        <v>24190476684970.31</v>
       </c>
       <c r="G150" t="n">
-        <v>3.313856000279686e-05</v>
+        <v>30791262058125.67</v>
       </c>
       <c r="H150" t="n">
-        <v>5.135580631482084</v>
+        <v>1.019568830669103</v>
       </c>
       <c r="I150" t="n">
-        <v>0.2736668274288681</v>
+        <v>0.9068143405629178</v>
       </c>
       <c r="J150" t="n">
-        <v>1.283895157870521</v>
+        <v>0.2548922076672757</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006212640943447996</v>
+        <v>583162975104215</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0001105867031473546</v>
+        <v>135902513622683.7</v>
       </c>
       <c r="D151" t="n">
-        <v>5.239433508285045e-05</v>
+        <v>-9198194134881.875</v>
       </c>
       <c r="E151" t="n">
-        <v>1.460173260215803e-05</v>
+        <v>13638006190949.23</v>
       </c>
       <c r="F151" t="n">
-        <v>2.70711503919638e-05</v>
+        <v>24854598888816</v>
       </c>
       <c r="G151" t="n">
-        <v>3.41310650911496e-05</v>
+        <v>31674734501783.27</v>
       </c>
       <c r="H151" t="n">
-        <v>5.769879451929814</v>
+        <v>1.152038702665065</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2170055701628713</v>
+        <v>0.8859302277392622</v>
       </c>
       <c r="J151" t="n">
-        <v>1.442469862982453</v>
+        <v>0.2880096756662662</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006218709723196476</v>
+        <v>581656399471979.8</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0001082813655225958</v>
+        <v>126220178163043.6</v>
       </c>
       <c r="D152" t="n">
-        <v>5.264598906374869e-05</v>
+        <v>5283567589132</v>
       </c>
       <c r="E152" t="n">
-        <v>1.472906713069685e-05</v>
+        <v>13671268083074.77</v>
       </c>
       <c r="F152" t="n">
-        <v>2.708419461892831e-05</v>
+        <v>25212349713719.47</v>
       </c>
       <c r="G152" t="n">
-        <v>3.41255718974297e-05</v>
+        <v>31708955595291.3</v>
       </c>
       <c r="H152" t="n">
-        <v>4.134410201581707</v>
+        <v>1.450316064529328</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3881209176542333</v>
+        <v>0.8354043890766223</v>
       </c>
       <c r="J152" t="n">
-        <v>1.033602550395427</v>
+        <v>0.362579016132332</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006268895006585215</v>
+        <v>589308804701255</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001318526622961851</v>
+        <v>158717511789686.4</v>
       </c>
       <c r="D153" t="n">
-        <v>7.342332878650765e-05</v>
+        <v>2718778171882.125</v>
       </c>
       <c r="E153" t="n">
-        <v>1.4635373405462e-05</v>
+        <v>13697042275500.73</v>
       </c>
       <c r="F153" t="n">
-        <v>2.73993588381103e-05</v>
+        <v>25060650306647.99</v>
       </c>
       <c r="G153" t="n">
-        <v>3.473860603298589e-05</v>
+        <v>32235042934601.54</v>
       </c>
       <c r="H153" t="n">
-        <v>6.648133989424723</v>
+        <v>1.932006723539186</v>
       </c>
       <c r="I153" t="n">
-        <v>0.1556927754970403</v>
+        <v>0.7482630961037771</v>
       </c>
       <c r="J153" t="n">
-        <v>1.662033497356181</v>
+        <v>0.4830016808847965</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006374594663919428</v>
+        <v>595402809464343.8</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0001311539329304612</v>
+        <v>142313188124359.5</v>
       </c>
       <c r="D154" t="n">
-        <v>5.30250188593241e-05</v>
+        <v>13642843068885.38</v>
       </c>
       <c r="E154" t="n">
-        <v>1.505674943811791e-05</v>
+        <v>13938217179947.86</v>
       </c>
       <c r="F154" t="n">
-        <v>2.760888263820417e-05</v>
+        <v>25843454999444.86</v>
       </c>
       <c r="G154" t="n">
-        <v>3.542511540023243e-05</v>
+        <v>32928867709610.92</v>
       </c>
       <c r="H154" t="n">
-        <v>5.89660868021747</v>
+        <v>3.506838840074939</v>
       </c>
       <c r="I154" t="n">
-        <v>0.20700379876813</v>
+        <v>0.4768392460346808</v>
       </c>
       <c r="J154" t="n">
-        <v>1.474152170054368</v>
+        <v>0.8767097100187348</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006286156524217504</v>
+        <v>587921992411044</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001116839424650581</v>
+        <v>128677503006753.5</v>
       </c>
       <c r="D155" t="n">
-        <v>5.919097487822663e-05</v>
+        <v>12007070909178.38</v>
       </c>
       <c r="E155" t="n">
-        <v>1.479524752145032e-05</v>
+        <v>13756669983336.44</v>
       </c>
       <c r="F155" t="n">
-        <v>2.736001605117861e-05</v>
+        <v>25361368495855.16</v>
       </c>
       <c r="G155" t="n">
-        <v>3.448542266297457e-05</v>
+        <v>32027030387751.93</v>
       </c>
       <c r="H155" t="n">
-        <v>3.655910816077177</v>
+        <v>1.393213035736243</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4545708789907391</v>
+        <v>0.8453737618025872</v>
       </c>
       <c r="J155" t="n">
-        <v>0.9139777040192943</v>
+        <v>0.3483032589340608</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000617223708246716</v>
+        <v>577441423189926.4</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0001086705361110329</v>
+        <v>125465231228885.1</v>
       </c>
       <c r="D156" t="n">
-        <v>5.026524689082069e-05</v>
+        <v>4180835857212.75</v>
       </c>
       <c r="E156" t="n">
-        <v>1.439749579822433e-05</v>
+        <v>13389740125518.11</v>
       </c>
       <c r="F156" t="n">
-        <v>2.652352107555179e-05</v>
+        <v>24575285363052.18</v>
       </c>
       <c r="G156" t="n">
-        <v>3.357867651657795e-05</v>
+        <v>31185347099490.25</v>
       </c>
       <c r="H156" t="n">
-        <v>3.740658603332683</v>
+        <v>0.9129662476666628</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4422400082356567</v>
+        <v>0.9226932745746496</v>
       </c>
       <c r="J156" t="n">
-        <v>0.9351646508331707</v>
+        <v>0.2282415619166657</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005147397089845236</v>
+        <v>482269122227783</v>
       </c>
       <c r="C157" t="n">
-        <v>9.572627290353907e-05</v>
+        <v>112876467354509.3</v>
       </c>
       <c r="D157" t="n">
-        <v>4.955628161011747e-05</v>
+        <v>4028375898473.625</v>
       </c>
       <c r="E157" t="n">
-        <v>1.188471062112914e-05</v>
+        <v>11079661094127.04</v>
       </c>
       <c r="F157" t="n">
-        <v>2.207166989488732e-05</v>
+        <v>20340260397207.65</v>
       </c>
       <c r="G157" t="n">
-        <v>2.782875969320032e-05</v>
+        <v>25833560394202.51</v>
       </c>
       <c r="H157" t="n">
-        <v>4.346271358364316</v>
+        <v>0.9501128286841098</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3611667893604139</v>
+        <v>0.9172637932291539</v>
       </c>
       <c r="J157" t="n">
-        <v>1.086567839591079</v>
+        <v>0.2375282071710275</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003791896666909078</v>
+        <v>354999723379331.7</v>
       </c>
       <c r="C158" t="n">
-        <v>6.926444023994745e-05</v>
+        <v>82085419788368</v>
       </c>
       <c r="D158" t="n">
-        <v>2.800722970029278e-05</v>
+        <v>-3897811620515.5</v>
       </c>
       <c r="E158" t="n">
-        <v>9.234578157900583e-06</v>
+        <v>8556157518340.444</v>
       </c>
       <c r="F158" t="n">
-        <v>1.689483387400254e-05</v>
+        <v>15789928094428.65</v>
       </c>
       <c r="G158" t="n">
-        <v>2.139529001695585e-05</v>
+        <v>19887266705045.95</v>
       </c>
       <c r="H158" t="n">
-        <v>5.202335253491089</v>
+        <v>1.380436739983524</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2671594806459473</v>
+        <v>0.847587977893674</v>
       </c>
       <c r="J158" t="n">
-        <v>1.300583813372772</v>
+        <v>0.3451091849958811</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002767524166901385</v>
+        <v>258226756034263.6</v>
       </c>
       <c r="C159" t="n">
-        <v>4.585379195290302e-05</v>
+        <v>51360718870142.53</v>
       </c>
       <c r="D159" t="n">
-        <v>2.137906178120334e-05</v>
+        <v>5375695387238.312</v>
       </c>
       <c r="E159" t="n">
-        <v>6.612196238292125e-06</v>
+        <v>6112219399208.492</v>
       </c>
       <c r="F159" t="n">
-        <v>1.207694673119494e-05</v>
+        <v>11362616502679.26</v>
       </c>
       <c r="G159" t="n">
-        <v>1.516292823905761e-05</v>
+        <v>14107245932237.41</v>
       </c>
       <c r="H159" t="n">
-        <v>2.40223270935855</v>
+        <v>0.7157061436167418</v>
       </c>
       <c r="I159" t="n">
-        <v>0.6622238163175364</v>
+        <v>0.9493780024621751</v>
       </c>
       <c r="J159" t="n">
-        <v>0.6005581773396375</v>
+        <v>0.1789265359041854</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002883086033306753</v>
+        <v>269739738754870.7</v>
       </c>
       <c r="C160" t="n">
-        <v>5.894802450781341e-05</v>
+        <v>67372136003137.62</v>
       </c>
       <c r="D160" t="n">
-        <v>3.181811040523657e-05</v>
+        <v>7747785113644.562</v>
       </c>
       <c r="E160" t="n">
-        <v>7.155538478050902e-06</v>
+        <v>6609450129918.681</v>
       </c>
       <c r="F160" t="n">
-        <v>1.308489266086829e-05</v>
+        <v>12316956592985.06</v>
       </c>
       <c r="G160" t="n">
-        <v>1.675664568201688e-05</v>
+        <v>15585775674591.77</v>
       </c>
       <c r="H160" t="n">
-        <v>6.55774260773904</v>
+        <v>4.164975979124094</v>
       </c>
       <c r="I160" t="n">
-        <v>0.1611882982406646</v>
+        <v>0.3841389550107511</v>
       </c>
       <c r="J160" t="n">
-        <v>1.63943565193476</v>
+        <v>1.041243994781023</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002221198303384071</v>
+        <v>207442943080650.2</v>
       </c>
       <c r="C161" t="n">
-        <v>4.667940875919344e-05</v>
+        <v>51692910842682.06</v>
       </c>
       <c r="D161" t="n">
-        <v>1.57639676030126e-05</v>
+        <v>904508233643.375</v>
       </c>
       <c r="E161" t="n">
-        <v>5.393509183582107e-06</v>
+        <v>4972416245030.759</v>
       </c>
       <c r="F161" t="n">
-        <v>9.826342528914219e-06</v>
+        <v>9282447506439.26</v>
       </c>
       <c r="G161" t="n">
-        <v>1.246343647865506e-05</v>
+        <v>11594277139570.85</v>
       </c>
       <c r="H161" t="n">
-        <v>3.639027317147354</v>
+        <v>0.3846991048594008</v>
       </c>
       <c r="I161" t="n">
-        <v>0.4570560490450249</v>
+        <v>0.9837103568126067</v>
       </c>
       <c r="J161" t="n">
-        <v>0.9097568292868385</v>
+        <v>0.09617477621485021</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002220386951991223</v>
+        <v>207344333306703</v>
       </c>
       <c r="C162" t="n">
-        <v>3.949765587551313e-05</v>
+        <v>44917651146481.41</v>
       </c>
       <c r="D162" t="n">
-        <v>1.913313517258472e-05</v>
+        <v>4174331261407.375</v>
       </c>
       <c r="E162" t="n">
-        <v>5.445009259159107e-06</v>
+        <v>5026236686578.706</v>
       </c>
       <c r="F162" t="n">
-        <v>9.915584044122268e-06</v>
+        <v>9360565581795.656</v>
       </c>
       <c r="G162" t="n">
-        <v>1.250030185647731e-05</v>
+        <v>11635078480084.62</v>
       </c>
       <c r="H162" t="n">
-        <v>2.284361126905943</v>
+        <v>0.2658182287631154</v>
       </c>
       <c r="I162" t="n">
-        <v>0.6836177939457656</v>
+        <v>0.9919125286599531</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5710902817264857</v>
+        <v>0.06645455719077886</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002139780056771204</v>
+        <v>200809830766511</v>
       </c>
       <c r="C163" t="n">
-        <v>4.175792788983693e-05</v>
+        <v>50902191594572.48</v>
       </c>
       <c r="D163" t="n">
-        <v>1.838892724112203e-05</v>
+        <v>-3556657829550.906</v>
       </c>
       <c r="E163" t="n">
-        <v>5.18759706433012e-06</v>
+        <v>4820327393424.592</v>
       </c>
       <c r="F163" t="n">
-        <v>9.555563702848303e-06</v>
+        <v>8869810074553.66</v>
       </c>
       <c r="G163" t="n">
-        <v>1.203215204558064e-05</v>
+        <v>11176672656242.02</v>
       </c>
       <c r="H163" t="n">
-        <v>5.305049357893491</v>
+        <v>0.1748355925487115</v>
       </c>
       <c r="I163" t="n">
-        <v>0.257404614250549</v>
+        <v>0.9963946102983001</v>
       </c>
       <c r="J163" t="n">
-        <v>1.326262339473373</v>
+        <v>0.04370889813717788</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.000197328803071349</v>
+        <v>184261027621349.4</v>
       </c>
       <c r="C164" t="n">
-        <v>3.403880748779949e-05</v>
+        <v>39041681141845.92</v>
       </c>
       <c r="D164" t="n">
-        <v>1.186031224654013e-05</v>
+        <v>-1045453070629.781</v>
       </c>
       <c r="E164" t="n">
-        <v>4.85391671486998e-06</v>
+        <v>4475332046377.64</v>
       </c>
       <c r="F164" t="n">
-        <v>8.773956669537484e-06</v>
+        <v>8298960365148.001</v>
       </c>
       <c r="G164" t="n">
-        <v>1.110982697808004e-05</v>
+        <v>10340806604589.38</v>
       </c>
       <c r="H164" t="n">
-        <v>2.867741383798852</v>
+        <v>0.06891070190364663</v>
       </c>
       <c r="I164" t="n">
-        <v>0.5801968569428178</v>
+        <v>0.9994198746308094</v>
       </c>
       <c r="J164" t="n">
-        <v>0.716935345949713</v>
+        <v>0.01722767547591166</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.000183419839739366</v>
+        <v>171747027829077.8</v>
       </c>
       <c r="C165" t="n">
-        <v>2.928778890051878e-05</v>
+        <v>36771539737339.39</v>
       </c>
       <c r="D165" t="n">
-        <v>1.075274540489037e-05</v>
+        <v>-5673988065066.531</v>
       </c>
       <c r="E165" t="n">
-        <v>4.625884632231671e-06</v>
+        <v>4274647438655.415</v>
       </c>
       <c r="F165" t="n">
-        <v>8.356431757859626e-06</v>
+        <v>7860944204802.096</v>
       </c>
       <c r="G165" t="n">
-        <v>1.058300827884596e-05</v>
+        <v>9844868713410.279</v>
       </c>
       <c r="H165" t="n">
-        <v>4.877155253896092</v>
+        <v>0.6295124226373366</v>
       </c>
       <c r="I165" t="n">
-        <v>0.3001359556127002</v>
+        <v>0.9597283977996236</v>
       </c>
       <c r="J165" t="n">
-        <v>1.219288813474023</v>
+        <v>0.1573781056593342</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001747737959840143</v>
+        <v>163708974464773.2</v>
       </c>
       <c r="C166" t="n">
-        <v>3.120528186637613e-05</v>
+        <v>38687371074183.27</v>
       </c>
       <c r="D166" t="n">
-        <v>1.778875303134206e-05</v>
+        <v>368148330745.1875</v>
       </c>
       <c r="E166" t="n">
-        <v>4.632145733250127e-06</v>
+        <v>4258962302309.416</v>
       </c>
       <c r="F166" t="n">
-        <v>8.322865398230775e-06</v>
+        <v>7924371650847.123</v>
       </c>
       <c r="G166" t="n">
-        <v>1.068818560523893e-05</v>
+        <v>9953971345627.848</v>
       </c>
       <c r="H166" t="n">
-        <v>6.407547098936135</v>
+        <v>3.521450457238643</v>
       </c>
       <c r="I166" t="n">
-        <v>0.1707096765377125</v>
+        <v>0.4746242600677978</v>
       </c>
       <c r="J166" t="n">
-        <v>1.601886774734034</v>
+        <v>0.8803626143096608</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001675593141011447</v>
+        <v>156366208156073.8</v>
       </c>
       <c r="C167" t="n">
-        <v>3.263810613573455e-05</v>
+        <v>35655356403117.02</v>
       </c>
       <c r="D167" t="n">
-        <v>1.093554435391991e-05</v>
+        <v>1348709118221.719</v>
       </c>
       <c r="E167" t="n">
-        <v>4.134578749264506e-06</v>
+        <v>3812630050366.769</v>
       </c>
       <c r="F167" t="n">
-        <v>7.492623776034148e-06</v>
+        <v>7074345677004.693</v>
       </c>
       <c r="G167" t="n">
-        <v>9.574475376092479e-06</v>
+        <v>8907263655590.307</v>
       </c>
       <c r="H167" t="n">
-        <v>4.028801099838094</v>
+        <v>1.646361308721348</v>
       </c>
       <c r="I167" t="n">
-        <v>0.402122077098497</v>
+        <v>0.8004365070678522</v>
       </c>
       <c r="J167" t="n">
-        <v>1.007200274959523</v>
+        <v>0.4115903271803371</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.000140476862647785</v>
+        <v>131836463327140</v>
       </c>
       <c r="C168" t="n">
-        <v>2.098074770845026e-05</v>
+        <v>28274616773526.07</v>
       </c>
       <c r="D168" t="n">
-        <v>1.338208838742454e-05</v>
+        <v>-2304777089059.25</v>
       </c>
       <c r="E168" t="n">
-        <v>3.524711142994441e-06</v>
+        <v>3269081957548.205</v>
       </c>
       <c r="F168" t="n">
-        <v>6.41796303119491e-06</v>
+        <v>5982771215030.503</v>
       </c>
       <c r="G168" t="n">
-        <v>8.105971335968175e-06</v>
+        <v>7532481263168.562</v>
       </c>
       <c r="H168" t="n">
-        <v>5.076666155728665</v>
+        <v>1.4424442275295</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2795211429648685</v>
+        <v>0.8367854746862677</v>
       </c>
       <c r="J168" t="n">
-        <v>1.269166538932166</v>
+        <v>0.3606110568823749</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001269106507144066</v>
+        <v>118462152815165.3</v>
       </c>
       <c r="C169" t="n">
-        <v>2.170012562917976e-05</v>
+        <v>24319038676456.48</v>
       </c>
       <c r="D169" t="n">
-        <v>1.293342198973842e-05</v>
+        <v>5027262164939.125</v>
       </c>
       <c r="E169" t="n">
-        <v>3.131136252425954e-06</v>
+        <v>2889549259796.113</v>
       </c>
       <c r="F169" t="n">
-        <v>5.693847435593085e-06</v>
+        <v>5380108538311.166</v>
       </c>
       <c r="G169" t="n">
-        <v>7.219042640592884e-06</v>
+        <v>6718839925443.961</v>
       </c>
       <c r="H169" t="n">
-        <v>1.757510475830729</v>
+        <v>0.716266386190513</v>
       </c>
       <c r="I169" t="n">
-        <v>0.7802461845680622</v>
+        <v>0.9493078978873364</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4393776189576822</v>
+        <v>0.1790665965476282</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.071646996762628e-05</v>
+        <v>75546294054179.7</v>
       </c>
       <c r="C170" t="n">
-        <v>1.476526018162333e-05</v>
+        <v>17802010001955.61</v>
       </c>
       <c r="D170" t="n">
-        <v>9.294137162059972e-06</v>
+        <v>1960728869792.234</v>
       </c>
       <c r="E170" t="n">
-        <v>2.337428615543087e-06</v>
+        <v>2137383748682.563</v>
       </c>
       <c r="F170" t="n">
-        <v>4.154265215157064e-06</v>
+        <v>3998734024921.417</v>
       </c>
       <c r="G170" t="n">
-        <v>5.344145919810995e-06</v>
+        <v>4979988838792.641</v>
       </c>
       <c r="H170" t="n">
-        <v>3.496118702231136</v>
+        <v>1.908179999787922</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4784687497222494</v>
+        <v>0.7526421564138199</v>
       </c>
       <c r="J170" t="n">
-        <v>0.8740296755577839</v>
+        <v>0.4770449999469806</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>5.983802948090401e-05</v>
+        <v>55608679565638.44</v>
       </c>
       <c r="C171" t="n">
-        <v>1.179679327171566e-05</v>
+        <v>11544029557841.33</v>
       </c>
       <c r="D171" t="n">
-        <v>4.710750455979166e-06</v>
+        <v>3501775934739.297</v>
       </c>
       <c r="E171" t="n">
-        <v>1.641387973503063e-06</v>
+        <v>1497763699150.535</v>
       </c>
       <c r="F171" t="n">
-        <v>2.915434954854536e-06</v>
+        <v>2812657625688.642</v>
       </c>
       <c r="G171" t="n">
-        <v>3.775770136018069e-06</v>
+        <v>3518867516612.508</v>
       </c>
       <c r="H171" t="n">
-        <v>4.51886394255104</v>
+        <v>4.236657805034254</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3403165609174936</v>
+        <v>0.3749241079276779</v>
       </c>
       <c r="J171" t="n">
-        <v>1.12971598563776</v>
+        <v>1.059164451258563</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>6.600497163521159e-05</v>
+        <v>61120760268883.2</v>
       </c>
       <c r="C172" t="n">
-        <v>1.444841150346412e-05</v>
+        <v>13056134499926.78</v>
       </c>
       <c r="D172" t="n">
-        <v>4.551132092935851e-06</v>
+        <v>5063292635522.5</v>
       </c>
       <c r="E172" t="n">
-        <v>1.879332338361524e-06</v>
+        <v>1702322519542.132</v>
       </c>
       <c r="F172" t="n">
-        <v>3.305919122054031e-06</v>
+        <v>3242459702015.199</v>
       </c>
       <c r="G172" t="n">
-        <v>4.297774344404509e-06</v>
+        <v>4011489114603.85</v>
       </c>
       <c r="H172" t="n">
-        <v>4.315891469639056</v>
+        <v>4.560300991440101</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3649393868790528</v>
+        <v>0.3354571027050164</v>
       </c>
       <c r="J172" t="n">
-        <v>1.078972867409764</v>
+        <v>1.140075247860025</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>8.821880339716936e-05</v>
+        <v>82292629708484.28</v>
       </c>
       <c r="C173" t="n">
-        <v>1.38044160895103e-05</v>
+        <v>15234946392253.88</v>
       </c>
       <c r="D173" t="n">
-        <v>5.805071267385171e-06</v>
+        <v>1635569102243.266</v>
       </c>
       <c r="E173" t="n">
-        <v>2.74233064160577e-06</v>
+        <v>2510076831003.055</v>
       </c>
       <c r="F173" t="n">
-        <v>4.833607799115395e-06</v>
+        <v>4622505895890.832</v>
       </c>
       <c r="G173" t="n">
-        <v>6.217064638217511e-06</v>
+        <v>5787286667522.97</v>
       </c>
       <c r="H173" t="n">
-        <v>2.548839759144395</v>
+        <v>1.743374018470607</v>
       </c>
       <c r="I173" t="n">
-        <v>0.635912147733908</v>
+        <v>0.7828244256042904</v>
       </c>
       <c r="J173" t="n">
-        <v>0.6372099397860986</v>
+        <v>0.4358435046176516</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001137205254380706</v>
+        <v>106648790383300.2</v>
       </c>
       <c r="C174" t="n">
-        <v>1.888520465773732e-05</v>
+        <v>23371146976449.83</v>
       </c>
       <c r="D174" t="n">
-        <v>1.213289713333459e-05</v>
+        <v>1619267483853.906</v>
       </c>
       <c r="E174" t="n">
-        <v>3.051064053867918e-06</v>
+        <v>2833556791173.545</v>
       </c>
       <c r="F174" t="n">
-        <v>5.563464130685482e-06</v>
+        <v>5166326857039.408</v>
       </c>
       <c r="G174" t="n">
-        <v>6.998594053319977e-06</v>
+        <v>6498560332140.438</v>
       </c>
       <c r="H174" t="n">
-        <v>3.538581905099819</v>
+        <v>1.61602570031922</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4720361822967479</v>
+        <v>0.8059089719943776</v>
       </c>
       <c r="J174" t="n">
-        <v>0.8846454762749547</v>
+        <v>0.4040064250798051</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001261335720527543</v>
+        <v>117228512018284.7</v>
       </c>
       <c r="C175" t="n">
-        <v>2.287661158709011e-05</v>
+        <v>22354594086893.8</v>
       </c>
       <c r="D175" t="n">
-        <v>6.030107428049632e-06</v>
+        <v>4044859982648.812</v>
       </c>
       <c r="E175" t="n">
-        <v>3.859335973433331e-06</v>
+        <v>3541150706099.072</v>
       </c>
       <c r="F175" t="n">
-        <v>6.814908413223665e-06</v>
+        <v>6486851156348.349</v>
       </c>
       <c r="G175" t="n">
-        <v>8.73779132247052e-06</v>
+        <v>8129831458964.448</v>
       </c>
       <c r="H175" t="n">
-        <v>3.718136107888856</v>
+        <v>3.433804848562487</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4454936269863462</v>
+        <v>0.4880145746358506</v>
       </c>
       <c r="J175" t="n">
-        <v>0.9295340269722139</v>
+        <v>0.8584512121406217</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001728089850224592</v>
+        <v>160695439738095.8</v>
       </c>
       <c r="C176" t="n">
-        <v>3.122135320877023e-05</v>
+        <v>30573445559121.08</v>
       </c>
       <c r="D176" t="n">
-        <v>1.491916789214329e-05</v>
+        <v>11514754830305.62</v>
       </c>
       <c r="E176" t="n">
-        <v>5.589173989452801e-06</v>
+        <v>5096050877879.715</v>
       </c>
       <c r="F176" t="n">
-        <v>9.771174758536198e-06</v>
+        <v>9426754718176.627</v>
       </c>
       <c r="G176" t="n">
-        <v>1.259827921028902e-05</v>
+        <v>11734911399726.32</v>
       </c>
       <c r="H176" t="n">
-        <v>1.95097015289729</v>
+        <v>1.835678677416531</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7447765042360355</v>
+        <v>0.7659486632319815</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4877425382243226</v>
+        <v>0.4589196693541328</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002587386491283566</v>
+        <v>241425918098506.9</v>
       </c>
       <c r="C177" t="n">
-        <v>4.618603640212638e-05</v>
+        <v>49993743868772.25</v>
       </c>
       <c r="D177" t="n">
-        <v>2.002643136150172e-05</v>
+        <v>7247280272395.938</v>
       </c>
       <c r="E177" t="n">
-        <v>7.507050145142183e-06</v>
+        <v>6896544347187.64</v>
       </c>
       <c r="F177" t="n">
-        <v>1.33163266986294e-05</v>
+        <v>12650716585086.76</v>
       </c>
       <c r="G177" t="n">
-        <v>1.710735942531503e-05</v>
+        <v>15916377136727.22</v>
       </c>
       <c r="H177" t="n">
-        <v>2.658558953746908</v>
+        <v>1.681252315881371</v>
       </c>
       <c r="I177" t="n">
-        <v>0.6164854889104217</v>
+        <v>0.7941202816522503</v>
       </c>
       <c r="J177" t="n">
-        <v>0.6646397384367271</v>
+        <v>0.4203130789703428</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003073466811827899</v>
+        <v>287007641816055.4</v>
       </c>
       <c r="C178" t="n">
-        <v>4.975303114483664e-05</v>
+        <v>55939220307086.44</v>
       </c>
       <c r="D178" t="n">
-        <v>2.439889930458774e-05</v>
+        <v>7084105142107.25</v>
       </c>
       <c r="E178" t="n">
-        <v>9.25081830731581e-06</v>
+        <v>8487292726398.383</v>
       </c>
       <c r="F178" t="n">
-        <v>1.630300315645893e-05</v>
+        <v>15537811554806.48</v>
       </c>
       <c r="G178" t="n">
-        <v>2.104167453211406e-05</v>
+        <v>19581691992565.8</v>
       </c>
       <c r="H178" t="n">
-        <v>4.370963624350308</v>
+        <v>3.445086431413239</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3581231851450458</v>
+        <v>0.486277044800177</v>
       </c>
       <c r="J178" t="n">
-        <v>1.092740906087577</v>
+        <v>0.8612716078533097</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003755769911170359</v>
+        <v>351470626002505.8</v>
       </c>
       <c r="C179" t="n">
-        <v>6.834355682293328e-05</v>
+        <v>79093946637998.78</v>
       </c>
       <c r="D179" t="n">
-        <v>3.848179704667165e-05</v>
+        <v>10054626357289.5</v>
       </c>
       <c r="E179" t="n">
-        <v>1.065913958788587e-05</v>
+        <v>9836570527898.961</v>
       </c>
       <c r="F179" t="n">
-        <v>1.9184636297863e-05</v>
+        <v>18072994972943.04</v>
       </c>
       <c r="G179" t="n">
-        <v>2.445360033677246e-05</v>
+        <v>22743347952784.45</v>
       </c>
       <c r="H179" t="n">
-        <v>2.552396775911819</v>
+        <v>1.134156761065035</v>
       </c>
       <c r="I179" t="n">
-        <v>0.6352785528893506</v>
+        <v>0.8888156801095761</v>
       </c>
       <c r="J179" t="n">
-        <v>0.6380991939779547</v>
+        <v>0.2835391902662588</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005019030911133385</v>
+        <v>470983308249555.4</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0001112615952869157</v>
+        <v>130452542161762.9</v>
       </c>
       <c r="D180" t="n">
-        <v>8.491461788801545e-05</v>
+        <v>31416823774472.12</v>
       </c>
       <c r="E180" t="n">
-        <v>1.33918705934569e-05</v>
+        <v>12415450100914.65</v>
       </c>
       <c r="F180" t="n">
-        <v>2.462450010264079e-05</v>
+        <v>22971521467781.34</v>
       </c>
       <c r="G180" t="n">
-        <v>3.142601168075987e-05</v>
+        <v>29203639312201.67</v>
       </c>
       <c r="H180" t="n">
-        <v>3.05151212542084</v>
+        <v>2.033518683175395</v>
       </c>
       <c r="I180" t="n">
-        <v>0.5492422851185675</v>
+        <v>0.7295937513379211</v>
       </c>
       <c r="J180" t="n">
-        <v>0.7628780313552099</v>
+        <v>0.5083796707938487</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004989993897634522</v>
+        <v>466773114290185</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0001199283295248123</v>
+        <v>129162329786877.9</v>
       </c>
       <c r="D181" t="n">
-        <v>3.64679713657748e-05</v>
+        <v>3215635590623.25</v>
       </c>
       <c r="E181" t="n">
-        <v>1.217792319013086e-05</v>
+        <v>11288150561944.71</v>
       </c>
       <c r="F181" t="n">
-        <v>2.233449276639784e-05</v>
+        <v>20833436598163.91</v>
       </c>
       <c r="G181" t="n">
-        <v>2.858845822123015e-05</v>
+        <v>26562298792923.64</v>
       </c>
       <c r="H181" t="n">
-        <v>4.210782169341763</v>
+        <v>0.6048591418013983</v>
       </c>
       <c r="I181" t="n">
-        <v>0.3782305214934744</v>
+        <v>0.9625221982565922</v>
       </c>
       <c r="J181" t="n">
-        <v>1.052695542335441</v>
+        <v>0.1512147854503496</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007526894261568073</v>
+        <v>704237191974450.9</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0001438909794473781</v>
+        <v>165563978489230.7</v>
       </c>
       <c r="D182" t="n">
-        <v>7.372724510548343e-05</v>
+        <v>14895300642251.88</v>
       </c>
       <c r="E182" t="n">
-        <v>1.960138373043308e-05</v>
+        <v>18097312081496.26</v>
       </c>
       <c r="F182" t="n">
-        <v>3.552411100694607e-05</v>
+        <v>33443442019831.79</v>
       </c>
       <c r="G182" t="n">
-        <v>4.534226752514749e-05</v>
+        <v>42167990294278.55</v>
       </c>
       <c r="H182" t="n">
-        <v>2.929202768516675</v>
+        <v>0.7833354240085636</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5697422006180801</v>
+        <v>0.9406681190650548</v>
       </c>
       <c r="J182" t="n">
-        <v>0.7323006921291687</v>
+        <v>0.1958338560021409</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0009633180133935657</v>
+        <v>904315095361661.2</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0001550542927881303</v>
+        <v>200678090435469.3</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0001216149586435642</v>
+        <v>15096959141305</v>
       </c>
       <c r="E183" t="n">
-        <v>2.480986514359911e-05</v>
+        <v>23055665241270.73</v>
       </c>
       <c r="F183" t="n">
-        <v>4.536862570416042e-05</v>
+        <v>42113090251099.9</v>
       </c>
       <c r="G183" t="n">
-        <v>5.786543643633121e-05</v>
+        <v>53752049970465.41</v>
       </c>
       <c r="H183" t="n">
-        <v>7.333125078474844</v>
+        <v>5.444152860255944</v>
       </c>
       <c r="I183" t="n">
-        <v>0.1192969147412924</v>
+        <v>0.2446822772919369</v>
       </c>
       <c r="J183" t="n">
-        <v>1.833281269618711</v>
+        <v>1.361038215063986</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001262488129173153</v>
+        <v>1177473220068922</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0002179090338464849</v>
+        <v>233583120703158.8</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0001476667887291029</v>
+        <v>82124523437428.75</v>
       </c>
       <c r="E184" t="n">
-        <v>2.955077543494556e-05</v>
+        <v>27399297789840.27</v>
       </c>
       <c r="F184" t="n">
-        <v>5.441074434872875e-05</v>
+        <v>50789318612298.02</v>
       </c>
       <c r="G184" t="n">
-        <v>6.953624224586599e-05</v>
+        <v>64631095599871.48</v>
       </c>
       <c r="H184" t="n">
-        <v>5.295506672538512</v>
+        <v>4.995729751454151</v>
       </c>
       <c r="I184" t="n">
-        <v>0.258297855184591</v>
+        <v>0.2877359300867926</v>
       </c>
       <c r="J184" t="n">
-        <v>1.323876668134628</v>
+        <v>1.248932437863538</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001478420066147818</v>
+        <v>1384345298487093</v>
       </c>
       <c r="C185" t="n">
-        <v>0.000354276738587569</v>
+        <v>385411450608747.9</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0001435952073686863</v>
+        <v>31788557842195.25</v>
       </c>
       <c r="E185" t="n">
-        <v>3.416203433747902e-05</v>
+        <v>31814707094339.13</v>
       </c>
       <c r="F185" t="n">
-        <v>6.359352746734851e-05</v>
+        <v>58795824311516.66</v>
       </c>
       <c r="G185" t="n">
-        <v>8.113832283415201e-05</v>
+        <v>75356173144225.16</v>
       </c>
       <c r="H185" t="n">
-        <v>4.133570987427075</v>
+        <v>0.5058718058373217</v>
       </c>
       <c r="I185" t="n">
-        <v>0.3882306911871304</v>
+        <v>0.9729268463728129</v>
       </c>
       <c r="J185" t="n">
-        <v>1.033392746856769</v>
+        <v>0.1264679514593304</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001438395614859874</v>
+        <v>1348151023147123</v>
       </c>
       <c r="C186" t="n">
-        <v>0.000270080908080601</v>
+        <v>316776942900043.9</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0001714505292335926</v>
+        <v>39195397331873.25</v>
       </c>
       <c r="E186" t="n">
-        <v>3.208302817937662e-05</v>
+        <v>30085723482490.93</v>
       </c>
       <c r="F186" t="n">
-        <v>6.04369075387682e-05</v>
+        <v>54962304862575.58</v>
       </c>
       <c r="G186" t="n">
-        <v>7.646400935303743e-05</v>
+        <v>70898912486172.5</v>
       </c>
       <c r="H186" t="n">
-        <v>7.627351240178607</v>
+        <v>5.127570512958521</v>
       </c>
       <c r="I186" t="n">
-        <v>0.1062229952734869</v>
+        <v>0.2744566367717167</v>
       </c>
       <c r="J186" t="n">
-        <v>1.906837810044652</v>
+        <v>1.28189262823963</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001416300026610696</v>
+        <v>1328736063142971</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0003039184948313616</v>
+        <v>345359481351358.6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0001240675384144684</v>
+        <v>1102207229484.25</v>
       </c>
       <c r="E187" t="n">
-        <v>3.209178438623055e-05</v>
+        <v>30041968011213.96</v>
       </c>
       <c r="F187" t="n">
-        <v>6.002854384447372e-05</v>
+        <v>54905574456226.7</v>
       </c>
       <c r="G187" t="n">
-        <v>7.597995518841042e-05</v>
+        <v>70509355195580.22</v>
       </c>
       <c r="H187" t="n">
-        <v>5.113139923181921</v>
+        <v>0.4754060362147591</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2758843907474242</v>
+        <v>0.9758506165802492</v>
       </c>
       <c r="J187" t="n">
-        <v>1.27828498079548</v>
+        <v>0.1188515090536898</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001331046342980817</v>
+        <v>1248552128637073</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0002500379461416205</v>
+        <v>298514000268177.9</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0001549277020025349</v>
+        <v>24399561942667.5</v>
       </c>
       <c r="E188" t="n">
-        <v>3.045112599133121e-05</v>
+        <v>28508430021993.29</v>
       </c>
       <c r="F188" t="n">
-        <v>5.702373133944983e-05</v>
+        <v>52073281904178.8</v>
       </c>
       <c r="G188" t="n">
-        <v>7.22602140463067e-05</v>
+        <v>67031659096697.91</v>
       </c>
       <c r="H188" t="n">
-        <v>7.9317719989347</v>
+        <v>4.951214450643407</v>
       </c>
       <c r="I188" t="n">
-        <v>0.09410968936766596</v>
+        <v>0.2923399269297329</v>
       </c>
       <c r="J188" t="n">
-        <v>1.982942999733675</v>
+        <v>1.237803612660852</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001156262864688409</v>
+        <v>1083072656046490</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0002292369806111669</v>
+        <v>262063835338271.4</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0001407027404828698</v>
+        <v>40784167592096.75</v>
       </c>
       <c r="E189" t="n">
-        <v>2.552189482431198e-05</v>
+        <v>23928448667922.55</v>
       </c>
       <c r="F189" t="n">
-        <v>4.820269165276151e-05</v>
+        <v>43863343789398.7</v>
       </c>
       <c r="G189" t="n">
-        <v>6.088189125736307e-05</v>
+        <v>56455954996150.19</v>
       </c>
       <c r="H189" t="n">
-        <v>5.698823883192842</v>
+        <v>3.353535029678929</v>
       </c>
       <c r="I189" t="n">
-        <v>0.2227975990139678</v>
+        <v>0.500495035437541</v>
       </c>
       <c r="J189" t="n">
-        <v>1.424705970798211</v>
+        <v>0.8383837574197324</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001098426443494892</v>
+        <v>1028814972055605</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0002227061110499723</v>
+        <v>254019207621954.8</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0001397376438286373</v>
+        <v>43366984621184.25</v>
       </c>
       <c r="E190" t="n">
-        <v>2.447649602654942e-05</v>
+        <v>22912251401855.68</v>
       </c>
       <c r="F190" t="n">
-        <v>4.613357116960156e-05</v>
+        <v>42131639457712.61</v>
       </c>
       <c r="G190" t="n">
-        <v>5.848019435892977e-05</v>
+        <v>54246112376118.72</v>
       </c>
       <c r="H190" t="n">
-        <v>7.568262761703644</v>
+        <v>5.369042360514571</v>
       </c>
       <c r="I190" t="n">
-        <v>0.1087365927111919</v>
+        <v>0.2514828203372818</v>
       </c>
       <c r="J190" t="n">
-        <v>1.892065690425911</v>
+        <v>1.342260590128643</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0009416419643730322</v>
+        <v>883251224949459.5</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0002007172340402025</v>
+        <v>231360862566307.5</v>
       </c>
       <c r="D191" t="n">
-        <v>0.000122494858541619</v>
+        <v>30374293554574.88</v>
       </c>
       <c r="E191" t="n">
-        <v>2.104791911529774e-05</v>
+        <v>19732676201813.98</v>
       </c>
       <c r="F191" t="n">
-        <v>3.974167684878292e-05</v>
+        <v>36207323013975.8</v>
       </c>
       <c r="G191" t="n">
-        <v>5.054919092628871e-05</v>
+        <v>46891270588908.95</v>
       </c>
       <c r="H191" t="n">
-        <v>8.381306995025708</v>
+        <v>5.381163307400023</v>
       </c>
       <c r="I191" t="n">
-        <v>0.07856775593732311</v>
+        <v>0.2503744758793741</v>
       </c>
       <c r="J191" t="n">
-        <v>2.095326748756427</v>
+        <v>1.345290826850006</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0007494748804475219</v>
+        <v>702542873009887.2</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0001699699751025662</v>
+        <v>190090885594008.1</v>
       </c>
       <c r="D192" t="n">
-        <v>8.773144380691328e-05</v>
+        <v>21541375931513.88</v>
       </c>
       <c r="E192" t="n">
-        <v>1.686681946981717e-05</v>
+        <v>15772043487224.39</v>
       </c>
       <c r="F192" t="n">
-        <v>3.168508908282004e-05</v>
+        <v>29044168456392.01</v>
       </c>
       <c r="G192" t="n">
-        <v>4.055672448268588e-05</v>
+        <v>37643797141778.35</v>
       </c>
       <c r="H192" t="n">
-        <v>8.116249116440898</v>
+        <v>4.719491689119806</v>
       </c>
       <c r="I192" t="n">
-        <v>0.08741146868359712</v>
+        <v>0.3173085879826165</v>
       </c>
       <c r="J192" t="n">
-        <v>2.029062279110224</v>
+        <v>1.179872922279952</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0006324374409487314</v>
+        <v>590590245812690.1</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0001300672109984553</v>
+        <v>139884312697040.7</v>
       </c>
       <c r="D193" t="n">
-        <v>6.913076927506155e-05</v>
+        <v>29987274408162.75</v>
       </c>
       <c r="E193" t="n">
-        <v>1.446154510996787e-05</v>
+        <v>13425876053638.07</v>
       </c>
       <c r="F193" t="n">
-        <v>2.679536798586771e-05</v>
+        <v>24926838631178.17</v>
       </c>
       <c r="G193" t="n">
-        <v>3.429920282786534e-05</v>
+        <v>31867028579835.29</v>
       </c>
       <c r="H193" t="n">
-        <v>5.761837704027361</v>
+        <v>4.238883362222951</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2176543752655591</v>
+        <v>0.3746407756711529</v>
       </c>
       <c r="J193" t="n">
-        <v>1.44045942600684</v>
+        <v>1.059720840555738</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004651002747750747</v>
+        <v>435101575944067.9</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001173707946787238</v>
+        <v>127612621739548.2</v>
       </c>
       <c r="D194" t="n">
-        <v>3.361552725113573e-05</v>
+        <v>-694284344613</v>
       </c>
       <c r="E194" t="n">
-        <v>1.109826244420523e-05</v>
+        <v>10259183503305.45</v>
       </c>
       <c r="F194" t="n">
-        <v>2.039709360495916e-05</v>
+        <v>19126505952211.63</v>
       </c>
       <c r="G194" t="n">
-        <v>2.61119352269397e-05</v>
+        <v>24269332730698.56</v>
       </c>
       <c r="H194" t="n">
-        <v>5.265488648418261</v>
+        <v>0.5512045336887588</v>
       </c>
       <c r="I194" t="n">
-        <v>0.2611250286502723</v>
+        <v>0.9683285543808791</v>
       </c>
       <c r="J194" t="n">
-        <v>1.316372162104565</v>
+        <v>0.1378011334221897</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0004799837591596374</v>
+        <v>449985394570093.5</v>
       </c>
       <c r="C195" t="n">
-        <v>9.898256914101346e-05</v>
+        <v>116055032221962.4</v>
       </c>
       <c r="D195" t="n">
-        <v>6.256599789117117e-05</v>
+        <v>14787627479236</v>
       </c>
       <c r="E195" t="n">
-        <v>1.103410625682048e-05</v>
+        <v>10296735143251.23</v>
       </c>
       <c r="F195" t="n">
-        <v>2.069423361921246e-05</v>
+        <v>19029728794999.03</v>
       </c>
       <c r="G195" t="n">
-        <v>2.61789067030901e-05</v>
+        <v>24296460025677.91</v>
       </c>
       <c r="H195" t="n">
-        <v>6.188930540782474</v>
+        <v>3.395903920048507</v>
       </c>
       <c r="I195" t="n">
-        <v>0.1854761191952952</v>
+        <v>0.4938818264270843</v>
       </c>
       <c r="J195" t="n">
-        <v>1.547232635195618</v>
+        <v>0.8489759800121268</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.000323596511585794</v>
+        <v>302369826377690.1</v>
       </c>
       <c r="C196" t="n">
-        <v>6.1955772575919e-05</v>
+        <v>69217592940509.61</v>
       </c>
       <c r="D196" t="n">
-        <v>3.875751703888306e-05</v>
+        <v>15287829733281.31</v>
       </c>
       <c r="E196" t="n">
-        <v>7.625879251775777e-06</v>
+        <v>7062510555376.966</v>
       </c>
       <c r="F196" t="n">
-        <v>1.403848442863997e-05</v>
+        <v>13141050190343.99</v>
       </c>
       <c r="G196" t="n">
-        <v>1.800271485441511e-05</v>
+        <v>16737497237543.81</v>
       </c>
       <c r="H196" t="n">
-        <v>5.706469349940521</v>
+        <v>4.434631118472376</v>
       </c>
       <c r="I196" t="n">
-        <v>0.2221679383363439</v>
+        <v>0.3503690593929486</v>
       </c>
       <c r="J196" t="n">
-        <v>1.42661733748513</v>
+        <v>1.108657779618094</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001995063779418909</v>
+        <v>186485446504874.4</v>
       </c>
       <c r="C197" t="n">
-        <v>3.852644050234161e-05</v>
+        <v>45263403371088</v>
       </c>
       <c r="D197" t="n">
-        <v>8.440516255664486e-06</v>
+        <v>-7215186652783.219</v>
       </c>
       <c r="E197" t="n">
-        <v>5.08263341418064e-06</v>
+        <v>4671164075322.326</v>
       </c>
       <c r="F197" t="n">
-        <v>9.143653954970152e-06</v>
+        <v>8699086977454.365</v>
       </c>
       <c r="G197" t="n">
-        <v>1.161645518179972e-05</v>
+        <v>10815020129013.54</v>
       </c>
       <c r="H197" t="n">
-        <v>5.097207024230146</v>
+        <v>0.3000632067687735</v>
       </c>
       <c r="I197" t="n">
-        <v>0.2774680845918389</v>
+        <v>0.9898100923307189</v>
       </c>
       <c r="J197" t="n">
-        <v>1.274301756057536</v>
+        <v>0.07501580169219337</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002016900827205353</v>
+        <v>187803700703165.9</v>
       </c>
       <c r="C198" t="n">
-        <v>3.588143781274166e-05</v>
+        <v>37963495039569.53</v>
       </c>
       <c r="D198" t="n">
-        <v>1.417751701235869e-05</v>
+        <v>5716236554143.125</v>
       </c>
       <c r="E198" t="n">
-        <v>4.965359194030042e-06</v>
+        <v>4557715766580.511</v>
       </c>
       <c r="F198" t="n">
-        <v>8.941512612878633e-06</v>
+        <v>8558829001650.439</v>
       </c>
       <c r="G198" t="n">
-        <v>1.143793980356034e-05</v>
+        <v>10662776150197.41</v>
       </c>
       <c r="H198" t="n">
-        <v>2.630354383871318</v>
+        <v>1.46099700990756</v>
       </c>
       <c r="I198" t="n">
-        <v>0.6214555031238278</v>
+        <v>0.8335271658676278</v>
       </c>
       <c r="J198" t="n">
-        <v>0.6575885959678296</v>
+        <v>0.3652492524768899</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000152128640339068</v>
+        <v>141816109001455.4</v>
       </c>
       <c r="C199" t="n">
-        <v>2.332715077739018e-05</v>
+        <v>27688736556952.78</v>
       </c>
       <c r="D199" t="n">
-        <v>1.889424840601672e-06</v>
+        <v>-7295734015785.844</v>
       </c>
       <c r="E199" t="n">
-        <v>3.923327510089129e-06</v>
+        <v>3593811353192.456</v>
       </c>
       <c r="F199" t="n">
-        <v>6.964863820444497e-06</v>
+        <v>6695799683706.7</v>
       </c>
       <c r="G199" t="n">
-        <v>8.837647553404455e-06</v>
+        <v>8241397424601.625</v>
       </c>
       <c r="H199" t="n">
-        <v>4.285186502748607</v>
+        <v>0.647186151638521</v>
       </c>
       <c r="I199" t="n">
-        <v>0.3687837256691844</v>
+        <v>0.9576786362140638</v>
       </c>
       <c r="J199" t="n">
-        <v>1.071296625687152</v>
+        <v>0.1617965379096303</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0001443806652850121</v>
+        <v>134166824303271.2</v>
       </c>
       <c r="C200" t="n">
-        <v>2.470814748583509e-05</v>
+        <v>24226827576367.27</v>
       </c>
       <c r="D200" t="n">
-        <v>1.143958261649508e-05</v>
+        <v>8698129968028.438</v>
       </c>
       <c r="E200" t="n">
-        <v>3.615308381154529e-06</v>
+        <v>3302464012432.287</v>
       </c>
       <c r="F200" t="n">
-        <v>6.455389897275689e-06</v>
+        <v>6280687217266.782</v>
       </c>
       <c r="G200" t="n">
-        <v>8.282335516463631e-06</v>
+        <v>7740209372737.128</v>
       </c>
       <c r="H200" t="n">
-        <v>2.41152965059677</v>
+        <v>2.215401516900541</v>
       </c>
       <c r="I200" t="n">
-        <v>0.660544676425793</v>
+        <v>0.6962105896742772</v>
       </c>
       <c r="J200" t="n">
-        <v>0.6028824126491926</v>
+        <v>0.5538503792251352</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001353433368086314</v>
+        <v>126056731800219</v>
       </c>
       <c r="C201" t="n">
-        <v>2.332579514278596e-05</v>
+        <v>25897863488763.21</v>
       </c>
       <c r="D201" t="n">
-        <v>3.521899569302629e-06</v>
+        <v>-3166640311227.719</v>
       </c>
       <c r="E201" t="n">
-        <v>3.40486030946515e-06</v>
+        <v>3119157161294.838</v>
       </c>
       <c r="F201" t="n">
-        <v>6.068629746656149e-06</v>
+        <v>5824026585485.46</v>
       </c>
       <c r="G201" t="n">
-        <v>7.742327889026921e-06</v>
+        <v>7215889438281.593</v>
       </c>
       <c r="H201" t="n">
-        <v>3.507727928063415</v>
+        <v>0.7840682593049201</v>
       </c>
       <c r="I201" t="n">
-        <v>0.4767042693679959</v>
+        <v>0.9405710862676681</v>
       </c>
       <c r="J201" t="n">
-        <v>0.8769319820158538</v>
+        <v>0.19601706482623</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002271618673591836</v>
+        <v>212739753938484.6</v>
       </c>
       <c r="C202" t="n">
-        <v>3.970196613031119e-05</v>
+        <v>49271850479065.78</v>
       </c>
       <c r="D202" t="n">
-        <v>1.622080534861793e-05</v>
+        <v>-5242140953683.188</v>
       </c>
       <c r="E202" t="n">
-        <v>5.786552361368406e-06</v>
+        <v>5336907404315.811</v>
       </c>
       <c r="F202" t="n">
-        <v>1.047695345661749e-05</v>
+        <v>9900236396272.145</v>
       </c>
       <c r="G202" t="n">
-        <v>1.327083452737739e-05</v>
+        <v>12350554165580.68</v>
       </c>
       <c r="H202" t="n">
-        <v>5.255930653203277</v>
+        <v>0.9719808649597523</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2620307668054148</v>
+        <v>0.9140144256699122</v>
       </c>
       <c r="J202" t="n">
-        <v>1.313982663300819</v>
+        <v>0.2429952162399381</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0001759104720207768</v>
+        <v>164277810827545.2</v>
       </c>
       <c r="C203" t="n">
-        <v>3.476097557685525e-05</v>
+        <v>37822122640034.56</v>
       </c>
       <c r="D203" t="n">
-        <v>1.430072497137121e-05</v>
+        <v>3634881122998.969</v>
       </c>
       <c r="E203" t="n">
-        <v>4.120987387064062e-06</v>
+        <v>3816643613235.932</v>
       </c>
       <c r="F203" t="n">
-        <v>7.564844217406225e-06</v>
+        <v>7073351415571.024</v>
       </c>
       <c r="G203" t="n">
-        <v>9.693487175863675e-06</v>
+        <v>9009229524252.709</v>
       </c>
       <c r="H203" t="n">
-        <v>5.514465502568375</v>
+        <v>3.241591976719193</v>
       </c>
       <c r="I203" t="n">
-        <v>0.2384608733278347</v>
+        <v>0.5182394398771261</v>
       </c>
       <c r="J203" t="n">
-        <v>1.378616375642094</v>
+        <v>0.8103979941797982</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002766682990923271</v>
+        <v>258291094477559.7</v>
       </c>
       <c r="C204" t="n">
-        <v>4.777460295173557e-05</v>
+        <v>54333672915271.61</v>
       </c>
       <c r="D204" t="n">
-        <v>2.412575492206166e-05</v>
+        <v>5954796137315</v>
       </c>
       <c r="E204" t="n">
-        <v>6.967085187918751e-06</v>
+        <v>6412575400334.952</v>
       </c>
       <c r="F204" t="n">
-        <v>1.25900043027674e-05</v>
+        <v>11962333878898.95</v>
       </c>
       <c r="G204" t="n">
-        <v>1.60334047500888e-05</v>
+        <v>14930336172953.35</v>
       </c>
       <c r="H204" t="n">
-        <v>2.612344583359667</v>
+        <v>0.9330177682073494</v>
       </c>
       <c r="I204" t="n">
-        <v>0.6246378993967302</v>
+        <v>0.919776827974207</v>
       </c>
       <c r="J204" t="n">
-        <v>0.6530861458399169</v>
+        <v>0.2332544420518373</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002628376208242592</v>
+        <v>245245972670688.8</v>
       </c>
       <c r="C205" t="n">
-        <v>4.712884047888187e-05</v>
+        <v>52753042537979.73</v>
       </c>
       <c r="D205" t="n">
-        <v>1.859048925512347e-05</v>
+        <v>2670261894746.75</v>
       </c>
       <c r="E205" t="n">
-        <v>6.619302795325116e-06</v>
+        <v>6087374490907.386</v>
       </c>
       <c r="F205" t="n">
-        <v>1.194068306327658e-05</v>
+        <v>11361512327139.19</v>
       </c>
       <c r="G205" t="n">
-        <v>1.522073865657064e-05</v>
+        <v>14175769545813.76</v>
       </c>
       <c r="H205" t="n">
-        <v>2.99568606015193</v>
+        <v>0.9085045538654547</v>
       </c>
       <c r="I205" t="n">
-        <v>0.5585475872803929</v>
+        <v>0.9233375447151411</v>
       </c>
       <c r="J205" t="n">
-        <v>0.7489215150379824</v>
+        <v>0.2271261384663637</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002523913228537872</v>
+        <v>235574505469787.3</v>
       </c>
       <c r="C206" t="n">
-        <v>4.974702712956376e-05</v>
+        <v>55350247166499.3</v>
       </c>
       <c r="D206" t="n">
-        <v>1.503999789856668e-05</v>
+        <v>-878753596109.875</v>
       </c>
       <c r="E206" t="n">
-        <v>6.436796949769317e-06</v>
+        <v>5913539389506.283</v>
       </c>
       <c r="F206" t="n">
-        <v>1.156708958046814e-05</v>
+        <v>11005654766419.48</v>
       </c>
       <c r="G206" t="n">
-        <v>1.488836992072012e-05</v>
+        <v>13857956190834.6</v>
       </c>
       <c r="H206" t="n">
-        <v>4.930375115668304</v>
+        <v>2.089300335115794</v>
       </c>
       <c r="I206" t="n">
-        <v>0.2945163388650948</v>
+        <v>0.7193383412965748</v>
       </c>
       <c r="J206" t="n">
-        <v>1.232593778917076</v>
+        <v>0.5223250837789486</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002499664822982917</v>
+        <v>232971957778017.2</v>
       </c>
       <c r="C207" t="n">
-        <v>5.347573673442012e-05</v>
+        <v>56899868447560.58</v>
       </c>
       <c r="D207" t="n">
-        <v>1.448823119193577e-05</v>
+        <v>1792084330527.75</v>
       </c>
       <c r="E207" t="n">
-        <v>6.347940908233775e-06</v>
+        <v>5819733668236.115</v>
       </c>
       <c r="F207" t="n">
-        <v>1.138477727065649e-05</v>
+        <v>10867861251189.1</v>
       </c>
       <c r="G207" t="n">
-        <v>1.477924861382811e-05</v>
+        <v>13756558111854.6</v>
       </c>
       <c r="H207" t="n">
-        <v>5.480273095240388</v>
+        <v>3.167564059494531</v>
       </c>
       <c r="I207" t="n">
-        <v>0.2414689400473121</v>
+        <v>0.530185782309969</v>
       </c>
       <c r="J207" t="n">
-        <v>1.370068273810097</v>
+        <v>0.7918910148736327</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002434515212549926</v>
+        <v>227823178615604.4</v>
       </c>
       <c r="C208" t="n">
-        <v>4.09422096102841e-05</v>
+        <v>49780140134543.16</v>
       </c>
       <c r="D208" t="n">
-        <v>1.947760292723424e-05</v>
+        <v>-1256967936037.062</v>
       </c>
       <c r="E208" t="n">
-        <v>6.252251736096539e-06</v>
+        <v>5765132011798.405</v>
       </c>
       <c r="F208" t="n">
-        <v>1.129158830681487e-05</v>
+        <v>10676730980752.76</v>
       </c>
       <c r="G208" t="n">
-        <v>1.433568536744192e-05</v>
+        <v>13341619531923.96</v>
       </c>
       <c r="H208" t="n">
-        <v>3.403898168734116</v>
+        <v>0.4529400537212058</v>
       </c>
       <c r="I208" t="n">
-        <v>0.4926404463890927</v>
+        <v>0.9779175860039409</v>
       </c>
       <c r="J208" t="n">
-        <v>0.850974542183529</v>
+        <v>0.1132350134303015</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002309700224348668</v>
+        <v>216151328816244.1</v>
       </c>
       <c r="C209" t="n">
-        <v>4.240936618947485e-05</v>
+        <v>49466142312416.33</v>
       </c>
       <c r="D209" t="n">
-        <v>1.22570933136733e-05</v>
+        <v>-5441156148488.125</v>
       </c>
       <c r="E209" t="n">
-        <v>5.5137817293881e-06</v>
+        <v>5110731721018.169</v>
       </c>
       <c r="F209" t="n">
-        <v>1.008409766413037e-05</v>
+        <v>9412348409811.842</v>
       </c>
       <c r="G209" t="n">
-        <v>1.272458006041952e-05</v>
+        <v>11824936285719.61</v>
       </c>
       <c r="H209" t="n">
-        <v>4.819941141447</v>
+        <v>0.3902006345698668</v>
       </c>
       <c r="I209" t="n">
-        <v>0.306276524656127</v>
+        <v>0.9832713168591578</v>
       </c>
       <c r="J209" t="n">
-        <v>1.20498528536175</v>
+        <v>0.0975501586424667</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002342281548205718</v>
+        <v>218828870823395.8</v>
       </c>
       <c r="C210" t="n">
-        <v>3.740656704751016e-05</v>
+        <v>44015288308785</v>
       </c>
       <c r="D210" t="n">
-        <v>1.933393340137362e-05</v>
+        <v>2682575225838.75</v>
       </c>
       <c r="E210" t="n">
-        <v>5.905212740884756e-06</v>
+        <v>5446813688151.322</v>
       </c>
       <c r="F210" t="n">
-        <v>1.069099640410809e-05</v>
+        <v>10102594885098.93</v>
       </c>
       <c r="G210" t="n">
-        <v>1.352452220384383e-05</v>
+        <v>12586210651887.36</v>
       </c>
       <c r="H210" t="n">
-        <v>2.28302512113112</v>
+        <v>0.3774808062679511</v>
       </c>
       <c r="I210" t="n">
-        <v>0.6838612880338254</v>
+        <v>0.9842787481928233</v>
       </c>
       <c r="J210" t="n">
-        <v>0.57075628028278</v>
+        <v>0.09437020156698778</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001380192483883197</v>
+        <v>129023309767179.3</v>
       </c>
       <c r="C211" t="n">
-        <v>2.835397715168947e-05</v>
+        <v>31706857881467.04</v>
       </c>
       <c r="D211" t="n">
-        <v>1.111642525091587e-05</v>
+        <v>1184760316021.062</v>
       </c>
       <c r="E211" t="n">
-        <v>3.359864740650542e-06</v>
+        <v>3102438820410.233</v>
       </c>
       <c r="F211" t="n">
-        <v>6.11933953703887e-06</v>
+        <v>5757893261807.895</v>
       </c>
       <c r="G211" t="n">
-        <v>7.849466223689987e-06</v>
+        <v>7299112314902.488</v>
       </c>
       <c r="H211" t="n">
-        <v>4.696430018015614</v>
+        <v>1.63275931417573</v>
       </c>
       <c r="I211" t="n">
-        <v>0.3198869463366667</v>
+        <v>0.8028925887094447</v>
       </c>
       <c r="J211" t="n">
-        <v>1.174107504503904</v>
+        <v>0.4081898285439326</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>6.049833045594503e-05</v>
+        <v>56579370072237.13</v>
       </c>
       <c r="C212" t="n">
-        <v>9.730321792817426e-06</v>
+        <v>12560323022448.42</v>
       </c>
       <c r="D212" t="n">
-        <v>4.806507028715042e-06</v>
+        <v>-974054204694.8125</v>
       </c>
       <c r="E212" t="n">
-        <v>1.77828878752633e-06</v>
+        <v>1620550978322.688</v>
       </c>
       <c r="F212" t="n">
-        <v>3.134480229180882e-06</v>
+        <v>3052387118013.112</v>
       </c>
       <c r="G212" t="n">
-        <v>3.987348302766706e-06</v>
+        <v>3722712760213.297</v>
       </c>
       <c r="H212" t="n">
-        <v>3.402700250404435</v>
+        <v>0.6258103134058766</v>
       </c>
       <c r="I212" t="n">
-        <v>0.4928263339449479</v>
+        <v>0.9601528407930906</v>
       </c>
       <c r="J212" t="n">
-        <v>0.8506750626011088</v>
+        <v>0.1564525783514691</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.908058341291929e-05</v>
+        <v>36351232686918.77</v>
       </c>
       <c r="C213" t="n">
-        <v>3.376114394816143e-06</v>
+        <v>4664946965852.027</v>
       </c>
       <c r="D213" t="n">
-        <v>8.750212470241402e-08</v>
+        <v>-1985846376602.102</v>
       </c>
       <c r="E213" t="n">
-        <v>1.288567032569191e-06</v>
+        <v>1156406122123.611</v>
       </c>
       <c r="F213" t="n">
-        <v>2.178490447754449e-06</v>
+        <v>2202218770919.096</v>
       </c>
       <c r="G213" t="n">
-        <v>2.802205227423736e-06</v>
+        <v>2628254211025.364</v>
       </c>
       <c r="H213" t="n">
-        <v>2.137895454237853</v>
+        <v>0.6437815447325554</v>
       </c>
       <c r="I213" t="n">
-        <v>0.7104138485480638</v>
+        <v>0.9580764932608808</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5344738635594631</v>
+        <v>0.1609453861831389</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>5.452532710797551e-05</v>
+        <v>50898374508371.69</v>
       </c>
       <c r="C214" t="n">
-        <v>9.070578468654382e-06</v>
+        <v>10618597281658.59</v>
       </c>
       <c r="D214" t="n">
-        <v>5.093202100859147e-06</v>
+        <v>1204439986298.062</v>
       </c>
       <c r="E214" t="n">
-        <v>1.511979760704522e-06</v>
+        <v>1377148766229.61</v>
       </c>
       <c r="F214" t="n">
-        <v>2.668190308077349e-06</v>
+        <v>2603264475857.571</v>
       </c>
       <c r="G214" t="n">
-        <v>3.4427002380784e-06</v>
+        <v>3216458033615.98</v>
       </c>
       <c r="H214" t="n">
-        <v>2.904290225873204</v>
+        <v>1.551149081889527</v>
       </c>
       <c r="I214" t="n">
-        <v>0.573967838250323</v>
+        <v>0.8175440569634949</v>
       </c>
       <c r="J214" t="n">
-        <v>0.726072556468301</v>
+        <v>0.3877872704723817</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>3.415019850698269e-05</v>
+        <v>32013975171207.22</v>
       </c>
       <c r="C215" t="n">
-        <v>3.319284733496177e-06</v>
+        <v>5406978524985.078</v>
       </c>
       <c r="D215" t="n">
-        <v>2.802735323585846e-06</v>
+        <v>-966764193297.2734</v>
       </c>
       <c r="E215" t="n">
-        <v>1.082075747047993e-06</v>
+        <v>981774427013.465</v>
       </c>
       <c r="F215" t="n">
-        <v>1.876856262575044e-06</v>
+        <v>1851085966838.356</v>
       </c>
       <c r="G215" t="n">
-        <v>2.393755770082681e-06</v>
+        <v>2239333525197.886</v>
       </c>
       <c r="H215" t="n">
-        <v>4.571417306832096</v>
+        <v>2.782828602307229</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3341630268589853</v>
+        <v>0.5948004234806172</v>
       </c>
       <c r="J215" t="n">
-        <v>1.142854326708024</v>
+        <v>0.6957071505768072</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.663972797194945e-05</v>
+        <v>24750216240650.18</v>
       </c>
       <c r="C216" t="n">
-        <v>2.819037255775953e-06</v>
+        <v>2569454258306.723</v>
       </c>
       <c r="D216" t="n">
-        <v>1.697622841501648e-06</v>
+        <v>1634313265681.648</v>
       </c>
       <c r="E216" t="n">
-        <v>9.207805942691743e-07</v>
+        <v>826630606593.3401</v>
       </c>
       <c r="F216" t="n">
-        <v>1.570612342992688e-06</v>
+        <v>1598235468097.333</v>
       </c>
       <c r="G216" t="n">
-        <v>2.020783174897567e-06</v>
+        <v>1899297446783.537</v>
       </c>
       <c r="H216" t="n">
-        <v>0.6568852665643282</v>
+        <v>0.6557041173941373</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9565374577836944</v>
+        <v>0.956677040304047</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1642213166410821</v>
+        <v>0.1639260293485343</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>2.327815611840813e-05</v>
+        <v>21531201416699.08</v>
       </c>
       <c r="C217" t="n">
-        <v>1.45347954926678e-06</v>
+        <v>1856242767554.703</v>
       </c>
       <c r="D217" t="n">
-        <v>-5.807754219282373e-07</v>
+        <v>-1043371263159.723</v>
       </c>
       <c r="E217" t="n">
-        <v>8.11300161171087e-07</v>
+        <v>720040673926.2271</v>
       </c>
       <c r="F217" t="n">
-        <v>1.333561608524497e-06</v>
+        <v>1417997078040.063</v>
       </c>
       <c r="G217" t="n">
-        <v>1.700496152415011e-06</v>
+        <v>1615292034353.439</v>
       </c>
       <c r="H217" t="n">
-        <v>1.602523550830442</v>
+        <v>1.105533811396206</v>
       </c>
       <c r="I217" t="n">
-        <v>0.8083385022625652</v>
+        <v>0.8933932140714722</v>
       </c>
       <c r="J217" t="n">
-        <v>0.4006308877076104</v>
+        <v>0.2763834528490515</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>2.147164096995571e-05</v>
+        <v>20070521729201.61</v>
       </c>
       <c r="C218" t="n">
-        <v>4.088453933394426e-07</v>
+        <v>538021621779.5977</v>
       </c>
       <c r="D218" t="n">
-        <v>2.010444212987807e-06</v>
+        <v>1473062775419.141</v>
       </c>
       <c r="E218" t="n">
-        <v>7.979713419754361e-07</v>
+        <v>713632337440.0046</v>
       </c>
       <c r="F218" t="n">
-        <v>1.34591378387265e-06</v>
+        <v>1360404627224.472</v>
       </c>
       <c r="G218" t="n">
-        <v>1.767869514927165e-06</v>
+        <v>1654890194178.967</v>
       </c>
       <c r="H218" t="n">
-        <v>8.120422434734298</v>
+        <v>8.467947821994459</v>
       </c>
       <c r="I218" t="n">
-        <v>0.08726524613381409</v>
+        <v>0.0758647528761159</v>
       </c>
       <c r="J218" t="n">
-        <v>2.030105608683574</v>
+        <v>2.116986955498615</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.08598680768509e-05</v>
+        <v>19597799198428.11</v>
       </c>
       <c r="C219" t="n">
-        <v>2.295734612233444e-07</v>
+        <v>142228824980.8887</v>
       </c>
       <c r="D219" t="n">
-        <v>3.178942810955835e-06</v>
+        <v>2707007235084.508</v>
       </c>
       <c r="E219" t="n">
-        <v>7.864597343684813e-07</v>
+        <v>708535609688.0934</v>
       </c>
       <c r="F219" t="n">
-        <v>1.327367390561608e-06</v>
+        <v>1386421708937.961</v>
       </c>
       <c r="G219" t="n">
-        <v>1.691224075712582e-06</v>
+        <v>1606175306471.032</v>
       </c>
       <c r="H219" t="n">
-        <v>4.748134868551835</v>
+        <v>5.266302272067633</v>
       </c>
       <c r="I219" t="n">
-        <v>0.3141299692500977</v>
+        <v>0.2610480516229145</v>
       </c>
       <c r="J219" t="n">
-        <v>1.187033717137959</v>
+        <v>1.316575568016908</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>2.574043296857423e-05</v>
+        <v>23825441265634.2</v>
       </c>
       <c r="C220" t="n">
-        <v>1.21814108432688e-06</v>
+        <v>667475524117.3516</v>
       </c>
       <c r="D220" t="n">
-        <v>-6.470448347089934e-08</v>
+        <v>669573865630</v>
       </c>
       <c r="E220" t="n">
-        <v>9.20685332665641e-07</v>
+        <v>818872652064.3329</v>
       </c>
       <c r="F220" t="n">
-        <v>1.529017766567864e-06</v>
+        <v>1604146576236.093</v>
       </c>
       <c r="G220" t="n">
-        <v>1.970124858170311e-06</v>
+        <v>1863418587892.387</v>
       </c>
       <c r="H220" t="n">
-        <v>1.889149038156134</v>
+        <v>1.961740222917191</v>
       </c>
       <c r="I220" t="n">
-        <v>0.7561380435399729</v>
+        <v>0.7427959416884302</v>
       </c>
       <c r="J220" t="n">
-        <v>0.4722872595390335</v>
+        <v>0.4904350557292978</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>2.559400661006807e-05</v>
+        <v>23833664531125.26</v>
       </c>
       <c r="C221" t="n">
-        <v>2.458839942190764e-06</v>
+        <v>2714037269902.133</v>
       </c>
       <c r="D221" t="n">
-        <v>1.79821797317192e-06</v>
+        <v>1013873891351.258</v>
       </c>
       <c r="E221" t="n">
-        <v>9.388251464084269e-07</v>
+        <v>838044962370.4185</v>
       </c>
       <c r="F221" t="n">
-        <v>1.574969041328113e-06</v>
+        <v>1628446795121.667</v>
       </c>
       <c r="G221" t="n">
-        <v>2.029941344537498e-06</v>
+        <v>1911376504993.591</v>
       </c>
       <c r="H221" t="n">
-        <v>0.6272053389297646</v>
+        <v>0.6139628970389089</v>
       </c>
       <c r="I221" t="n">
-        <v>0.959993104291183</v>
+        <v>0.96149952505225</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1568013347324411</v>
+        <v>0.1534907242597272</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>2.884235041808614e-05</v>
+        <v>26604553411862.84</v>
       </c>
       <c r="C222" t="n">
-        <v>4.857226888552018e-06</v>
+        <v>4119712364051.312</v>
       </c>
       <c r="D222" t="n">
-        <v>5.774899975124321e-07</v>
+        <v>1371867266452.07</v>
       </c>
       <c r="E222" t="n">
-        <v>8.962595007224503e-07</v>
+        <v>796490869623.9098</v>
       </c>
       <c r="F222" t="n">
-        <v>1.511547901594177e-06</v>
+        <v>1565428764155.245</v>
       </c>
       <c r="G222" t="n">
-        <v>1.974401248891722e-06</v>
+        <v>1857888289273.699</v>
       </c>
       <c r="H222" t="n">
-        <v>1.846370532038806</v>
+        <v>2.460643116580964</v>
       </c>
       <c r="I222" t="n">
-        <v>0.7639885614363912</v>
+        <v>0.6516968451102381</v>
       </c>
       <c r="J222" t="n">
-        <v>0.4615926330097015</v>
+        <v>0.615160779145241</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>3.3164831435499e-05</v>
+        <v>30701444194480.7</v>
       </c>
       <c r="C223" t="n">
-        <v>4.358036421369939e-06</v>
+        <v>3981810126003.324</v>
       </c>
       <c r="D223" t="n">
-        <v>9.03030841448659e-07</v>
+        <v>1095093570244.156</v>
       </c>
       <c r="E223" t="n">
-        <v>1.040185270062815e-06</v>
+        <v>930256500349.9475</v>
       </c>
       <c r="F223" t="n">
-        <v>1.761853070267536e-06</v>
+        <v>1797241995383.975</v>
       </c>
       <c r="G223" t="n">
-        <v>2.298457090987234e-06</v>
+        <v>2159049052828.115</v>
       </c>
       <c r="H223" t="n">
-        <v>1.132448317363252</v>
+        <v>1.254027446352838</v>
       </c>
       <c r="I223" t="n">
-        <v>0.8890903385752584</v>
+        <v>0.8691257476550205</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2831120793408131</v>
+        <v>0.3135068615882096</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
+++ b/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7106 +415,7042 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>7721386813473.623</v>
+        <v>8.819466890209767e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1721065411293.807</v>
+        <v>1.965822955928256e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-885211000593.4023</v>
+        <v>-1.011099360408696e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>239236038712.9319</v>
+        <v>2.732584666044602e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>425695175217.4877</v>
+        <v>4.862344796391519e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>539962092616.8679</v>
+        <v>6.16751615959532e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>11.25651258587885</v>
+        <v>11.25651249028386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0238275089888393</v>
+        <v>0.02382750995591031</v>
       </c>
       <c r="J2" t="n">
-        <v>2.814128146469713</v>
+        <v>2.814128122570965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>11994793614376.07</v>
+        <v>1.37006068424099e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>2296024469342.713</v>
+        <v>2.622548520114293e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-2876493866819.469</v>
+        <v>-3.285568123311277e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>365106760435.7393</v>
+        <v>4.170296168476945e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>650634221231.104</v>
+        <v>7.431627382164446e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>808835416782.1696</v>
+        <v>9.238621701072212e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>3.448992090387997</v>
+        <v>3.448992000048736</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4856764722443805</v>
+        <v>0.4856764861301395</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8622480225969992</v>
+        <v>0.862248000012184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>14325514672425.17</v>
+        <v>1.636278628159607e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3105785382029.143</v>
+        <v>3.547467821008337e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>-3225235173265.746</v>
+        <v>-3.683904911326846e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>416588675094.7449</v>
+        <v>4.758329176442646e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>726070441030.3999</v>
+        <v>8.293269530961457e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>916805355093.6602</v>
+        <v>1.047186813531235e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>7.558296929462346</v>
+        <v>7.558296833180913</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1091659497740987</v>
+        <v>0.1091659539297891</v>
       </c>
       <c r="J4" t="n">
-        <v>1.889574232365586</v>
+        <v>1.889574208295228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>20152150038701.33</v>
+        <v>2.301804380779223e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1380579070444.877</v>
+        <v>1.576915107758914e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-1591599792314.215</v>
+        <v>-1.817945701566495e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>550163154280.5787</v>
+        <v>6.284033987358383e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>997121070379.1755</v>
+        <v>1.138924453966872e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1200704894519.977</v>
+        <v>1.371460505197657e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>2.734367889676976</v>
+        <v>2.734367980243658</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6032142098632453</v>
+        <v>0.6032141940869522</v>
       </c>
       <c r="J5" t="n">
-        <v>0.683591972419244</v>
+        <v>0.6835919950609144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>21517745256050.07</v>
+        <v>2.457784414984172e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1061643325152.799</v>
+        <v>1.212622591932139e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>-3260613458458.797</v>
+        <v>-3.72431443458369e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>613206389594.0001</v>
+        <v>7.004121895482014e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>1093229225583.376</v>
+        <v>1.248700417635405e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1320746848587.003</v>
+        <v>1.508573960429631e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>3.992791301822914</v>
+        <v>3.992791149730365</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4069823200112702</v>
+        <v>0.4069823406318539</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9981978254557285</v>
+        <v>0.9981977874325914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>21671025141120.91</v>
+        <v>2.475292241020945e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1321970416614.66</v>
+        <v>1.509971499645093e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>-1286493896500.008</v>
+        <v>-1.469449802705996e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>616319582356.4357</v>
+        <v>7.039681190690511e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>1133811243143.098</v>
+        <v>1.295053719070719e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>1341156463373.154</v>
+        <v>1.531886085868667e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.915680736936959</v>
+        <v>1.915680705514931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7512638513734603</v>
+        <v>0.7512638571479361</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4789201842342397</v>
+        <v>0.4789201763787327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>24795634391420.55</v>
+        <v>2.832189109232445e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1901501900699.396</v>
+        <v>2.171919788030598e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>-2804787723310.758</v>
+        <v>-3.203664450060798e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>644437813168.057</v>
+        <v>7.360851201077147e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>1150726620530.772</v>
+        <v>1.314374678199171e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>1408605798551.91</v>
+        <v>1.608927577085934e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>3.787133888224095</v>
+        <v>3.787133847433738</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4355799287151366</v>
+        <v>0.4355799345287011</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9467834720560239</v>
+        <v>0.9467834618584344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>24307513087251.76</v>
+        <v>2.776435269531485e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>513983605398.0059</v>
+        <v>5.870786532002515e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>-1483498016047.98</v>
+        <v>-1.694470456051944e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>616762311806.2173</v>
+        <v>7.044738091859971e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>1114019451272.801</v>
+        <v>1.272447280614859e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>1333247359262.285</v>
+        <v>1.522852205178405e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.522138016353012</v>
+        <v>1.522137901191505</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8227128937046537</v>
+        <v>0.8227129141772682</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3805345040882531</v>
+        <v>0.3805344752978762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>22189333396202.77</v>
+        <v>2.534494073666331e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>527431249730.1641</v>
+        <v>6.024387240092926e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>-1104091825879.75</v>
+        <v>-1.261107833346114e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>610847826935.4426</v>
+        <v>6.977182087472301e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>1115238287775.408</v>
+        <v>1.27383945194261e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>1318938055046.286</v>
+        <v>1.506507934033903e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>6.121485371631588</v>
+        <v>6.121485361839274</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1902575113799557</v>
+        <v>0.1902575120820872</v>
       </c>
       <c r="J10" t="n">
-        <v>1.530371342907897</v>
+        <v>1.530371340459818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>22066215508454.26</v>
+        <v>2.520431388860458e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1024584501945.609</v>
+        <v>1.170293521504988e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>-3031593867110.707</v>
+        <v>-3.462725327284279e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>609796139766.0254</v>
+        <v>6.965169590460649e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>1095409504563.146</v>
+        <v>1.251190761541821e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>1308237720891.139</v>
+        <v>1.49428587582644e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>2.806079707759642</v>
+        <v>2.806079669227294</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5907837036648138</v>
+        <v>0.5907837103103959</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7015199269399105</v>
+        <v>0.7015199173068234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>18880247321605.98</v>
+        <v>2.156526024838602e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>201866679075.7227</v>
+        <v>2.305746843495934e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>-1047267522926.895</v>
+        <v>-1.196202366437836e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>514436201284.6808</v>
+        <v>5.875956156724549e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>932427623486.6992</v>
+        <v>1.065030769949175e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>1109653234223.241</v>
+        <v>1.267460132261417e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>4.469298032934616</v>
+        <v>4.469297980002493</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3462034779970451</v>
+        <v>0.3462034843270332</v>
       </c>
       <c r="J12" t="n">
-        <v>1.117324508233654</v>
+        <v>1.117324495000623</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>14406834764860.3</v>
+        <v>1.645567114102098e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>932362290056.5625</v>
+        <v>1.06495612891791e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>-1433337403734.262</v>
+        <v>-1.637176351494502e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>415508678488.1277</v>
+        <v>4.745993324745952e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>737103264149.6282</v>
+        <v>8.419287855808068e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>887426193950.3623</v>
+        <v>1.013629561705269e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>17.51058481327946</v>
+        <v>17.5105850365444</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001537676976930648</v>
+        <v>0.001537676822872036</v>
       </c>
       <c r="J13" t="n">
-        <v>4.377646203319866</v>
+        <v>4.377646259136101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>8252738679750.604</v>
+        <v>9.426383791463163e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>209400114642.1123</v>
+        <v>2.391794815755756e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>-108581332236.8301</v>
+        <v>-1.240229802696859e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>282887661643.1622</v>
+        <v>3.231179092334539e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>536725879369.2808</v>
+        <v>6.130551716463159e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>643035976787.5741</v>
+        <v>7.344839261513601e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>2.199096004674123</v>
+        <v>2.199096040048582</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6991947818087452</v>
+        <v>0.6991947753321557</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5497740011685307</v>
+        <v>0.5497740100121455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>11764960184231.79</v>
+        <v>1.343808816174539e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>708703421322.2852</v>
+        <v>8.094901134417561e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>-770480369346.8047</v>
+        <v>-8.800525098720965e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>372739987562.4401</v>
+        <v>4.257483861023175e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>690308389194.1852</v>
+        <v>7.884790798245317e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>812688950222.7509</v>
+        <v>9.282637239353816e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>1.25256385783991</v>
+        <v>1.252563765815559</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8693708022327562</v>
+        <v>0.8693708176374071</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3131409644599776</v>
+        <v>0.3131409414538897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>16134371794105.88</v>
+        <v>1.842888605574057e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>3370179961266.553</v>
+        <v>3.849462692444825e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>-528667470108.2578</v>
+        <v>-6.038507479398529e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>498409272925.429</v>
+        <v>5.692894539346985e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>916930655003.05</v>
+        <v>1.047329934716501e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>1140319622115.976</v>
+        <v>1.302487672772209e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>2.39508041184361</v>
+        <v>2.395080332499788</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6635164987351125</v>
+        <v>0.6635165130797021</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5987701029609026</v>
+        <v>0.5987700831249471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>18869094791278.29</v>
+        <v>2.155252168109817e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>3774586224832.004</v>
+        <v>4.31138070598294e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>-26401236345.90234</v>
+        <v>-3.015583887098729e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>559778860828.7219</v>
+        <v>6.393865834049551e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>1048496231142.642</v>
+        <v>1.197605821391225e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>1261185042624.147</v>
+        <v>1.440541706335907e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>6.826303354816962</v>
+        <v>6.826303230909179</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1453569878480484</v>
+        <v>0.1453569948128901</v>
       </c>
       <c r="J17" t="n">
-        <v>1.70657583870424</v>
+        <v>1.706575807727295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>22281069479169.2</v>
+        <v>2.544972283929159e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>5113788644674.176</v>
+        <v>5.8410348843481e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>-609308846745.2383</v>
+        <v>-6.95960410971894e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>648092638740.4064</v>
+        <v>7.402597106911302e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>1193097808322.765</v>
+        <v>1.362771593081552e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>1498814433693.561</v>
+        <v>1.711965038554341e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>13.94486720438003</v>
+        <v>13.94486718443401</v>
       </c>
       <c r="I18" t="n">
-        <v>0.007473111672536711</v>
+        <v>0.007473111737717737</v>
       </c>
       <c r="J18" t="n">
-        <v>3.486216801095008</v>
+        <v>3.486216796108503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>26817480783008.19</v>
+        <v>3.063126991385826e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>6357976534194.328</v>
+        <v>7.26216220190337e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>-513487242968.7266</v>
+        <v>-5.865116701649753e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>744477538379.8451</v>
+        <v>8.503517765502457e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>1377288735259.043</v>
+        <v>1.57315682779634e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>1718928186708.46</v>
+        <v>1.963381782374643e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>1.990701396045244</v>
+        <v>1.990701449400536</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7374692587798745</v>
+        <v>0.7374692489658232</v>
       </c>
       <c r="J19" t="n">
-        <v>0.497675349011311</v>
+        <v>0.497675362350134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>30101472295370.13</v>
+        <v>3.438228707251985e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>9092393978741.797</v>
+        <v>1.038544884579581e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>-2966581852525.555</v>
+        <v>-3.388467763503362e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>846753201601.6395</v>
+        <v>9.671723484894378e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>1549650960724.254</v>
+        <v>1.770031168085046e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>1947382392035.176</v>
+        <v>2.224325102125181e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>3.822860220975038</v>
+        <v>3.822860181593803</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4305095795894317</v>
+        <v>0.4305095851548041</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9557150552437595</v>
+        <v>0.9557150453984506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>45565028077914.12</v>
+        <v>5.204495849027794e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>10636799442079.31</v>
+        <v>1.214948851016341e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>-320154907045.5547</v>
+        <v>-3.656850422130198e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>1212709026389.855</v>
+        <v>1.38517177647849e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>2237044578438.616</v>
+        <v>2.555180960693051e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>2806309510305.444</v>
+        <v>3.205402653987419e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>2.10952859073835</v>
+        <v>2.109528607830903</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7156220230942377</v>
+        <v>0.7156220199547845</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5273821476845876</v>
+        <v>0.5273821519577256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>130451912951058.1</v>
+        <v>0.0001490038455283936</v>
       </c>
       <c r="C22" t="n">
-        <v>44285701083793.25</v>
+        <v>5.058369458405016e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>2243807197250.031</v>
+        <v>2.562905523673955e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>3320769156975.773</v>
+        <v>3.793025049742925e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>6204813150641.089</v>
+        <v>7.087217027531557e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>7900553051590.967</v>
+        <v>9.024112853419139e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.12673227674652</v>
+        <v>1.12673232496793</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8900079704188313</v>
+        <v>0.8900079626860835</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2816830691866301</v>
+        <v>0.2816830812419825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>206108230748798.1</v>
+        <v>0.000235419460155689</v>
       </c>
       <c r="C23" t="n">
-        <v>74167782591061.88</v>
+        <v>8.471539115574961e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>-5664251678381.531</v>
+        <v>-6.469781049602702e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>5192411678617.655</v>
+        <v>5.930839104838835e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>9540693063256.197</v>
+        <v>1.089750179197783e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>12313693615819.7</v>
+        <v>1.406485852058968e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>3.320864147130329</v>
+        <v>3.320864135786945</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5056333230999506</v>
+        <v>0.5056333248898033</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8302160367825822</v>
+        <v>0.8302160339467362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>308723361594694.8</v>
+        <v>0.0003526277764173752</v>
       </c>
       <c r="C24" t="n">
-        <v>97390113637050.55</v>
+        <v>0.0001112402349643424</v>
       </c>
       <c r="D24" t="n">
-        <v>-15658170688942.19</v>
+        <v>-1.788496294201949e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>7662180814845.796</v>
+        <v>8.751841031121204e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>14055522933919.8</v>
+        <v>1.605439824786608e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>17936093113281.16</v>
+        <v>2.048683520132255e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>2.221020162988578</v>
+        <v>2.221020177672404</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6951828194518205</v>
+        <v>0.6951828167662081</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5552550407471444</v>
+        <v>0.5552550444181009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>312630571053684.5</v>
+        <v>0.0003570906411034677</v>
       </c>
       <c r="C25" t="n">
-        <v>101673977332514.6</v>
+        <v>0.0001161333189904414</v>
       </c>
       <c r="D25" t="n">
-        <v>-6273745534168.688</v>
+        <v>-7.165952263462369e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>7566305287909.939</v>
+        <v>8.642330780705501e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>13932211752182.65</v>
+        <v>1.591355064529131e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>17977802322173.15</v>
+        <v>2.053447599027e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.53532214684474</v>
+        <v>2.535322172622644</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6383221809720363</v>
+        <v>0.6383221763728335</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6338305367111851</v>
+        <v>0.633830543155661</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>290648201353995.6</v>
+        <v>0.0003319820970842881</v>
       </c>
       <c r="C26" t="n">
-        <v>86810014802649.88</v>
+        <v>9.915551070762554e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>-8143417378775.438</v>
+        <v>-9.301515826888335e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>7190111285742.86</v>
+        <v>8.21263717148202e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>13065493356952.25</v>
+        <v>1.492357380345755e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>16820943202163.91</v>
+        <v>1.92130966993572e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>3.986395676874399</v>
+        <v>3.986395668859283</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4078501255624862</v>
+        <v>0.4078501266509035</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9965989192185997</v>
+        <v>0.9965989172148206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>276251723586837.3</v>
+        <v>0.0003155382558392645</v>
       </c>
       <c r="C27" t="n">
-        <v>88041497218929.47</v>
+        <v>0.0001005621251004318</v>
       </c>
       <c r="D27" t="n">
-        <v>-4815911457981.5</v>
+        <v>-5.500795531212328e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>6977489233526.492</v>
+        <v>7.969777537857187e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>12842659190745.02</v>
+        <v>1.466904975768011e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>16458405353629.29</v>
+        <v>1.879900132535317e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.915235333319286</v>
+        <v>3.915235373345288</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4175990302027284</v>
+        <v>0.4175990246710425</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9788088333298216</v>
+        <v>0.978808843336322</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>277584891121239.9</v>
+        <v>0.0003170610168818279</v>
       </c>
       <c r="C28" t="n">
-        <v>83306360528638.02</v>
+        <v>9.515359175039275e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-8692737792126.625</v>
+        <v>-9.928956660156451e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>7010503354756.363</v>
+        <v>8.007486692738877e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>12829789513057.14</v>
+        <v>1.465434985855166e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>16431778548464.55</v>
+        <v>1.87685878461863e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>3.184171164520975</v>
+        <v>3.184171168869788</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5274913633996021</v>
+        <v>0.5274913626951149</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7960427911302438</v>
+        <v>0.7960427922174469</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>281989341898140.6</v>
+        <v>0.0003220918368906234</v>
       </c>
       <c r="C29" t="n">
-        <v>81548496708454.23</v>
+        <v>9.314573707748885e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>-9610572009857.5</v>
+        <v>-1.097731841721947e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>6984895668969.661</v>
+        <v>7.978237266162684e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>12723761011921.54</v>
+        <v>1.453324274611012e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>16240865614753.37</v>
+        <v>1.855052464463167e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>2.536429196592683</v>
+        <v>2.536429160352963</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6381246766087277</v>
+        <v>0.6381246830737346</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6341072991481708</v>
+        <v>0.6341072900882406</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>271929484020871.6</v>
+        <v>0.0003106013382673095</v>
       </c>
       <c r="C30" t="n">
-        <v>78553248555675.28</v>
+        <v>8.972452644751295e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>-6655412670067.312</v>
+        <v>-7.601897422429159e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>6763036136712.661</v>
+        <v>7.724826459839104e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>12326310337519.76</v>
+        <v>1.407926949668618e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>15731842325949.05</v>
+        <v>1.796911172864446e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>4.787881622402524</v>
+        <v>4.787881589061287</v>
       </c>
       <c r="I30" t="n">
-        <v>0.309762599240295</v>
+        <v>0.3097626028827134</v>
       </c>
       <c r="J30" t="n">
-        <v>1.196970405600631</v>
+        <v>1.196970397265322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>274564814277344.2</v>
+        <v>0.0003136114463312155</v>
       </c>
       <c r="C31" t="n">
-        <v>87743824798374.06</v>
+        <v>0.0001002221205711122</v>
       </c>
       <c r="D31" t="n">
-        <v>-8164702819208.188</v>
+        <v>-9.325828402150394e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>6836366360803.684</v>
+        <v>7.80858519257057e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>12506735905422.34</v>
+        <v>1.428535388454367e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>16067756658592.87</v>
+        <v>1.835279738748298e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.007592059008516</v>
+        <v>3.007591990953582</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5565556921959443</v>
+        <v>0.5565557035703377</v>
       </c>
       <c r="J31" t="n">
-        <v>0.751898014752129</v>
+        <v>0.7518979977383954</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>273330254402903.6</v>
+        <v>0.0003122013164842701</v>
       </c>
       <c r="C32" t="n">
-        <v>95237232900119.39</v>
+        <v>0.0001087811867101875</v>
       </c>
       <c r="D32" t="n">
-        <v>-9536801180916.438</v>
+        <v>-1.089305651191786e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>6885387149617.343</v>
+        <v>7.864577363540937e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>12550527098756.3</v>
+        <v>1.433537275567422e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>16313330579813.01</v>
+        <v>1.863329506705595e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>4.545933846325117</v>
+        <v>4.54593375588458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3371356074201325</v>
+        <v>0.3371356180075312</v>
       </c>
       <c r="J32" t="n">
-        <v>1.136483461581279</v>
+        <v>1.136483438971145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>265438540401236.5</v>
+        <v>0.0003031872997426252</v>
       </c>
       <c r="C33" t="n">
-        <v>78848186766453.42</v>
+        <v>9.006140829128837e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-528906403834.6875</v>
+        <v>-6.041236728854867e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>6567936383560.923</v>
+        <v>7.501981045618106e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>12089138475627.64</v>
+        <v>1.380836876841445e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>15430317943200.82</v>
+        <v>1.762470674772957e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>3.331263747220198</v>
+        <v>3.331263781816979</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5039940869082669</v>
+        <v>0.5039940814606071</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8328159368050496</v>
+        <v>0.8328159454542448</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>259034761724710.1</v>
+        <v>0.0002958728213515772</v>
       </c>
       <c r="C34" t="n">
-        <v>78210840879518.19</v>
+        <v>8.933342407865778e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>-2047592770650.688</v>
+        <v>-2.33878643496983e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>6556962223495.88</v>
+        <v>7.489446212684108e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>12200303867320.34</v>
+        <v>1.393534330286018e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>15497473962462.28</v>
+        <v>1.770141319174262e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.129924101738447</v>
+        <v>2.129924097022756</v>
       </c>
       <c r="I34" t="n">
-        <v>0.711876952570843</v>
+        <v>0.7118769534364933</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5324810254346118</v>
+        <v>0.5324810242556889</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>241323014178667.2</v>
+        <v>0.0002756422368554605</v>
       </c>
       <c r="C35" t="n">
-        <v>77960045581123.31</v>
+        <v>8.904696199591189e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>-6894632278713.938</v>
+        <v>-7.875137300004172e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>6033334358583.57</v>
+        <v>6.891351751617953e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>11005755837483.34</v>
+        <v>1.257091522709066e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>14158635261849.97</v>
+        <v>1.617217447945557e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>5.204802810902348</v>
+        <v>5.204802859837246</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2669214855857543</v>
+        <v>0.2669214808677928</v>
       </c>
       <c r="J35" t="n">
-        <v>1.301200702725587</v>
+        <v>1.301200714959311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>219563859687977.3</v>
+        <v>0.0002507886519229948</v>
       </c>
       <c r="C36" t="n">
-        <v>72262926138008.16</v>
+        <v>8.253963981066637e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>-5392865289526.125</v>
+        <v>-6.159800021241738e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>5476856551986.388</v>
+        <v>6.255735678294338e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>9951030372518.508</v>
+        <v>1.136619429063402e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>12899176868906.71</v>
+        <v>1.473360497586376e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>6.008887716973292</v>
+        <v>6.008887840858066</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1984855158733536</v>
+        <v>0.1984855066489429</v>
       </c>
       <c r="J36" t="n">
-        <v>1.502221929243323</v>
+        <v>1.502221960214517</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>178422696843763.6</v>
+        <v>0.0002037966887689798</v>
       </c>
       <c r="C37" t="n">
-        <v>58894084423736.41</v>
+        <v>6.726957750940588e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>-7658388949741.562</v>
+        <v>-8.747510400714073e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>4410945949236.481</v>
+        <v>5.038238927580641e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>8040028979161.729</v>
+        <v>9.183424034575297e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>10368688937336.86</v>
+        <v>1.184324924320469e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>3.259378006837856</v>
+        <v>3.259377929533791</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5153941074098113</v>
+        <v>0.5153941197554093</v>
       </c>
       <c r="J37" t="n">
-        <v>0.814844501709464</v>
+        <v>0.8148444823834479</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>142323757112282.2</v>
+        <v>0.0001625640180041803</v>
       </c>
       <c r="C38" t="n">
-        <v>41032193552462.77</v>
+        <v>4.686749689666285e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>-4504582819438.312</v>
+        <v>-5.14519251695067e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>3507119036631.457</v>
+        <v>4.005876271424973e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>6412680951471.05</v>
+        <v>7.32464629388425e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>8215787050361.881</v>
+        <v>9.384177173861877e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>2.669009367260516</v>
+        <v>2.669009333189849</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6146483631476474</v>
+        <v>0.614648369133179</v>
       </c>
       <c r="J38" t="n">
-        <v>0.667252341815129</v>
+        <v>0.6672523332974624</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>95725341402996.52</v>
+        <v>0.0001093387107647033</v>
       </c>
       <c r="C39" t="n">
-        <v>31805582464031.36</v>
+        <v>3.632874356553013e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-1708667681753.469</v>
+        <v>-1.951662474309576e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>2387160426518.613</v>
+        <v>2.72664520485288e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>4334238133698.686</v>
+        <v>4.950622293352351e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>5616247304611.053</v>
+        <v>6.414949583112588e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>4.638863375485355</v>
+        <v>4.638863511774836</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3263978973492176</v>
+        <v>0.3263978818075528</v>
       </c>
       <c r="J39" t="n">
-        <v>1.159715843871339</v>
+        <v>1.159715877943709</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>135459738729064.9</v>
+        <v>0.0001547238482059898</v>
       </c>
       <c r="C40" t="n">
-        <v>40965356819094.99</v>
+        <v>4.679115474029143e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>-2242084017044.406</v>
+        <v>-2.560937201876167e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>3405256979896.177</v>
+        <v>3.889528123048973e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>6293994547753.458</v>
+        <v>7.189081159227048e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>8015711623386.268</v>
+        <v>9.155648447136073e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>1.769183734357053</v>
+        <v>1.769183667057646</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7781152840198553</v>
+        <v>0.7781152963098251</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4422959335892632</v>
+        <v>0.4422959167644114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>67707278445691.77</v>
+        <v>7.733612038922368e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>22692310124447.83</v>
+        <v>2.591944717190697e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>-2491249892262.672</v>
+        <v>-2.845537627458507e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>1735815129098.486</v>
+        <v>1.982670266193871e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>3188547913288.899</v>
+        <v>3.642000254450364e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>4071491011739.768</v>
+        <v>4.650509166032989e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>3.210441586903634</v>
+        <v>3.210441494689594</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5232461035710634</v>
+        <v>0.5232461184360082</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8026103967259086</v>
+        <v>0.8026103736723985</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>46001316239469.5</v>
+        <v>5.254329241434402e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>10397802470579.71</v>
+        <v>1.187650310595125e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>-633993915092.4297</v>
+        <v>-7.241559680609645e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>1194169898247.184</v>
+        <v>1.363996147471463e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>2217976805939.377</v>
+        <v>2.533401506131567e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>2772743954884.706</v>
+        <v>3.167063646705843e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>1.677745590426927</v>
+        <v>1.677745572567855</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7947560850891799</v>
+        <v>0.7947560883266604</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4194363976067316</v>
+        <v>0.4194363931419638</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>35157113130996.13</v>
+        <v>4.015690477570473e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>8467722729293.133</v>
+        <v>9.671941309305106e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>-1968639393217.898</v>
+        <v>-2.248605110003374e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>927143338401.3923</v>
+        <v>1.058994992869787e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>1687704655539.449</v>
+        <v>1.927717866941503e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>2111647544989.217</v>
+        <v>2.411950864147704e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>4.860596195180093</v>
+        <v>4.860596112062282</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3019025694815825</v>
+        <v>0.3019025783706989</v>
       </c>
       <c r="J43" t="n">
-        <v>1.215149048795023</v>
+        <v>1.215149028015571</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>21340838477139.95</v>
+        <v>2.437577896705834e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>3916866503915.406</v>
+        <v>4.473895056712397e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>-329971922716.5625</v>
+        <v>-3.768981228226243e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>608650404720.1685</v>
+        <v>6.952082861849813e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>1130561046962.863</v>
+        <v>1.291341303571209e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>1403057009113.843</v>
+        <v>1.602589680140177e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>4.735391699108916</v>
+        <v>4.735391730490116</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3155408705599239</v>
+        <v>0.3155408670790505</v>
       </c>
       <c r="J44" t="n">
-        <v>1.183847924777229</v>
+        <v>1.183847932622529</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>18937513786009.22</v>
+        <v>2.163067071527197e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>2378696042849.102</v>
+        <v>2.716977064659912e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>-1299127814075.758</v>
+        <v>-1.483880426393411e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>568799855405.0635</v>
+        <v>6.496904777191727e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>1033008315111</v>
+        <v>1.179915324959662e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>1285223062692.899</v>
+        <v>1.467998237247139e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>9.096998309106388</v>
+        <v>9.096998389668647</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05872018841558982</v>
+        <v>0.05872018647657259</v>
       </c>
       <c r="J45" t="n">
-        <v>2.274249577276597</v>
+        <v>2.274249597417162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>18074694999434.38</v>
+        <v>2.06451480533105e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>1059918884214.436</v>
+        <v>1.210652916892624e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>-1305710238434.863</v>
+        <v>-1.491398959602926e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>531478944070.1121</v>
+        <v>6.070620557502889e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>984099889395.6605</v>
+        <v>1.124051495167466e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>1189757468027.766</v>
+        <v>1.358956215164411e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>2.473404632179429</v>
+        <v>2.473404616250857</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6494043536255441</v>
+        <v>0.6494043564852343</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6183511580448572</v>
+        <v>0.6183511540627141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>19768434244162.53</v>
+        <v>2.257975869554907e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>-44563216063.28906</v>
+        <v>-5.090069016979069e-08</v>
       </c>
       <c r="D47" t="n">
-        <v>-1064652433283.668</v>
+        <v>-1.216059641892069e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>555908761365.5531</v>
+        <v>6.349661045738748e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1027890044659.109</v>
+        <v>1.174069171576092e-06</v>
       </c>
       <c r="G47" t="n">
-        <v>1228700923430.883</v>
+        <v>1.403437927537171e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>3.447975608269373</v>
+        <v>3.447975620360602</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4858327291408072</v>
+        <v>0.4858327272819065</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8619939020673433</v>
+        <v>0.8619939050901504</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>25150014226828.13</v>
+        <v>2.872666827721698e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>-2459314780786.068</v>
+        <v>-2.809060822369361e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>2244753265475.758</v>
+        <v>2.563985860087802e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>678399228897.358</v>
+        <v>7.748762863726505e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>1282642043465.615</v>
+        <v>1.465050167971786e-06</v>
       </c>
       <c r="G48" t="n">
-        <v>1469200038561.356</v>
+        <v>1.678139099119635e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>1.175213041355949</v>
+        <v>1.175213053242671</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8821625247693849</v>
+        <v>0.8821625228288366</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2938032603389872</v>
+        <v>0.2938032633106678</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>34674509981723.06</v>
+        <v>3.960566927688777e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>-2559700715512.809</v>
+        <v>-2.923722942844588e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>496094918638.0391</v>
+        <v>5.666459757181419e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>909086920938.3792</v>
+        <v>1.038370720591826e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>1663897181938.89</v>
+        <v>1.900524664178496e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>1958881079684.098</v>
+        <v>2.237459049715308e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>4.382362584053487</v>
+        <v>4.382362659277236</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3567249890726178</v>
+        <v>0.3567249798599514</v>
       </c>
       <c r="J49" t="n">
-        <v>1.095590646013372</v>
+        <v>1.095590664819309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>50227451751363.61</v>
+        <v>5.737043851205674e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>-1791221503665.836</v>
+        <v>-2.045956079972934e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>-623440202477.2188</v>
+        <v>-7.121014068615889e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>1289212343673.363</v>
+        <v>1.472554845493506e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>2350687600771.805</v>
+        <v>2.684985475576775e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>2765957046287.586</v>
+        <v>3.159311553162942e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>5.354250982407403</v>
+        <v>5.354250969240544</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2528410721965829</v>
+        <v>0.2528410734084642</v>
       </c>
       <c r="J50" t="n">
-        <v>1.338562745601851</v>
+        <v>1.338562742310136</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>63020350522555.77</v>
+        <v>7.198265129907533e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>-2779751253425.156</v>
+        <v>-3.175067478880078e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-1133622373803.234</v>
+        <v>-1.294837996220218e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>1558882559699.772</v>
+        <v>1.780575619537714e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>2838020601415.822</v>
+        <v>3.241623468431453e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>3345244342225.424</v>
+        <v>3.820980918241237e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>1.853406287952236</v>
+        <v>1.85340632722549</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7626982400964577</v>
+        <v>0.762698232892926</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4633515719880591</v>
+        <v>0.4633515818063725</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>118410349359121.3</v>
+        <v>0.0001352498170400256</v>
       </c>
       <c r="C52" t="n">
-        <v>-10422716179710.12</v>
+        <v>-1.190496002841488e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>1471426910492</v>
+        <v>1.680683021098716e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>3033495058022.745</v>
+        <v>3.464896896038091e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>5593283113101.032</v>
+        <v>6.388719587773136e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>6488870709844.793</v>
+        <v>7.411671208371161e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>3.141636585109226</v>
+        <v>3.14163689199628</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5344088787050966</v>
+        <v>0.5344088286005895</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7854091462773065</v>
+        <v>0.78540922299907</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>185822818651899.6</v>
+        <v>0.0002122492029697301</v>
       </c>
       <c r="C53" t="n">
-        <v>-20920109510399.59</v>
+        <v>-2.389521693768409e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-2746745881370.062</v>
+        <v>-3.137368890622646e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>4628172195518.131</v>
+        <v>5.286357541593251e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>8459998222461.073</v>
+        <v>9.663118290032213e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>9716187013556.285</v>
+        <v>1.109795321762008e-05</v>
       </c>
       <c r="H53" t="n">
-        <v>1.092430894851585</v>
+        <v>1.092430886950174</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8954712625086172</v>
+        <v>0.8954712637583589</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2731077237128963</v>
+        <v>0.2731077217375435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>435309024868020.1</v>
+        <v>0.0004972155419920545</v>
       </c>
       <c r="C54" t="n">
-        <v>-53514562863243.81</v>
+        <v>-6.112501914115853e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>1742186870143.875</v>
+        <v>1.98994828958562e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>11022384846324.28</v>
+        <v>1.258990909967028e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>20395010200719.07</v>
+        <v>2.329544178765403e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>23197524007704.7</v>
+        <v>2.649650895891479e-05</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5796602293035675</v>
+        <v>0.5796601997888939</v>
       </c>
       <c r="I54" t="n">
-        <v>0.965296859023698</v>
+        <v>0.9652968622246553</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1449150573258919</v>
+        <v>0.1449150499472235</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>651251046209255.5</v>
+        <v>0.0007438672839373054</v>
       </c>
       <c r="C55" t="n">
-        <v>-62545725287849.62</v>
+        <v>-7.144052843849899e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>4127320151609.625</v>
+        <v>4.714277547813788e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>16105033435649.56</v>
+        <v>1.8395375399521e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>29359407145656.31</v>
+        <v>3.353469076408202e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>34150420933836.38</v>
+        <v>3.900704804155369e-05</v>
       </c>
       <c r="H55" t="n">
-        <v>3.392020654343173</v>
+        <v>3.392020638418749</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4944855728484546</v>
+        <v>0.4944855753252739</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8480051635857934</v>
+        <v>0.8480051596046871</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>686727331313491.8</v>
+        <v>0.0007843887507856526</v>
       </c>
       <c r="C56" t="n">
-        <v>-88323024589652.12</v>
+        <v>-0.0001008836894304439</v>
       </c>
       <c r="D56" t="n">
-        <v>7615658435341.625</v>
+        <v>8.698702783635666e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>16704426697146.81</v>
+        <v>1.90800100575975e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>30233255993276.25</v>
+        <v>3.453281209601048e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>34940142031193.61</v>
+        <v>3.990907760475877e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>4.740805893116094</v>
+        <v>4.740805881846728</v>
       </c>
       <c r="I56" t="n">
-        <v>0.314940785417221</v>
+        <v>0.3149407866652904</v>
       </c>
       <c r="J56" t="n">
-        <v>1.185201473279023</v>
+        <v>1.185201470461682</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>506365703660203.8</v>
+        <v>0.0005783773903470268</v>
       </c>
       <c r="C57" t="n">
-        <v>-59413713624808.44</v>
+        <v>-6.786310438392092e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>9067744262601</v>
+        <v>1.035729342140101e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>12588089183374.41</v>
+        <v>1.437827664721859e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>23031975096450.03</v>
+        <v>2.630741685746109e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>26549291746275.28</v>
+        <v>3.032494098877994e-05</v>
       </c>
       <c r="H57" t="n">
-        <v>3.120209403273081</v>
+        <v>3.120209361419922</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5379140204377246</v>
+        <v>0.5379140272974566</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7800523508182702</v>
+        <v>0.7800523403549805</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>240624732518166.8</v>
+        <v>0.0002748446504791263</v>
       </c>
       <c r="C58" t="n">
-        <v>-19319467242420.31</v>
+        <v>-2.206694270501629e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-8065473592856.875</v>
+        <v>-9.2124872579242e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>6073561306637.576</v>
+        <v>6.937299496572314e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>10937250138019.81</v>
+        <v>1.249266716650362e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>12739246115244.73</v>
+        <v>1.455093003875202e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>4.28857734757888</v>
+        <v>4.288577404539661</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3683576322096381</v>
+        <v>0.3683576250551849</v>
       </c>
       <c r="J58" t="n">
-        <v>1.07214433689472</v>
+        <v>1.072144351134915</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>177043151214137.3</v>
+        <v>0.0002022209540902729</v>
       </c>
       <c r="C59" t="n">
-        <v>-15943587082532.09</v>
+        <v>-1.821096914826674e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-2682857585597.625</v>
+        <v>-3.064394161162636e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>4508246845011.298</v>
+        <v>5.149377275988459e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>8272080732433.468</v>
+        <v>9.448476545174241e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>9529086191029.957</v>
+        <v>1.088424426706129e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>2.292885153342747</v>
+        <v>2.292885022492645</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6820647253602583</v>
+        <v>0.6820647491945745</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5732212883356869</v>
+        <v>0.5732212556231612</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>236298048818852.2</v>
+        <v>0.0002699026568578708</v>
       </c>
       <c r="C60" t="n">
-        <v>-30207097606233.69</v>
+        <v>-3.450293374691871e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>1099527102420.438</v>
+        <v>1.255893880284923e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>5874441312859.572</v>
+        <v>6.709862081316827e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>10696144200288.17</v>
+        <v>1.221727287164555e-05</v>
       </c>
       <c r="G60" t="n">
-        <v>12329040824190.69</v>
+        <v>1.408238829159289e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>3.679566934044522</v>
+        <v>3.679567056213247</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4511047694178517</v>
+        <v>0.4511047515657669</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9198917335111305</v>
+        <v>0.9198917640533117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>91220258369202.84</v>
+        <v>0.0001041929469791144</v>
       </c>
       <c r="C61" t="n">
-        <v>-5831682382976.68</v>
+        <v>-6.661022152523274e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>560977348503.4062</v>
+        <v>6.407555432271243e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>2369997602701.934</v>
+        <v>2.707041608326485e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>4335532125638.179</v>
+        <v>4.952100308355889e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>5095513866844.909</v>
+        <v>5.82016118305649e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>4.575419223590987</v>
+        <v>4.575419035931485</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3336981436796406</v>
+        <v>0.3336981654668602</v>
       </c>
       <c r="J61" t="n">
-        <v>1.143854805897747</v>
+        <v>1.143854758982871</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>61030555255486.98</v>
+        <v>6.970988166146895e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>-714774708063.0156</v>
+        <v>-8.164247951242544e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>-154443669359.6719</v>
+        <v>-1.764075928946634e-07</v>
       </c>
       <c r="E62" t="n">
-        <v>1557914301851.195</v>
+        <v>1.779469663511409e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>2827474878019.66</v>
+        <v>3.229578010859751e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>3369769726743.35</v>
+        <v>3.848994130484477e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>4.46713702391243</v>
+        <v>4.46713697388684</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3464619834988116</v>
+        <v>0.3464619894847884</v>
       </c>
       <c r="J62" t="n">
-        <v>1.116784255978107</v>
+        <v>1.11678424347171</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>34677756908311.16</v>
+        <v>3.960937796738595e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>3452229697108.914</v>
+        <v>3.943180994074569e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>-1058505728859.805</v>
+        <v>-1.209038857788672e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>941567629609.6213</v>
+        <v>1.075470602771379e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>1722221984841.45</v>
+        <v>1.96714400208942e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>2096869332224.602</v>
+        <v>2.395070999829715e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>3.5919981628422</v>
+        <v>3.59199815265946</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4640283703715926</v>
+        <v>0.4640283718891611</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8979995407105501</v>
+        <v>0.8979995381648649</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26025557824001.81</v>
+        <v>2.972672538263759e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>2469726776336.795</v>
+        <v>2.820953562921644e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>709373426359.25</v>
+        <v>8.102554002795121e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>712127432432.0382</v>
+        <v>8.134010711668426e-07</v>
       </c>
       <c r="F64" t="n">
-        <v>1341123592033.695</v>
+        <v>1.531848536995462e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>1629716440438.147</v>
+        <v>1.861482984680516e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>3.093250523700246</v>
+        <v>3.093250434398266</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5423432334602291</v>
+        <v>0.5423432481672725</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7733126309250615</v>
+        <v>0.7733126085995664</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>58457265368013.01</v>
+        <v>6.677063701810879e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>15940989914373.58</v>
+        <v>1.820800278498981e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>2153142101636.062</v>
+        <v>2.459346453545063e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>1545710814635.071</v>
+        <v>1.765530684130124e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2899329226394.004</v>
+        <v>3.311650965528628e-06</v>
       </c>
       <c r="G65" t="n">
-        <v>3635692494780.26</v>
+        <v>4.152734519270096e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>1.876914799371375</v>
+        <v>1.876914797107589</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7583844001199989</v>
+        <v>0.7583844005355773</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4692286998428437</v>
+        <v>0.4692286992768973</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>173329757763573.6</v>
+        <v>0.0001979794688041133</v>
       </c>
       <c r="C66" t="n">
-        <v>50556070677241.17</v>
+        <v>5.774579154029723e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>-5241717584177.281</v>
+        <v>-5.987157430584786e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>4425875572742.378</v>
+        <v>5.055291760255296e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>8082053475029.379</v>
+        <v>9.23142497288193e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>10366836125956.96</v>
+        <v>1.184113298028141e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>4.872616990341964</v>
+        <v>4.872616937758735</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3006192660148261</v>
+        <v>0.3006192716185173</v>
       </c>
       <c r="J66" t="n">
-        <v>1.218154247585491</v>
+        <v>1.218154234439684</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>302361764295271.9</v>
+        <v>0.0003453614786437249</v>
       </c>
       <c r="C67" t="n">
-        <v>71376441604514.17</v>
+        <v>8.152708558193747e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>3179296555633.438</v>
+        <v>3.631433416940717e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>7419820741808.447</v>
+        <v>8.475014244582796e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>13719294235105.77</v>
+        <v>1.567035353179934e-05</v>
       </c>
       <c r="G67" t="n">
-        <v>17273456147148.61</v>
+        <v>1.972996276764405e-05</v>
       </c>
       <c r="H67" t="n">
-        <v>2.091651871241436</v>
+        <v>2.091651868398533</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7189062298905355</v>
+        <v>0.7189062304129257</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5229129678103589</v>
+        <v>0.5229129670996333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>550625864174920.3</v>
+        <v>0.0006289319120197563</v>
       </c>
       <c r="C68" t="n">
-        <v>115422386406557.7</v>
+        <v>0.0001318369275334548</v>
       </c>
       <c r="D68" t="n">
-        <v>-14007964170428.25</v>
+        <v>-1.600007581803052e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>13558679259940.72</v>
+        <v>1.548689705888168e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>24682786461194.24</v>
+        <v>2.819299475057683e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>31256128411716.52</v>
+        <v>3.570115009265966e-05</v>
       </c>
       <c r="H68" t="n">
-        <v>4.515708221782883</v>
+        <v>4.515708174423638</v>
       </c>
       <c r="I68" t="n">
-        <v>0.340688952596323</v>
+        <v>0.3406889581874207</v>
       </c>
       <c r="J68" t="n">
-        <v>1.128927055445721</v>
+        <v>1.12892704360591</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>551069918138956.3</v>
+        <v>0.0006294391165801579</v>
       </c>
       <c r="C69" t="n">
-        <v>120529745603497.6</v>
+        <v>0.0001376706187030172</v>
       </c>
       <c r="D69" t="n">
-        <v>-5449308747348</v>
+        <v>-6.224270269994088e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>13039766264075.38</v>
+        <v>1.489418799343988e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>23804786384999.59</v>
+        <v>2.71901318109301e-05</v>
       </c>
       <c r="G69" t="n">
-        <v>30064579972326.55</v>
+        <v>3.434014818917964e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>2.095935406125134</v>
+        <v>2.095935360695117</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7181191576319998</v>
+        <v>0.7181191659790728</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5239838515312836</v>
+        <v>0.5239838401737793</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>956671828456326.1</v>
+        <v>0.001092722813166369</v>
       </c>
       <c r="C70" t="n">
-        <v>177050075539897.7</v>
+        <v>0.0002022288657506916</v>
       </c>
       <c r="D70" t="n">
-        <v>-3895081517715.75</v>
+        <v>-4.449012137123674e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>22868202711675.12</v>
+        <v>2.612035394116662e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>42008751264594.55</v>
+        <v>4.798293359518625e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>52416456667018.23</v>
+        <v>5.987074795918276e-05</v>
       </c>
       <c r="H70" t="n">
-        <v>1.637541152998279</v>
+        <v>1.637541030247253</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8020295622882458</v>
+        <v>0.802029584448249</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4093852882495698</v>
+        <v>0.4093852575618133</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>1061943690844194</v>
+        <v>0.001212965680799035</v>
       </c>
       <c r="C71" t="n">
-        <v>178630101535858.6</v>
+        <v>0.0002040335937458356</v>
       </c>
       <c r="D71" t="n">
-        <v>-16475632969591.25</v>
+        <v>-1.881868070144994e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>26170711057983.45</v>
+        <v>2.989252126052829e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>47872501990144.96</v>
+        <v>5.46805847445793e-05</v>
       </c>
       <c r="G71" t="n">
-        <v>59886477332333.08</v>
+        <v>6.840310120962766e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>3.039907019623633</v>
+        <v>3.039907095047249</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5511694105367935</v>
+        <v>0.5511693979996027</v>
       </c>
       <c r="J71" t="n">
-        <v>0.7599767549059082</v>
+        <v>0.7599767737618122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>1372064736075229</v>
+        <v>0.001567189909033125</v>
       </c>
       <c r="C72" t="n">
-        <v>92092660949152</v>
+        <v>0.000105189419220114</v>
       </c>
       <c r="D72" t="n">
-        <v>-22068438023728.25</v>
+        <v>-2.52068552385634e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>30625503006842.43</v>
+        <v>3.498084166308145e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>55071178291145.17</v>
+        <v>6.290300496199076e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>68108940432684.41</v>
+        <v>7.779490383338991e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>1.224287355170797</v>
+        <v>1.224287376414835</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8740839044171624</v>
+        <v>0.8740839008917509</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3060718387926993</v>
+        <v>0.3060718441037089</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>2075767865757876</v>
+        <v>0.002370968634621667</v>
       </c>
       <c r="C73" t="n">
-        <v>-47883788534120.75</v>
+        <v>-5.469347700954902e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2445311112434.5</v>
+        <v>2.793064362354488e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>47572888726881.52</v>
+        <v>5.433836257782495e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>85710177089069.25</v>
+        <v>9.789926170265066e-05</v>
       </c>
       <c r="G73" t="n">
-        <v>103101088437684.8</v>
+        <v>0.0001177633832524355</v>
       </c>
       <c r="H73" t="n">
-        <v>4.238209679308798</v>
+        <v>4.238209597259438</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3747265236344364</v>
+        <v>0.374726534078803</v>
       </c>
       <c r="J73" t="n">
-        <v>1.059552419827199</v>
+        <v>1.059552399314859</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1914674979672317</v>
+        <v>0.002186966276395895</v>
       </c>
       <c r="C74" t="n">
-        <v>-93725087840846.75</v>
+        <v>-0.0001070539938918607</v>
       </c>
       <c r="D74" t="n">
-        <v>17273121021761</v>
+        <v>1.972957774257992e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>44251229820684.24</v>
+        <v>5.054432129725627e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>80209544844643.28</v>
+        <v>9.161636914075672e-05</v>
       </c>
       <c r="G74" t="n">
-        <v>96015561866149.45</v>
+        <v>0.0001096702041501118</v>
       </c>
       <c r="H74" t="n">
-        <v>3.911062975063331</v>
+        <v>3.91106293961854</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4181759540064321</v>
+        <v>0.4181759589099833</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9777657437658327</v>
+        <v>0.977765734904635</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>976362044059050.1</v>
+        <v>0.001115213228359013</v>
       </c>
       <c r="C75" t="n">
-        <v>-36323764363040</v>
+        <v>-4.148947111954e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>-8420883481308.5</v>
+        <v>-9.618438514949479e-06</v>
       </c>
       <c r="E75" t="n">
-        <v>23969926327775.01</v>
+        <v>2.737875676101556e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>43360763751799.84</v>
+        <v>4.952721953665005e-05</v>
       </c>
       <c r="G75" t="n">
-        <v>51429811153401.76</v>
+        <v>5.874378880837982e-05</v>
       </c>
       <c r="H75" t="n">
-        <v>4.773847269127954</v>
+        <v>4.773847023494824</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3112989396897213</v>
+        <v>0.3112989666340721</v>
       </c>
       <c r="J75" t="n">
-        <v>1.193461817281988</v>
+        <v>1.193461755873706</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>522794302397261.1</v>
+        <v>0.00059714234606368</v>
       </c>
       <c r="C76" t="n">
-        <v>-27062436466168.19</v>
+        <v>-3.091106165789781e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>3845486875326</v>
+        <v>4.392364362125847e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>12708633280859.71</v>
+        <v>1.451596366423714e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>23457102848899.95</v>
+        <v>2.679300324563879e-05</v>
       </c>
       <c r="G76" t="n">
-        <v>27492926944711.34</v>
+        <v>3.140277318868791e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>1.275877605424425</v>
+        <v>1.275877594873591</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8654547575205922</v>
+        <v>0.8654547592987999</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3189694013561063</v>
+        <v>0.3189693987183979</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>422852538469050.4</v>
+        <v>0.0004829875837689778</v>
       </c>
       <c r="C77" t="n">
-        <v>57312246677677.44</v>
+        <v>6.546278158150087e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-6149697663778.375</v>
+        <v>-7.024263282801382e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>10453840585745.69</v>
+        <v>1.194051057141555e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>19115416514211.96</v>
+        <v>2.183387348536058e-05</v>
       </c>
       <c r="G77" t="n">
-        <v>23624056792872.53</v>
+        <v>2.698370014414711e-05</v>
       </c>
       <c r="H77" t="n">
-        <v>2.725033515723377</v>
+        <v>2.725033516606614</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6048412305551103</v>
+        <v>0.6048412304010624</v>
       </c>
       <c r="J77" t="n">
-        <v>0.6812583789308443</v>
+        <v>0.6812583791516535</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>954769503794769.4</v>
+        <v>0.001090549952540108</v>
       </c>
       <c r="C78" t="n">
-        <v>214274327691228.1</v>
+        <v>0.0002447468812800992</v>
       </c>
       <c r="D78" t="n">
-        <v>-11300086315027.25</v>
+        <v>-1.290710717138889e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>22517531488639.72</v>
+        <v>2.571981278000994e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>41042343961812.31</v>
+        <v>4.687909078176552e-05</v>
       </c>
       <c r="G78" t="n">
-        <v>52102914866651.88</v>
+        <v>5.951261650215541e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>2.396334043712947</v>
+        <v>2.396334126563152</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6632898660436395</v>
+        <v>0.6632898510666808</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5990835109282366</v>
+        <v>0.5990835316407881</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>1073977293364180</v>
+        <v>0.001226710616262302</v>
       </c>
       <c r="C79" t="n">
-        <v>269403060571836.3</v>
+        <v>0.0003077156261912687</v>
       </c>
       <c r="D79" t="n">
-        <v>-23612973504682.5</v>
+        <v>-2.697104351527535e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>26027524073822.77</v>
+        <v>2.972897125299119e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>47451832964970.47</v>
+        <v>5.420009117379008e-05</v>
       </c>
       <c r="G79" t="n">
-        <v>60531447021716.49</v>
+        <v>6.913979384176957e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>3.279790558612525</v>
+        <v>3.279790440797531</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5121406268370108</v>
+        <v>0.512140645577858</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8199476396531312</v>
+        <v>0.8199476101993828</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>780797843178695.1</v>
+        <v>0.0008918372944228056</v>
       </c>
       <c r="C80" t="n">
-        <v>229233871308579.5</v>
+        <v>0.0002618338639082108</v>
       </c>
       <c r="D80" t="n">
-        <v>-28172046736871.88</v>
+        <v>-3.21784725961173e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>18497969222870.25</v>
+        <v>2.112861729582314e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>33580490367007.49</v>
+        <v>3.835606605790904e-05</v>
       </c>
       <c r="G80" t="n">
-        <v>43126520876303.93</v>
+        <v>4.925966434508895e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7087142016780238</v>
+        <v>0.7087141801207316</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9502499502887795</v>
+        <v>0.9502499529686265</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1771785504195059</v>
+        <v>0.1771785450301829</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>414024909323293.8</v>
+        <v>0.000472904552424753</v>
       </c>
       <c r="C81" t="n">
-        <v>94381386313603.72</v>
+        <v>0.0001078036279926462</v>
       </c>
       <c r="D81" t="n">
-        <v>-18954701751310.5</v>
+        <v>-2.165030305763629e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>10237841293784.14</v>
+        <v>1.169379341136864e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>18557296339690.57</v>
+        <v>2.119638149797126e-05</v>
       </c>
       <c r="G81" t="n">
-        <v>23450172221913.75</v>
+        <v>2.678508695970288e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>2.339630318262455</v>
+        <v>2.339630337084698</v>
       </c>
       <c r="I81" t="n">
-        <v>0.6735633845863972</v>
+        <v>0.6735633811688513</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5849075795656138</v>
+        <v>0.5849075842711744</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>244375841450667</v>
+        <v>0.000279129215221094</v>
       </c>
       <c r="C82" t="n">
-        <v>46809186558670.41</v>
+        <v>5.346605243351766e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>-12437052007313</v>
+        <v>-1.420576006007135e-05</v>
       </c>
       <c r="E82" t="n">
-        <v>6188130828963.411</v>
+        <v>7.06816226826582e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>11204147944348.6</v>
+        <v>1.279752125471499e-05</v>
       </c>
       <c r="G82" t="n">
-        <v>13998837839560.29</v>
+        <v>1.598965183077549e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>2.149079940710259</v>
+        <v>2.149079985135663</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7083616275695386</v>
+        <v>0.7083616194195466</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5372699851775649</v>
+        <v>0.5372699962839158</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>201893492396413.4</v>
+        <v>0.0002306053320114696</v>
       </c>
       <c r="C83" t="n">
-        <v>16859397520189.08</v>
+        <v>1.925701969019656e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>4754094754198.312</v>
+        <v>5.430187825045292e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>5153284961550.874</v>
+        <v>5.88614807198882e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>9503308005698.365</v>
+        <v>1.085480008267871e-05</v>
       </c>
       <c r="G83" t="n">
-        <v>11519258936392.68</v>
+        <v>1.315744504747589e-05</v>
       </c>
       <c r="H83" t="n">
-        <v>4.107873531596952</v>
+        <v>4.107873636218904</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3916035650403735</v>
+        <v>0.3916035512629985</v>
       </c>
       <c r="J83" t="n">
-        <v>1.026968382899238</v>
+        <v>1.026968409054726</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>105951999445656.5</v>
+        <v>0.0001210197300616391</v>
       </c>
       <c r="C84" t="n">
-        <v>13020841594929.57</v>
+        <v>1.487257210393126e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>-4320452211458.781</v>
+        <v>-4.934875896502359e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>2762522561280.733</v>
+        <v>3.155388640801701e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>5034275299547.312</v>
+        <v>5.750213706848252e-06</v>
       </c>
       <c r="G84" t="n">
-        <v>6189231685569.96</v>
+        <v>7.069419678470019e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3022349924069858</v>
+        <v>0.3022349768640525</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9896694407632796</v>
+        <v>0.9896694417729699</v>
       </c>
       <c r="J84" t="n">
-        <v>0.07555874810174644</v>
+        <v>0.07555874421601314</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>55716435845718.8</v>
+        <v>6.364002641319034e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>7652399411450.32</v>
+        <v>8.740668545083742e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>-2215235252429.5</v>
+        <v>-2.530270035067337e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>1554383153958.386</v>
+        <v>1.775436341081586e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>2846758447238.134</v>
+        <v>3.251603948649291e-06</v>
       </c>
       <c r="G85" t="n">
-        <v>3535600648146.213</v>
+        <v>4.038408330881897e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>3.724232610978282</v>
+        <v>3.72423262674062</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4446112441243506</v>
+        <v>0.4446112418445828</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9310581527445706</v>
+        <v>0.931058156685155</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>42513730921553.62</v>
+        <v>4.855972779974285e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>5713434528693.992</v>
+        <v>6.52595808676812e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>-165702074259.4297</v>
+        <v>-1.892670349069712e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>1186258002945.849</v>
+        <v>1.35495907957859e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>2178632941806.518</v>
+        <v>2.488462440206362e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>2694796563330.956</v>
+        <v>3.078031138432734e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>5.221345748597897</v>
+        <v>5.221345717229563</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2653305882766535</v>
+        <v>0.2653305912855904</v>
       </c>
       <c r="J86" t="n">
-        <v>1.305336437149474</v>
+        <v>1.305336429307391</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>33955806463695.47</v>
+        <v>3.878475689058965e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>3723568530853.73</v>
+        <v>4.253107663284454e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>1417250482173.133</v>
+        <v>1.618801694987228e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>897390687216.3076</v>
+        <v>1.025011132946812e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>1681327469949.555</v>
+        <v>1.920433765224719e-06</v>
       </c>
       <c r="G87" t="n">
-        <v>2029678753211.361</v>
+        <v>2.318325058328274e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3563366856548191</v>
+        <v>0.3563366862557987</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9858930861235287</v>
+        <v>0.9858930860787282</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08908417141370478</v>
+        <v>0.08908417156394967</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>31521315801315.64</v>
+        <v>3.600405050019816e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5609449350209.328</v>
+        <v>6.407184877650916e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>-238783562093.4297</v>
+        <v>-2.727416142074023e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>902265495665.1029</v>
+        <v>1.030579200888811e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>1673735630572.126</v>
+        <v>1.911762266996905e-06</v>
       </c>
       <c r="G88" t="n">
-        <v>2037657116305.994</v>
+        <v>2.327438047741302e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>1.303855751091838</v>
+        <v>1.303855715596579</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8607210074094543</v>
+        <v>0.8607210134379815</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3259639377729594</v>
+        <v>0.3259639288991448</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>42705068160589.98</v>
+        <v>4.877827566293231e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>5559531486988.613</v>
+        <v>6.350168018690051e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>962743994997.5703</v>
+        <v>1.099658537470022e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>1223484906056.736</v>
+        <v>1.397480125387617e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>2288786205507.421</v>
+        <v>2.614280910279353e-06</v>
       </c>
       <c r="G89" t="n">
-        <v>2782862459179.707</v>
+        <v>3.178621133533734e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>2.469711121667051</v>
+        <v>2.46971107536727</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6500675743993414</v>
+        <v>0.6500675827145692</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6174277804167627</v>
+        <v>0.6174277688418174</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>76697060813822.81</v>
+        <v>8.760436490786277e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>9068325855926.914</v>
+        <v>1.035795799771909e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>3043681604078.703</v>
+        <v>3.476532233745905e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>2183223525044.124</v>
+        <v>2.493705864141665e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>4059725196332.487</v>
+        <v>4.637070101353235e-06</v>
       </c>
       <c r="G90" t="n">
-        <v>4954770463519.035</v>
+        <v>5.659402263645666e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>2.29743672735742</v>
+        <v>2.297436830269919</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6812357782402702</v>
+        <v>0.6812357595002678</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5743591818393551</v>
+        <v>0.5743592075674797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>87199656972113.02</v>
+        <v>9.960056465754336e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>9618739835412.969</v>
+        <v>1.098664766500498e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>-2346941623093.109</v>
+        <v>-2.680706369652001e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>2426730883603.741</v>
+        <v>2.771843087304313e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>4389707800907.484</v>
+        <v>5.013980457608571e-06</v>
       </c>
       <c r="G91" t="n">
-        <v>5377808272013.113</v>
+        <v>6.14260146541591e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>1.750625415121135</v>
+        <v>1.750625532780806</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7815022229347797</v>
+        <v>0.7815022014753887</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4376563537802837</v>
+        <v>0.4376563831952016</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>106265704200534.6</v>
+        <v>0.0001213780478918344</v>
       </c>
       <c r="C92" t="n">
-        <v>14292019397134.33</v>
+        <v>1.632452763434019e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>1669434814633.219</v>
+        <v>1.906849887413191e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>2874446300578.66</v>
+        <v>3.283229369901124e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>5260256353392.689</v>
+        <v>6.008332161159677e-06</v>
       </c>
       <c r="G92" t="n">
-        <v>6443073847782.266</v>
+        <v>7.359361447585637e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>2.159798305198517</v>
+        <v>2.159798388606734</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7063956805917202</v>
+        <v>0.706395665296075</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5399495762996291</v>
+        <v>0.5399495971516834</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>161112850921255.9</v>
+        <v>0.000184025161328158</v>
       </c>
       <c r="C93" t="n">
-        <v>24612452487648.12</v>
+        <v>2.811265871877398e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>-1774641615266.688</v>
+        <v>-2.027018718308194e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>4170988766376.846</v>
+        <v>4.76415677675128e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>7654872902833.225</v>
+        <v>8.743493834537129e-06</v>
       </c>
       <c r="G93" t="n">
-        <v>9400436808178.943</v>
+        <v>1.073729929225725e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>1.510698530019327</v>
+        <v>1.510698648168689</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8247446823450122</v>
+        <v>0.824744661379514</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3776746325048317</v>
+        <v>0.3776746620421724</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>341957939031623.5</v>
+        <v>0.0003905887365525865</v>
       </c>
       <c r="C94" t="n">
-        <v>86831052520745.88</v>
+        <v>9.917953996721045e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>-31563095548374.5</v>
+        <v>-3.605177195694829e-05</v>
       </c>
       <c r="E94" t="n">
-        <v>8685202006332.952</v>
+        <v>9.920348938879681e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>15564037836362.21</v>
+        <v>1.777744328791179e-05</v>
       </c>
       <c r="G94" t="n">
-        <v>19927116736430.93</v>
+        <v>2.276100788606002e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>3.162387646326167</v>
+        <v>3.162387625799731</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5310273199327399</v>
+        <v>0.5310273232713441</v>
       </c>
       <c r="J94" t="n">
-        <v>0.7905969115815417</v>
+        <v>0.7905969064499327</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>425713080858664.2</v>
+        <v>0.0004862549318785271</v>
       </c>
       <c r="C95" t="n">
-        <v>98500154836225.19</v>
+        <v>0.0001125081382818669</v>
       </c>
       <c r="D95" t="n">
-        <v>1979851691817.688</v>
+        <v>2.26141169082665e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>10274040939927.38</v>
+        <v>1.173514110193078e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>18988791080890.41</v>
+        <v>2.168924029336309e-05</v>
       </c>
       <c r="G95" t="n">
-        <v>24015195192028.92</v>
+        <v>2.743046342022816e-05</v>
       </c>
       <c r="H95" t="n">
-        <v>2.466050732896974</v>
+        <v>2.466050690344014</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6507250775716962</v>
+        <v>0.6507250852166643</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6165126832242435</v>
+        <v>0.6165126725860036</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>351880136982225.1</v>
+        <v>0.0004019219978755428</v>
       </c>
       <c r="C96" t="n">
-        <v>72527469739641.62</v>
+        <v>8.284180443777114e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>-4630060001495.625</v>
+        <v>-5.288513661296976e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>8477536181473.931</v>
+        <v>9.683150371342516e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>15632420868025.84</v>
+        <v>1.785555127378364e-05</v>
       </c>
       <c r="G96" t="n">
-        <v>19634118628323.95</v>
+        <v>2.242634170225643e-05</v>
       </c>
       <c r="H96" t="n">
-        <v>1.380611725944608</v>
+        <v>1.380611685660209</v>
       </c>
       <c r="I96" t="n">
-        <v>0.8475576941039693</v>
+        <v>0.8475577010758897</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3451529314861519</v>
+        <v>0.3451529214150523</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>168972558604918.4</v>
+        <v>0.0001930026199412954</v>
       </c>
       <c r="C97" t="n">
-        <v>37404558309888.7</v>
+        <v>4.272396517776396e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>6768071600307.344</v>
+        <v>7.730578645055546e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>4467592437208.807</v>
+        <v>5.102941289057669e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>8409020856410.614</v>
+        <v>9.604891302549588e-06</v>
       </c>
       <c r="G97" t="n">
-        <v>10449419973453.05</v>
+        <v>1.193546129041892e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>2.0028858172326</v>
+        <v>2.002885815883775</v>
       </c>
       <c r="I97" t="n">
-        <v>0.735228066111518</v>
+        <v>0.73522806635962</v>
       </c>
       <c r="J97" t="n">
-        <v>0.50072145430815</v>
+        <v>0.5007214539709438</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>81142879029885.78</v>
+        <v>9.268243540066439e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>20467085740000.97</v>
+        <v>2.337776737052936e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>-1760209425329.562</v>
+        <v>-2.01053368960953e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>2296807585778.064</v>
+        <v>2.623443032846276e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>4313631505458.989</v>
+        <v>4.927085136297905e-06</v>
       </c>
       <c r="G98" t="n">
-        <v>5310472181835.438</v>
+        <v>6.065689321335803e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2766261861152149</v>
+        <v>0.2766261962024991</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9912726369878153</v>
+        <v>0.9912726363803256</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06915654652880372</v>
+        <v>0.06915654905062477</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>50213177080886.31</v>
+        <v>5.735413381580882e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>12161822529834.78</v>
+        <v>1.389138942377853e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>1974905009096.93</v>
+        <v>2.255761761300968e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>1455148652029.459</v>
+        <v>1.662089422529753e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>2767136128566.375</v>
+        <v>3.160658317262946e-06</v>
       </c>
       <c r="G99" t="n">
-        <v>3369110529797.146</v>
+        <v>3.848241185032339e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>1.045214806357082</v>
+        <v>1.045214801929451</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9028641849820261</v>
+        <v>0.9028641856680695</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2613037015892706</v>
+        <v>0.2613037004823627</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>27586286573379.54</v>
+        <v>3.150940974655357e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>7096769413862.303</v>
+        <v>8.106020867876278e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>-1596837990078.188</v>
+        <v>-1.823928739572592e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>839458596492.075</v>
+        <v>9.588403583212399e-07</v>
       </c>
       <c r="F100" t="n">
-        <v>1582247266168.063</v>
+        <v>1.807263087512161e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>1929878935384.063</v>
+        <v>2.204332432702268e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3043048034358451</v>
+        <v>0.3043048103109835</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9895345924394137</v>
+        <v>0.9895345919902017</v>
       </c>
       <c r="J100" t="n">
-        <v>0.07607620085896127</v>
+        <v>0.07607620257774587</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>17857465209026.25</v>
+        <v>2.039702541249189e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2339554658757.951</v>
+        <v>2.67226932713137e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>-323564039451.1719</v>
+        <v>-3.695790075249084e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>536154916131.5477</v>
+        <v>6.124030096421082e-07</v>
       </c>
       <c r="F101" t="n">
-        <v>1018220083318.954</v>
+        <v>1.163024016883115e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>1237623140275.401</v>
+        <v>1.413628996957879e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>2.256157770596589</v>
+        <v>2.256157737451698</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6887621731907905</v>
+        <v>0.6887621792415186</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5640394426491473</v>
+        <v>0.5640394343629246</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>12307126274714.89</v>
+        <v>1.405735720660923e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1852664030149.273</v>
+        <v>2.116136572230704e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>962077315711.9883</v>
+        <v>1.098897037549298e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>425044675550.1993</v>
+        <v>4.85491471144162e-07</v>
       </c>
       <c r="F102" t="n">
-        <v>802311052661.4478</v>
+        <v>9.164099571499415e-07</v>
       </c>
       <c r="G102" t="n">
-        <v>951885674071.4492</v>
+        <v>1.087256004925503e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>4.204840412982755</v>
+        <v>4.204840213275023</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3789929453876786</v>
+        <v>0.3789929710334002</v>
       </c>
       <c r="J102" t="n">
-        <v>1.051210103245689</v>
+        <v>1.051210053318756</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>11900875142676.17</v>
+        <v>1.359333195863349e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>2710653817685.709</v>
+        <v>3.096143510833617e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>808473730089.7852</v>
+        <v>9.234490594543194e-07</v>
       </c>
       <c r="E103" t="n">
-        <v>439926667464.5685</v>
+        <v>5.024898724148606e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>854506273497.1949</v>
+        <v>9.760280057519447e-07</v>
       </c>
       <c r="G103" t="n">
-        <v>1025138088721.069</v>
+        <v>1.170925851450709e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>4.498653048465205</v>
+        <v>4.49865301445565</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3427072233092791</v>
+        <v>0.3427072273434412</v>
       </c>
       <c r="J103" t="n">
-        <v>1.124663262116301</v>
+        <v>1.124663253613913</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>14370237766893.13</v>
+        <v>1.641386957972163e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>2741750310481.978</v>
+        <v>3.13166231734551e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>884116746877.3125</v>
+        <v>1.009849466895198e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>439361402780.9331</v>
+        <v>5.018442196357787e-07</v>
       </c>
       <c r="F104" t="n">
-        <v>826811805253.7449</v>
+        <v>9.443950304305831e-07</v>
       </c>
       <c r="G104" t="n">
-        <v>1043529766980.333</v>
+        <v>1.191933060979683e-06</v>
       </c>
       <c r="H104" t="n">
-        <v>5.028040099140438</v>
+        <v>5.028039971073789</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2844324879737629</v>
+        <v>0.2844325010039231</v>
       </c>
       <c r="J104" t="n">
-        <v>1.257010024785109</v>
+        <v>1.257009992768447</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>27122202399583.24</v>
+        <v>3.097932684903099e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>860244984670.5625</v>
+        <v>9.825828292828167e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>-1918636629664.211</v>
+        <v>-2.191491316421202e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>856463098542.0408</v>
+        <v>9.782631174930411e-07</v>
       </c>
       <c r="F105" t="n">
-        <v>1592179447122.362</v>
+        <v>1.818607751051498e-06</v>
       </c>
       <c r="G105" t="n">
-        <v>1861610350430.181</v>
+        <v>2.126355178317539e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>1.998499282298288</v>
+        <v>1.998499251754891</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7360349239117021</v>
+        <v>0.7360349295298446</v>
       </c>
       <c r="J105" t="n">
-        <v>0.499624820574572</v>
+        <v>0.4996248129387226</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>38716969986331.7</v>
+        <v>4.422301886850919e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>-527130084098.4219</v>
+        <v>-6.020947336856435e-07</v>
       </c>
       <c r="D106" t="n">
-        <v>412816102689.3672</v>
+        <v>4.715237926950113e-07</v>
       </c>
       <c r="E106" t="n">
-        <v>1066228690999.274</v>
+        <v>1.217860063026861e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>1971360097525.457</v>
+        <v>2.251712746426956e-06</v>
       </c>
       <c r="G106" t="n">
-        <v>2339235563629.891</v>
+        <v>2.671904813040417e-06</v>
       </c>
       <c r="H106" t="n">
-        <v>2.869626681283667</v>
+        <v>2.869626688309843</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5798746938516317</v>
+        <v>0.5798746926511573</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7174066703209168</v>
+        <v>0.7174066720774608</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>49473146902110.71</v>
+        <v>5.650886186017354e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>-2135945230087.004</v>
+        <v>-2.439704010292745e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>-574857101318.8594</v>
+        <v>-6.566091671774505e-07</v>
       </c>
       <c r="E107" t="n">
-        <v>1378557575126.46</v>
+        <v>1.574606113564998e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>2560126316509.856</v>
+        <v>2.92420905942114e-06</v>
       </c>
       <c r="G107" t="n">
-        <v>2951263018532.785</v>
+        <v>3.370970408802868e-06</v>
       </c>
       <c r="H107" t="n">
-        <v>2.242487016321222</v>
+        <v>2.242487038863065</v>
       </c>
       <c r="I107" t="n">
-        <v>0.6912587755869049</v>
+        <v>0.6912587714686853</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5606217540803056</v>
+        <v>0.5606217597157663</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>50239816804044.71</v>
+        <v>5.738456203929793e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>58578958234.69141</v>
+        <v>6.690960068375066e-08</v>
       </c>
       <c r="D108" t="n">
-        <v>145264983075.3125</v>
+        <v>1.659235746373641e-07</v>
       </c>
       <c r="E108" t="n">
-        <v>1261086195440.589</v>
+        <v>1.440428799962986e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>2328558847222.767</v>
+        <v>2.659709732595352e-06</v>
       </c>
       <c r="G108" t="n">
-        <v>2779984201624.131</v>
+        <v>3.175333552208463e-06</v>
       </c>
       <c r="H108" t="n">
-        <v>1.460159958951438</v>
+        <v>1.460159957634334</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8336744161752354</v>
+        <v>0.8336744164069165</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3650399897378594</v>
+        <v>0.3650399894085834</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>50830184232776.69</v>
+        <v>5.805888727790106e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>2783816942066.441</v>
+        <v>3.179711339385044e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>401778283760.5781</v>
+        <v>4.589163085772066e-07</v>
       </c>
       <c r="E109" t="n">
-        <v>1373458650002.104</v>
+        <v>1.56878205462692e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>2573591729593.975</v>
+        <v>2.939589423871441e-06</v>
       </c>
       <c r="G109" t="n">
-        <v>3107708404399.328</v>
+        <v>3.549664330030577e-06</v>
       </c>
       <c r="H109" t="n">
-        <v>3.626115263655282</v>
+        <v>3.626115281754623</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4589630309051889</v>
+        <v>0.4589630282282189</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9065288159138204</v>
+        <v>0.9065288204386558</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>48786039908561.75</v>
+        <v>5.572403944558085e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1897300869297.32</v>
+        <v>2.167121321460529e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>2661549210433.531</v>
+        <v>3.040055588936975e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>1230617375978.162</v>
+        <v>1.405626923569479e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>2285343707181.135</v>
+        <v>2.610348843851192e-06</v>
       </c>
       <c r="G110" t="n">
-        <v>2773337925247.359</v>
+        <v>3.167742087283402e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>3.511666464015006</v>
+        <v>3.511666446372103</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4761066517405459</v>
+        <v>0.4761066544164752</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8779166160037515</v>
+        <v>0.8779166115930258</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>50400979428113.06</v>
+        <v>5.756864404118397e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1917859868033.555</v>
+        <v>2.19060408132403e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>1695044382906.781</v>
+        <v>1.936101396505521e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>1279719046220.398</v>
+        <v>1.461711480940109e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>2365935977142.612</v>
+        <v>2.702402366717347e-06</v>
       </c>
       <c r="G111" t="n">
-        <v>2890456594137.762</v>
+        <v>3.301516533294709e-06</v>
       </c>
       <c r="H111" t="n">
-        <v>6.444804144937136</v>
+        <v>6.444804229745387</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1683015623211329</v>
+        <v>0.1683015568746469</v>
       </c>
       <c r="J111" t="n">
-        <v>1.611201036234284</v>
+        <v>1.611201057436347</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>51101034994360.48</v>
+        <v>5.836825649042447e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>5290855167723.613</v>
+        <v>6.043282494936063e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>1515675286262.078</v>
+        <v>1.731223685587577e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>1380888823812.116</v>
+        <v>1.57726889641521e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>2582927515030.744</v>
+        <v>2.950252881631326e-06</v>
       </c>
       <c r="G112" t="n">
-        <v>3142704637359.427</v>
+        <v>3.589637477782343e-06</v>
       </c>
       <c r="H112" t="n">
-        <v>6.759411700225125</v>
+        <v>6.759411706704189</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1491617061292226</v>
+        <v>0.1491617057563387</v>
       </c>
       <c r="J112" t="n">
-        <v>1.689852925056281</v>
+        <v>1.689852926676047</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>53963976321040.19</v>
+        <v>6.163834471237771e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>2916322683855.215</v>
+        <v>3.331061090471548e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>2632192565530.422</v>
+        <v>3.006524062795063e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>1364987681141.782</v>
+        <v>1.559106405961015e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>2549357678923.531</v>
+        <v>2.911908980703448e-06</v>
       </c>
       <c r="G113" t="n">
-        <v>3050677387813.483</v>
+        <v>3.484522772526382e-06</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7917338642968332</v>
+        <v>0.7917338551485305</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9395528079290754</v>
+        <v>0.9395528091478879</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1979334660742083</v>
+        <v>0.1979334637871326</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>56432746220125.48</v>
+        <v>6.445820530606746e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>5631221023971.25</v>
+        <v>6.432052760794047e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>1904574921384.312</v>
+        <v>2.17542985756698e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>1410860697162.061</v>
+        <v>1.611503152264352e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>2613436523642.95</v>
+        <v>2.985100658767262e-06</v>
       </c>
       <c r="G114" t="n">
-        <v>3185030805588.935</v>
+        <v>3.637982966216293e-06</v>
       </c>
       <c r="H114" t="n">
-        <v>1.986839764138095</v>
+        <v>1.986839765283663</v>
       </c>
       <c r="I114" t="n">
-        <v>0.7381795549240924</v>
+        <v>0.7381795547133816</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4967099410345239</v>
+        <v>0.4967099413209157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>60312594215350.2</v>
+        <v>6.888981736409084e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>4118723971300.645</v>
+        <v>4.70445928838618e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>2914772419868.047</v>
+        <v>3.329290350324331e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>1513403641465.711</v>
+        <v>1.728629017110443e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>2833495127960.602</v>
+        <v>3.236454415783982e-06</v>
       </c>
       <c r="G115" t="n">
-        <v>3394393942772.479</v>
+        <v>3.877120223789606e-06</v>
       </c>
       <c r="H115" t="n">
-        <v>1.174535984399644</v>
+        <v>1.17453599025071</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8822730435111279</v>
+        <v>0.8822730425561484</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2936339960999109</v>
+        <v>0.2936339975626774</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>61057455891530.29</v>
+        <v>6.974060789769978e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>6566928996032.293</v>
+        <v>7.500830363747196e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>2513813323419.906</v>
+        <v>2.871309796230546e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>1543352260915.349</v>
+        <v>1.762836712920766e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>2854341070798.82</v>
+        <v>3.260264916760034e-06</v>
       </c>
       <c r="G116" t="n">
-        <v>3520632727970.291</v>
+        <v>4.021311779289173e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>2.70861495694223</v>
+        <v>2.708614955820698</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6077079495271462</v>
+        <v>0.60770794972318</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6771537392355574</v>
+        <v>0.6771537389551745</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>62698502585171.28</v>
+        <v>7.161503246086043e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>8500795400404.355</v>
+        <v>9.709717334950349e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>20898901564.40625</v>
+        <v>2.387102507329898e-08</v>
       </c>
       <c r="E117" t="n">
-        <v>1665265396564.116</v>
+        <v>1.90208745759429e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>3053149079770.636</v>
+        <v>3.487345970440314e-06</v>
       </c>
       <c r="G117" t="n">
-        <v>3780590285962.548</v>
+        <v>4.318238630827988e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>6.614272879622392</v>
+        <v>6.614272869986569</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1577311692348331</v>
+        <v>0.1577311698183317</v>
       </c>
       <c r="J117" t="n">
-        <v>1.653568219905598</v>
+        <v>1.653568217496642</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>60991508652065.77</v>
+        <v>6.966528212761617e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>6844374399809.586</v>
+        <v>7.817732051402749e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>3741976609340.484</v>
+        <v>4.274133614397128e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>1476702498943.505</v>
+        <v>1.68670850187007e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>2751306713087.136</v>
+        <v>3.14257775548901e-06</v>
       </c>
       <c r="G118" t="n">
-        <v>3385361034794.623</v>
+        <v>3.866802718942497e-06</v>
       </c>
       <c r="H118" t="n">
-        <v>2.424642361933324</v>
+        <v>2.424642326755166</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6581786312111588</v>
+        <v>0.6581786375550596</v>
       </c>
       <c r="J118" t="n">
-        <v>0.606160590483331</v>
+        <v>0.6061605816887916</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>60872386303325.45</v>
+        <v>6.952921904212643e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>8555091157479.461</v>
+        <v>9.771734656463409e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>-404140589084.9688</v>
+        <v>-4.616145451341629e-07</v>
       </c>
       <c r="E119" t="n">
-        <v>1545054216166.909</v>
+        <v>1.764780707314114e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>2857429551511.239</v>
+        <v>3.263792618603079e-06</v>
       </c>
       <c r="G119" t="n">
-        <v>3491779174932.127</v>
+        <v>3.988354880260934e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>2.866848137498797</v>
+        <v>2.866848130807322</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5803495286029492</v>
+        <v>0.5803495297467183</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7167120343746992</v>
+        <v>0.7167120327018305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>50586429184858.24</v>
+        <v>5.778046714791061e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>4827585087476.113</v>
+        <v>5.514129488551624e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>2999341696161.633</v>
+        <v>3.425886477935127e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>1288058954387.012</v>
+        <v>1.471237429753567e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>2398632065868.316</v>
+        <v>2.739748258010262e-06</v>
       </c>
       <c r="G120" t="n">
-        <v>2914802154452.109</v>
+        <v>3.329324340767226e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>1.134851650341338</v>
+        <v>1.134851665122042</v>
       </c>
       <c r="I120" t="n">
-        <v>0.8887039147383837</v>
+        <v>0.8887039123607535</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2837129125853346</v>
+        <v>0.2837129162805105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>49663933750784.97</v>
+        <v>5.672678103270706e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>8172586699596.27</v>
+        <v>9.334833148662876e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>-143122126910.6719</v>
+        <v>-1.634758767315124e-07</v>
       </c>
       <c r="E121" t="n">
-        <v>1367169611456.58</v>
+        <v>1.561598636275732e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>2525340468937.193</v>
+        <v>2.884476219378169e-06</v>
       </c>
       <c r="G121" t="n">
-        <v>3144798960600.79</v>
+        <v>3.592029640100654e-06</v>
       </c>
       <c r="H121" t="n">
-        <v>6.161958555480326</v>
+        <v>6.161958542274198</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1873751917764018</v>
+        <v>0.1873751927104774</v>
       </c>
       <c r="J121" t="n">
-        <v>1.540489638870082</v>
+        <v>1.54048963556855</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>39546084855923.79</v>
+        <v>4.51700444840117e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>4104870381471.871</v>
+        <v>4.688635514809566e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>2476178622976.789</v>
+        <v>2.828322893060828e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>1031267314702.86</v>
+        <v>1.177926731950893e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>1945284220991.677</v>
+        <v>2.221928545668142e-06</v>
       </c>
       <c r="G122" t="n">
-        <v>2370049639751.988</v>
+        <v>2.707101045673876e-06</v>
       </c>
       <c r="H122" t="n">
-        <v>4.477873724443218</v>
+        <v>4.47787364475928</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3451791521255627</v>
+        <v>0.3451791616321518</v>
       </c>
       <c r="J122" t="n">
-        <v>1.119468431110805</v>
+        <v>1.11946841118982</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>31693747201348.93</v>
+        <v>3.620100386118716e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>2920258528456.473</v>
+        <v>3.335556724168889e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>703022515288.4297</v>
+        <v>8.030013217488887e-07</v>
       </c>
       <c r="E123" t="n">
-        <v>829230355093.1722</v>
+        <v>9.471575299214591e-07</v>
       </c>
       <c r="F123" t="n">
-        <v>1550671581850.065</v>
+        <v>1.771196937272729e-06</v>
       </c>
       <c r="G123" t="n">
-        <v>1866778360521.61</v>
+        <v>2.132258148421051e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>0.2995662791414613</v>
+        <v>0.2995662878407516</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9898421537082488</v>
+        <v>0.9898421531473729</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07489156978536533</v>
+        <v>0.07489157196018791</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>33681919491480.3</v>
+        <v>3.847191970193744e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>3645453739067.48</v>
+        <v>4.163883936418589e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>2062771183552.18</v>
+        <v>2.356123649488234e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>1009877186217.933</v>
+        <v>1.153494652233512e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>1911261182858.444</v>
+        <v>2.183066995787254e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>2283947526600.441</v>
+        <v>2.608754109974152e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>2.04604339644021</v>
+        <v>2.046043343724461</v>
       </c>
       <c r="I124" t="n">
-        <v>0.7272904124261397</v>
+        <v>0.7272904221201293</v>
       </c>
       <c r="J124" t="n">
-        <v>0.5115108491100526</v>
+        <v>0.5115108359311153</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>42692819957290.62</v>
+        <v>4.876428559448091e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>7299238283752.711</v>
+        <v>8.337283502087747e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>1810712740165.445</v>
+        <v>2.06821923793497e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>1126629865106.597</v>
+        <v>1.286851056829854e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>2114791428137.022</v>
+        <v>2.415541846185018e-06</v>
       </c>
       <c r="G125" t="n">
-        <v>2610692567409.167</v>
+        <v>2.981966477392265e-06</v>
       </c>
       <c r="H125" t="n">
-        <v>2.770351561502069</v>
+        <v>2.770351549277417</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5969613210761111</v>
+        <v>0.5969613231951416</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6925878903755172</v>
+        <v>0.6925878873193542</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>58094997114667.94</v>
+        <v>6.635684956150766e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>7872802938619.562</v>
+        <v>8.99241633374022e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>2993708022064.078</v>
+        <v>3.419451611364857e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>1475958271404.957</v>
+        <v>1.685858435970718e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>2749560609291.322</v>
+        <v>3.140583333424267e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>3369747582013.938</v>
+        <v>3.848968834925988e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>1.572411632658073</v>
+        <v>1.572411671699171</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8137418492370063</v>
+        <v>0.8137418422452958</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3931029081645181</v>
+        <v>0.3931029179247927</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>56141366709886.98</v>
+        <v>6.412538790112383e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>7106897533421.488</v>
+        <v>8.117589359177872e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>-96362597579</v>
+        <v>-1.100665595343435e-07</v>
       </c>
       <c r="E127" t="n">
-        <v>1427645512936.019</v>
+        <v>1.630674984527744e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>2645675866970.192</v>
+        <v>3.021924849829424e-06</v>
       </c>
       <c r="G127" t="n">
-        <v>3221718268990.393</v>
+        <v>3.679887856862963e-06</v>
       </c>
       <c r="H127" t="n">
-        <v>0.04431272299681059</v>
+        <v>0.04431272433981051</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9997581434278008</v>
+        <v>0.9997581434132489</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01107818074920265</v>
+        <v>0.01107818108495263</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>90650940040291.53</v>
+        <v>0.0001035426644456031</v>
       </c>
       <c r="C128" t="n">
-        <v>16517033164391.16</v>
+        <v>1.886596662662765e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>806248068369.75</v>
+        <v>9.209066401891512e-07</v>
       </c>
       <c r="E128" t="n">
-        <v>2270880828210.21</v>
+        <v>2.593829159127094e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>4206766526409.106</v>
+        <v>4.805022592269981e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>5172926756725.21</v>
+        <v>5.908583177374558e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3795142202653133</v>
+        <v>0.3795142113595442</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9841195130292738</v>
+        <v>0.9841195137281964</v>
       </c>
       <c r="J128" t="n">
-        <v>0.09487855506632834</v>
+        <v>0.09487855283988605</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>167553837103697.1</v>
+        <v>0.0001913821382689526</v>
       </c>
       <c r="C129" t="n">
-        <v>29122273555523.84</v>
+        <v>3.326383356702599e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>-8557839728476.469</v>
+        <v>-9.774873956704144e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>4216196508045.745</v>
+        <v>4.815793632353479e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>7726226025927.356</v>
+        <v>8.824994283830771e-06</v>
       </c>
       <c r="G129" t="n">
-        <v>9528059500675.133</v>
+        <v>1.088307155399897e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3144350737433567</v>
+        <v>0.3144350183712088</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9888633880519365</v>
+        <v>0.9888633917714285</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07860876843583918</v>
+        <v>0.0786087545928022</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>183473953042612.2</v>
+        <v>0.000209566298583301</v>
       </c>
       <c r="C130" t="n">
-        <v>33651059220874.89</v>
+        <v>3.843667076279232e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>-11643430532728.88</v>
+        <v>-1.329927538879026e-05</v>
       </c>
       <c r="E130" t="n">
-        <v>4696915859144.479</v>
+        <v>5.364877428916013e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>8591869573963.706</v>
+        <v>9.813743435171848e-06</v>
       </c>
       <c r="G130" t="n">
-        <v>10642176024509.22</v>
+        <v>1.21556297087125e-05</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1259809902693346</v>
+        <v>0.125980986768869</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9980974747372774</v>
+        <v>0.998097474840795</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03149524756733365</v>
+        <v>0.03149524669221725</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>192196496761091.3</v>
+        <v>0.0002195292994969912</v>
       </c>
       <c r="C131" t="n">
-        <v>29959771381301.42</v>
+        <v>3.422043436990831e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>7066287491202.344</v>
+        <v>8.071204137057963e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>5038745207188.402</v>
+        <v>5.75531929614576e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>9409099263462.928</v>
+        <v>1.074719365096702e-05</v>
       </c>
       <c r="G131" t="n">
-        <v>11631579537439.97</v>
+        <v>1.328573908469141e-05</v>
       </c>
       <c r="H131" t="n">
-        <v>4.461521803106248</v>
+        <v>4.461521933429715</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3471344122587808</v>
+        <v>0.3471343966403105</v>
       </c>
       <c r="J131" t="n">
-        <v>1.115380450776562</v>
+        <v>1.115380483357429</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>219174492244273.8</v>
+        <v>0.000250343911460666</v>
       </c>
       <c r="C132" t="n">
-        <v>41417808461719.69</v>
+        <v>4.730795119688139e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1301599689896.938</v>
+        <v>1.486703864589476e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>5404997279429.759</v>
+        <v>6.173657092491692e-06</v>
       </c>
       <c r="F132" t="n">
-        <v>10092616875778.63</v>
+        <v>1.15279162265444e-05</v>
       </c>
       <c r="G132" t="n">
-        <v>12510389475872.34</v>
+        <v>1.428952705825359e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5479321560992697</v>
+        <v>0.5479321348674658</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9686701305582173</v>
+        <v>0.9686701327696398</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1369830390248174</v>
+        <v>0.1369830337168665</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>250605247638866.8</v>
+        <v>0.0002862445226560407</v>
       </c>
       <c r="C133" t="n">
-        <v>43736974302839</v>
+        <v>4.995693206889172e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>-4940225265792.688</v>
+        <v>-5.642788245726271e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>6078298046782.861</v>
+        <v>6.942709851110234e-06</v>
       </c>
       <c r="F133" t="n">
-        <v>11166844940011.38</v>
+        <v>1.275491326185145e-05</v>
       </c>
       <c r="G133" t="n">
-        <v>13876510475855.38</v>
+        <v>1.584992793537497e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>0.204513694407625</v>
+        <v>0.2045137038612362</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9951148812527698</v>
+        <v>0.9951148808164042</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05112842360190625</v>
+        <v>0.05112842596530904</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>263461852419616.9</v>
+        <v>0.0003009295013520345</v>
       </c>
       <c r="C134" t="n">
-        <v>50213965913528.62</v>
+        <v>5.735503460421778e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>-6223089369894.125</v>
+        <v>-7.108092363936514e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>6359681413110.878</v>
+        <v>7.264109541223567e-06</v>
       </c>
       <c r="F134" t="n">
-        <v>11738555632917.04</v>
+        <v>1.340792855939612e-05</v>
       </c>
       <c r="G134" t="n">
-        <v>14566213219702.69</v>
+        <v>1.663771524903027e-05</v>
       </c>
       <c r="H134" t="n">
-        <v>0.2204537973331936</v>
+        <v>0.2204537917587351</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9943535106661517</v>
+        <v>0.9943535109413143</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05511344933329839</v>
+        <v>0.05511344793968377</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>254514138195408.3</v>
+        <v>0.0002907093075823657</v>
       </c>
       <c r="C135" t="n">
-        <v>53490004464952.89</v>
+        <v>6.109696796631801e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>947607193790.75</v>
+        <v>1.082369255341487e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>6311422524588.105</v>
+        <v>7.20898762897138e-06</v>
       </c>
       <c r="F135" t="n">
-        <v>11746488281072.87</v>
+        <v>1.341698932000484e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>14609653080272.98</v>
+        <v>1.668733280924687e-05</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3107048393010508</v>
+        <v>0.3107048263435563</v>
       </c>
       <c r="I135" t="n">
-        <v>0.989112703346961</v>
+        <v>0.9891127042086297</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07767620982526269</v>
+        <v>0.07767620658588908</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>232088446074654.7</v>
+        <v>0.0002650943948765073</v>
       </c>
       <c r="C136" t="n">
-        <v>45757812521317.02</v>
+        <v>5.226515942410189e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>-2967052760009</v>
+        <v>-3.389005866767918e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>5723881273325.737</v>
+        <v>6.537890487061279e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>10566547386810.47</v>
+        <v>1.206924574807112e-05</v>
       </c>
       <c r="G136" t="n">
-        <v>13053722393276.85</v>
+        <v>1.49101288779521e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.2298187161973078</v>
+        <v>0.2298186986299148</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9938825386543326</v>
+        <v>0.9938825395540958</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05745467904932694</v>
+        <v>0.05745467465747869</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>185907307488042.6</v>
+        <v>0.0002123457068919922</v>
       </c>
       <c r="C137" t="n">
-        <v>44924063027348.89</v>
+        <v>5.131284008138321e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-236967020175.3125</v>
+        <v>-2.706670094447159e-07</v>
       </c>
       <c r="E137" t="n">
-        <v>4742382139201.39</v>
+        <v>5.41680960561841e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>8830309834743.807</v>
+        <v>1.008609295368015e-05</v>
       </c>
       <c r="G137" t="n">
-        <v>11065063675311.29</v>
+        <v>1.263865740965966e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>1.494732739825552</v>
+        <v>1.49473280326882</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8275740850288882</v>
+        <v>0.8275740738006397</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3736831849563881</v>
+        <v>0.373683200817205</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>132139827516566.4</v>
+        <v>0.0001509318030536375</v>
       </c>
       <c r="C138" t="n">
-        <v>37004365024319.93</v>
+        <v>4.226685954043535e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-9654199725919.719</v>
+        <v>-1.102715074589834e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>3363625290542.472</v>
+        <v>3.841975873408863e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>6115909177820.515</v>
+        <v>6.985669768881203e-06</v>
       </c>
       <c r="G138" t="n">
-        <v>7705935208154.146</v>
+        <v>8.801817859529594e-06</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6970246594563216</v>
+        <v>0.6970245388433153</v>
       </c>
       <c r="I138" t="n">
-        <v>0.951695333847952</v>
+        <v>0.9516953486808254</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1742561648640804</v>
+        <v>0.1742561347108288</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>89403147660786.59</v>
+        <v>0.0001021174200618176</v>
       </c>
       <c r="C139" t="n">
-        <v>19247874568754.05</v>
+        <v>2.198516907308505e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>-2566830908391.281</v>
+        <v>-2.931867056215823e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>2385808807873.293</v>
+        <v>2.725101368617995e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>4429709384773.549</v>
+        <v>5.059670779185241e-06</v>
       </c>
       <c r="G139" t="n">
-        <v>5495473079388.382</v>
+        <v>6.276999716791209e-06</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5869308393240023</v>
+        <v>0.5869308421622026</v>
       </c>
       <c r="I139" t="n">
-        <v>0.964504837299163</v>
+        <v>0.9645048369886217</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1467327098310006</v>
+        <v>0.1467327105405506</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>72465277565398.97</v>
+        <v>8.277076788107198e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>14522592067995.77</v>
+        <v>1.65878906035639e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>5725905489220.328</v>
+        <v>6.540202605112783e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>2092434819763.496</v>
+        <v>2.390005843298764e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>4005844608154.825</v>
+        <v>4.575527002007631e-06</v>
       </c>
       <c r="G140" t="n">
-        <v>4915362769118.457</v>
+        <v>5.614390292958853e-06</v>
       </c>
       <c r="H140" t="n">
-        <v>1.708753016597836</v>
+        <v>1.708753063642686</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7891270197137639</v>
+        <v>0.789127011161514</v>
       </c>
       <c r="J140" t="n">
-        <v>0.427188254149459</v>
+        <v>0.4271882659106714</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>59178085314862.94</v>
+        <v>6.759396677206918e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>13170537574204.32</v>
+        <v>1.504355665209008e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>-344339864586.25</v>
+        <v>-3.933094116028872e-07</v>
       </c>
       <c r="E141" t="n">
-        <v>1612837471487.559</v>
+        <v>1.842203611044869e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>3041948192113.447</v>
+        <v>3.474552174735898e-06</v>
       </c>
       <c r="G141" t="n">
-        <v>3708566037460.505</v>
+        <v>4.23597161333376e-06</v>
       </c>
       <c r="H141" t="n">
-        <v>1.147605236203697</v>
+        <v>1.147605237430429</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8866474159629933</v>
+        <v>0.8866474157647115</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2869013090509244</v>
+        <v>0.2869013093576073</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>49979104080287.42</v>
+        <v>5.708677261999796e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>12082200516015.37</v>
+        <v>1.380044412381002e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>376796689089.6562</v>
+        <v>4.30382016830449e-07</v>
       </c>
       <c r="E142" t="n">
-        <v>1476975751273.085</v>
+        <v>1.687020614101144e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>2738042420295.958</v>
+        <v>3.127427109785599e-06</v>
       </c>
       <c r="G142" t="n">
-        <v>3422890948079.646</v>
+        <v>3.909669865965769e-06</v>
       </c>
       <c r="H142" t="n">
-        <v>2.80918939208376</v>
+        <v>2.809189392977982</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5902475037058249</v>
+        <v>0.5902475035516697</v>
       </c>
       <c r="J142" t="n">
-        <v>0.70229734802094</v>
+        <v>0.7022973482444955</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>55473840461636.96</v>
+        <v>6.336293085108886e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>10911079604056.05</v>
+        <v>1.246277484920221e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>3685498310450.562</v>
+        <v>4.209623351781962e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>1653105832600.909</v>
+        <v>1.888198649000581e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>3115549981171.545</v>
+        <v>3.558621080536556e-06</v>
       </c>
       <c r="G143" t="n">
-        <v>3833463880052.26</v>
+        <v>4.378631527598647e-06</v>
       </c>
       <c r="H143" t="n">
-        <v>1.065723406873416</v>
+        <v>1.065723412776668</v>
       </c>
       <c r="I143" t="n">
-        <v>0.8996717353970096</v>
+        <v>0.8996717344738923</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2664308517183541</v>
+        <v>0.2664308531941671</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>208288347225201.8</v>
+        <v>0.0002379096170875561</v>
       </c>
       <c r="C144" t="n">
-        <v>52648492893574.2</v>
+        <v>6.013578288047554e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>-7127312928354.438</v>
+        <v>-8.140908245129997e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>5406977609063.819</v>
+        <v>6.175919049113167e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>10004301602464.69</v>
+        <v>1.142704138432673e-05</v>
       </c>
       <c r="G144" t="n">
-        <v>12401547885722.42</v>
+        <v>1.416520676981649e-05</v>
       </c>
       <c r="H144" t="n">
-        <v>1.164950218251112</v>
+        <v>1.164950222063271</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8838349313314193</v>
+        <v>0.8838349307113321</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2912375545627779</v>
+        <v>0.2912375555158179</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>394329078688168</v>
+        <v>0.0004504077225360982</v>
       </c>
       <c r="C145" t="n">
-        <v>95342330029555.56</v>
+        <v>0.0001089012303832646</v>
       </c>
       <c r="D145" t="n">
-        <v>10700478366206.81</v>
+        <v>1.222222354179152e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>9092503811439.889</v>
+        <v>1.038557427293634e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>16760921804540.58</v>
+        <v>1.914453948885556e-05</v>
       </c>
       <c r="G145" t="n">
-        <v>21318676454361.75</v>
+        <v>2.435046521365003e-05</v>
       </c>
       <c r="H145" t="n">
-        <v>1.470440055565962</v>
+        <v>1.470440058288392</v>
       </c>
       <c r="I145" t="n">
-        <v>0.8318644224222197</v>
+        <v>0.8318644219424397</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3676100138914904</v>
+        <v>0.367610014572098</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>438172222589403.4</v>
+        <v>0.0005004859231322117</v>
       </c>
       <c r="C146" t="n">
-        <v>108134791461082.7</v>
+        <v>0.0001235129432038326</v>
       </c>
       <c r="D146" t="n">
-        <v>12045252174485</v>
+        <v>1.375824122508754e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>10327069980288.19</v>
+        <v>1.179571155928384e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>19088164688076.77</v>
+        <v>2.180274611221535e-05</v>
       </c>
       <c r="G146" t="n">
-        <v>24083760271221.7</v>
+        <v>2.750877936974983e-05</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8024327222310357</v>
+        <v>0.8024327033377259</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9381216267473841</v>
+        <v>0.9381216292849108</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2006081805577589</v>
+        <v>0.2006081758344315</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>461572760340374.9</v>
+        <v>0.000527214316825175</v>
       </c>
       <c r="C147" t="n">
-        <v>112980671816695.1</v>
+        <v>0.0001290479702077396</v>
       </c>
       <c r="D147" t="n">
-        <v>224892855559.75</v>
+        <v>2.568754758146925e-07</v>
       </c>
       <c r="E147" t="n">
-        <v>11040923524765.45</v>
+        <v>1.261108422251219e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>20262236437027.31</v>
+        <v>2.314378588617886e-05</v>
       </c>
       <c r="G147" t="n">
-        <v>25697563317937.2</v>
+        <v>2.935208585997117e-05</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5886102973099089</v>
+        <v>0.5886102780637639</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9643208939215485</v>
+        <v>0.9643208960316169</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1471525743274772</v>
+        <v>0.147152569515941</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>452005989064727</v>
+        <v>0.0005162870281401409</v>
       </c>
       <c r="C148" t="n">
-        <v>112083276417774.8</v>
+        <v>0.0001280229532798355</v>
       </c>
       <c r="D148" t="n">
-        <v>1297644011434.125</v>
+        <v>1.482186008713664e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>10808148551999.85</v>
+        <v>1.234520566069473e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>19768371068471.16</v>
+        <v>2.25796865490587e-05</v>
       </c>
       <c r="G148" t="n">
-        <v>25109387813271.41</v>
+        <v>2.868026425798717e-05</v>
       </c>
       <c r="H148" t="n">
-        <v>1.149018927350498</v>
+        <v>1.149018953193694</v>
       </c>
       <c r="I148" t="n">
-        <v>0.8864188552098906</v>
+        <v>0.8864188510305563</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2872547318376246</v>
+        <v>0.2872547382984235</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>451106548554193.6</v>
+        <v>0.0005152596757638751</v>
       </c>
       <c r="C149" t="n">
-        <v>102958579381282.8</v>
+        <v>0.0001176006072901273</v>
       </c>
       <c r="D149" t="n">
-        <v>73589188566</v>
+        <v>8.405523002120736e-08</v>
       </c>
       <c r="E149" t="n">
-        <v>10775482240767.02</v>
+        <v>1.230789379332288e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>19767040928410.86</v>
+        <v>2.257816725783146e-05</v>
       </c>
       <c r="G149" t="n">
-        <v>25010846417365.27</v>
+        <v>2.856770902858072e-05</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6820839162507173</v>
+        <v>0.6820838844623662</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9535198218600458</v>
+        <v>0.9535198257142362</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1705209790626793</v>
+        <v>0.1705209711155916</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>557768344071548.9</v>
+        <v>0.0006370901440849822</v>
       </c>
       <c r="C150" t="n">
-        <v>138287052967271.2</v>
+        <v>0.0001579532424299979</v>
       </c>
       <c r="D150" t="n">
-        <v>-4561811308155.125</v>
+        <v>-5.210559310097436e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>13144635988379.48</v>
+        <v>1.501397153528914e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>24190476684970.31</v>
+        <v>2.763067219551975e-05</v>
       </c>
       <c r="G150" t="n">
-        <v>30791262058125.67</v>
+        <v>3.517017377787125e-05</v>
       </c>
       <c r="H150" t="n">
-        <v>1.019568830669103</v>
+        <v>1.019568827139817</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9068143405629178</v>
+        <v>0.9068143411032324</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2548922076672757</v>
+        <v>0.2548922067849543</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>583162975104215</v>
+        <v>0.0006660962170282508</v>
       </c>
       <c r="C151" t="n">
-        <v>135902513622683.7</v>
+        <v>0.0001552295915879662</v>
       </c>
       <c r="D151" t="n">
-        <v>-9198194134881.875</v>
+        <v>-1.050629525468645e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>13638006190949.23</v>
+        <v>1.557750529474422e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>24854598888816</v>
+        <v>2.838924109402518e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>31674734501783.27</v>
+        <v>3.61792873164837e-05</v>
       </c>
       <c r="H151" t="n">
-        <v>1.152038702665065</v>
+        <v>1.152038700819102</v>
       </c>
       <c r="I151" t="n">
-        <v>0.8859302277392622</v>
+        <v>0.8859302280381223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2880096756662662</v>
+        <v>0.2880096752047755</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>581656399471979.8</v>
+        <v>0.0006643753868759688</v>
       </c>
       <c r="C152" t="n">
-        <v>126220178163043.6</v>
+        <v>0.0001441703037328562</v>
       </c>
       <c r="D152" t="n">
-        <v>5283567589132</v>
+        <v>6.034958531642111e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>13671268083074.77</v>
+        <v>1.561549745594235e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>25212349713719.47</v>
+        <v>2.879786866860312e-05</v>
       </c>
       <c r="G152" t="n">
-        <v>31708955595291.3</v>
+        <v>3.621837510234836e-05</v>
       </c>
       <c r="H152" t="n">
-        <v>1.450316064529328</v>
+        <v>1.450316050602054</v>
       </c>
       <c r="I152" t="n">
-        <v>0.8354043890766223</v>
+        <v>0.8354043915219476</v>
       </c>
       <c r="J152" t="n">
-        <v>0.362579016132332</v>
+        <v>0.3625790126505136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>589308804701255</v>
+        <v>0.0006731160622428691</v>
       </c>
       <c r="C153" t="n">
-        <v>158717511789686.4</v>
+        <v>0.0001812891740362602</v>
       </c>
       <c r="D153" t="n">
-        <v>2718778171882.125</v>
+        <v>3.10542351286908e-06</v>
       </c>
       <c r="E153" t="n">
-        <v>13697042275500.73</v>
+        <v>1.564493706530242e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>25060650306647.99</v>
+        <v>2.862459567110399e-05</v>
       </c>
       <c r="G153" t="n">
-        <v>32235042934601.54</v>
+        <v>3.681927878051233e-05</v>
       </c>
       <c r="H153" t="n">
-        <v>1.932006723539186</v>
+        <v>1.932006720738043</v>
       </c>
       <c r="I153" t="n">
-        <v>0.7482630961037771</v>
+        <v>0.7482630966187138</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4830016808847965</v>
+        <v>0.4830016801845108</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>595402809464343.8</v>
+        <v>0.0006800767124307872</v>
       </c>
       <c r="C154" t="n">
-        <v>142313188124359.5</v>
+        <v>0.0001625519458165021</v>
       </c>
       <c r="D154" t="n">
-        <v>13642843068885.38</v>
+        <v>1.558303032488735e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>13938217179947.86</v>
+        <v>1.592041012706686e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>25843454999444.86</v>
+        <v>2.951872520189742e-05</v>
       </c>
       <c r="G154" t="n">
-        <v>32928867709610.92</v>
+        <v>3.761177432486503e-05</v>
       </c>
       <c r="H154" t="n">
-        <v>3.506838840074939</v>
+        <v>3.506838850916854</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4768392460346808</v>
+        <v>0.4768392443885611</v>
       </c>
       <c r="J154" t="n">
-        <v>0.8767097100187348</v>
+        <v>0.8767097127292134</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>587921992411044</v>
+        <v>0.0006715320273751088</v>
       </c>
       <c r="C155" t="n">
-        <v>128677503006753.5</v>
+        <v>0.0001469770914013335</v>
       </c>
       <c r="D155" t="n">
-        <v>12007070909178.38</v>
+        <v>1.371463023767006e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>13756669983336.44</v>
+        <v>1.571304459365193e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>25361368495855.16</v>
+        <v>2.896807981100945e-05</v>
       </c>
       <c r="G155" t="n">
-        <v>32027030387751.93</v>
+        <v>3.658168417835028e-05</v>
       </c>
       <c r="H155" t="n">
-        <v>1.393213035736243</v>
+        <v>1.393213040125705</v>
       </c>
       <c r="I155" t="n">
-        <v>0.8453737618025872</v>
+        <v>0.8453737610407952</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3483032589340608</v>
+        <v>0.3483032600314263</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>577441423189926.4</v>
+        <v>0.000659560987063785</v>
       </c>
       <c r="C156" t="n">
-        <v>125465231228885.1</v>
+        <v>0.0001433079938547368</v>
       </c>
       <c r="D156" t="n">
-        <v>4180835857212.75</v>
+        <v>4.775404694777738e-06</v>
       </c>
       <c r="E156" t="n">
-        <v>13389740125518.11</v>
+        <v>1.529393261142999e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>24575285363052.18</v>
+        <v>2.807020558819879e-05</v>
       </c>
       <c r="G156" t="n">
-        <v>31185347099490.25</v>
+        <v>3.562030273643622e-05</v>
       </c>
       <c r="H156" t="n">
-        <v>0.9129662476666628</v>
+        <v>0.9129662383474881</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9226932745746496</v>
+        <v>0.922693275922135</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2282415619166657</v>
+        <v>0.228241559586872</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>482269122227783</v>
+        <v>0.0005508539665188287</v>
       </c>
       <c r="C157" t="n">
-        <v>112876467354509.3</v>
+        <v>0.0001289289464024286</v>
       </c>
       <c r="D157" t="n">
-        <v>4028375898473.625</v>
+        <v>4.601262104897159e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>11079661094127.04</v>
+        <v>1.26553307693197e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>20340260397207.65</v>
+        <v>2.323290585016878e-05</v>
       </c>
       <c r="G157" t="n">
-        <v>25833560394202.51</v>
+        <v>2.95074234615803e-05</v>
       </c>
       <c r="H157" t="n">
-        <v>0.9501128286841098</v>
+        <v>0.9501128243794994</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9172637932291539</v>
+        <v>0.9172637938649745</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2375282071710275</v>
+        <v>0.2375282060948748</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>354999723379331.7</v>
+        <v>0.0004054852294850713</v>
       </c>
       <c r="C158" t="n">
-        <v>82085419788368</v>
+        <v>9.375901795406693e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>-3897811620515.5</v>
+        <v>-4.452130682342501e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>8556157518340.444</v>
+        <v>9.772952663213757e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>15789928094428.65</v>
+        <v>1.803545803165531e-05</v>
       </c>
       <c r="G158" t="n">
-        <v>19887266705045.95</v>
+        <v>2.271549064352075e-05</v>
       </c>
       <c r="H158" t="n">
-        <v>1.380436739983524</v>
+        <v>1.380436755735474</v>
       </c>
       <c r="I158" t="n">
-        <v>0.847587977893674</v>
+        <v>0.8475879751676303</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3451091849958811</v>
+        <v>0.3451091889338685</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>258226756034263.6</v>
+        <v>0.0002949499070472892</v>
       </c>
       <c r="C159" t="n">
-        <v>51360718870142.53</v>
+        <v>5.866487101909503e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>5375695387238.312</v>
+        <v>6.1401880507447e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>6112219399208.492</v>
+        <v>6.981455263478608e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>11362616502679.26</v>
+        <v>1.297852604897173e-05</v>
       </c>
       <c r="G159" t="n">
-        <v>14107245932237.41</v>
+        <v>1.611347691980869e-05</v>
       </c>
       <c r="H159" t="n">
-        <v>0.7157061436167418</v>
+        <v>0.7157061359728369</v>
       </c>
       <c r="I159" t="n">
-        <v>0.9493780024621751</v>
+        <v>0.9493780034184359</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1789265359041854</v>
+        <v>0.1789265339932092</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>269739738754870.7</v>
+        <v>0.0003081001836791955</v>
       </c>
       <c r="C160" t="n">
-        <v>67372136003137.62</v>
+        <v>7.695331638531201e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>7747785113644.562</v>
+        <v>8.849619284403228e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>6609450129918.681</v>
+        <v>7.549398572317362e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>12316956592985.06</v>
+        <v>1.406858553670258e-05</v>
       </c>
       <c r="G160" t="n">
-        <v>15585775674591.77</v>
+        <v>1.780227256316892e-05</v>
       </c>
       <c r="H160" t="n">
-        <v>4.164975979124094</v>
+        <v>4.164975932266454</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3841389550107511</v>
+        <v>0.3841389610909792</v>
       </c>
       <c r="J160" t="n">
-        <v>1.041243994781023</v>
+        <v>1.041243983066614</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>207442943080650.2</v>
+        <v>0.0002369439858325341</v>
       </c>
       <c r="C161" t="n">
-        <v>51692910842682.06</v>
+        <v>5.904430460857264e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>904508233643.375</v>
+        <v>1.033140701539451e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>4972416245030.759</v>
+        <v>5.679557498405909e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>9282447506439.26</v>
+        <v>1.060253038669508e-05</v>
       </c>
       <c r="G161" t="n">
-        <v>11594277139570.85</v>
+        <v>1.324313179352635e-05</v>
       </c>
       <c r="H161" t="n">
-        <v>0.3846991048594008</v>
+        <v>0.3846991072981209</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9837103568126067</v>
+        <v>0.9837103566191041</v>
       </c>
       <c r="J161" t="n">
-        <v>0.09617477621485021</v>
+        <v>0.09617477682453023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>207344333306703</v>
+        <v>0.0002368313524859272</v>
       </c>
       <c r="C162" t="n">
-        <v>44917651146481.41</v>
+        <v>5.130551594164994e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>4174331261407.375</v>
+        <v>4.767974445310768e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>5026236686578.706</v>
+        <v>5.741031900819886e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>9360565581795.656</v>
+        <v>1.06917578697525e-05</v>
       </c>
       <c r="G162" t="n">
-        <v>11635078480084.62</v>
+        <v>1.328973561771624e-05</v>
       </c>
       <c r="H162" t="n">
-        <v>0.2658182287631154</v>
+        <v>0.2658182213673975</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9919125286599531</v>
+        <v>0.9919125290902649</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06645455719077886</v>
+        <v>0.06645455534184938</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>200809830766511</v>
+        <v>0.0002293675599069072</v>
       </c>
       <c r="C163" t="n">
-        <v>50902191594572.48</v>
+        <v>5.814113494761626e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>-3556657829550.906</v>
+        <v>-4.062460312598303e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>4820327393424.592</v>
+        <v>5.505839670840822e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>8869810074553.66</v>
+        <v>1.01312106370479e-05</v>
       </c>
       <c r="G163" t="n">
-        <v>11176672656242.02</v>
+        <v>1.276613861423964e-05</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1748355925487115</v>
+        <v>0.1748355914395164</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9963946102983001</v>
+        <v>0.9963946103427236</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04370889813717788</v>
+        <v>0.04370889785987911</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>184261027621349.4</v>
+        <v>0.0002104653051077955</v>
       </c>
       <c r="C164" t="n">
-        <v>39041681141845.92</v>
+        <v>4.459390844572579e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>-1045453070629.781</v>
+        <v>-1.194129965294104e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>4475332046377.64</v>
+        <v>5.111781570519635e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>8298960365148.001</v>
+        <v>9.479178799875315e-06</v>
       </c>
       <c r="G164" t="n">
-        <v>10340806604589.38</v>
+        <v>1.181140172256926e-05</v>
       </c>
       <c r="H164" t="n">
-        <v>0.06891070190364663</v>
+        <v>0.06891070560161436</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9994198746308094</v>
+        <v>0.9994198745692597</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01722767547591166</v>
+        <v>0.01722767640040359</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>171747027829077.8</v>
+        <v>0.0001961716543723429</v>
       </c>
       <c r="C165" t="n">
-        <v>36771539737339.39</v>
+        <v>4.200092368678779e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>-5673988065066.531</v>
+        <v>-6.480902318262811e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>4274647438655.415</v>
+        <v>4.882557035887978e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>7860944204802.096</v>
+        <v>8.978871119792336e-06</v>
       </c>
       <c r="G165" t="n">
-        <v>9844868713410.279</v>
+        <v>1.124493509734767e-05</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6295124226373366</v>
+        <v>0.6295123872953128</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9597283977996236</v>
+        <v>0.9597284018597433</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1573781056593342</v>
+        <v>0.1573780968238282</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>163708974464773.2</v>
+        <v>0.0001869904868837698</v>
       </c>
       <c r="C166" t="n">
-        <v>38687371074183.27</v>
+        <v>4.41892105483694e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>368148330745.1875</v>
+        <v>4.205038282055549e-07</v>
       </c>
       <c r="E166" t="n">
-        <v>4258962302309.416</v>
+        <v>4.864641267779169e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>7924371650847.123</v>
+        <v>9.051318757660663e-06</v>
       </c>
       <c r="G166" t="n">
-        <v>9953971345627.848</v>
+        <v>1.136955350741539e-05</v>
       </c>
       <c r="H166" t="n">
-        <v>3.521450457238643</v>
+        <v>3.521450582901832</v>
       </c>
       <c r="I166" t="n">
-        <v>0.4746242600677978</v>
+        <v>0.4746242410484153</v>
       </c>
       <c r="J166" t="n">
-        <v>0.8803626143096608</v>
+        <v>0.880362645725458</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>156366208156073.8</v>
+        <v>0.0001786034852003999</v>
       </c>
       <c r="C167" t="n">
-        <v>35655356403117.02</v>
+        <v>4.072600460945681e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>1348709118221.719</v>
+        <v>1.540512584633663e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>3812630050366.769</v>
+        <v>4.35483485543111e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>7074345677004.693</v>
+        <v>8.080408200182815e-06</v>
       </c>
       <c r="G167" t="n">
-        <v>8907263655590.307</v>
+        <v>1.017399057012985e-05</v>
       </c>
       <c r="H167" t="n">
-        <v>1.646361308721348</v>
+        <v>1.646361240372068</v>
       </c>
       <c r="I167" t="n">
-        <v>0.8004365070678522</v>
+        <v>0.8004365194186863</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4115903271803371</v>
+        <v>0.411590310093017</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>131836463327140</v>
+        <v>0.0001505852964449694</v>
       </c>
       <c r="C168" t="n">
-        <v>28274616773526.07</v>
+        <v>3.229562935508012e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>-2304777089059.25</v>
+        <v>-2.632546185891272e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>3269081957548.205</v>
+        <v>3.733987269229029e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>5982771215030.503</v>
+        <v>6.833597885074318e-06</v>
       </c>
       <c r="G168" t="n">
-        <v>7532481263168.562</v>
+        <v>8.603696546204877e-06</v>
       </c>
       <c r="H168" t="n">
-        <v>1.4424442275295</v>
+        <v>1.442444245492932</v>
       </c>
       <c r="I168" t="n">
-        <v>0.8367854746862677</v>
+        <v>0.8367854715370291</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3606110568823749</v>
+        <v>0.3606110613732329</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>118462152815165.3</v>
+        <v>0.0001353089877302645</v>
       </c>
       <c r="C169" t="n">
-        <v>24319038676456.48</v>
+        <v>2.777751723249941e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>5027262164939.125</v>
+        <v>5.742203627694662e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>2889549259796.113</v>
+        <v>3.300480161443944e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>5380108538311.166</v>
+        <v>6.145228858599418e-06</v>
       </c>
       <c r="G169" t="n">
-        <v>6718839925443.961</v>
+        <v>7.674344989834468e-06</v>
       </c>
       <c r="H169" t="n">
-        <v>0.716266386190513</v>
+        <v>0.7162663041077261</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9493078978873364</v>
+        <v>0.949307908161143</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1790665965476282</v>
+        <v>0.1790665760269315</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>75546294054179.7</v>
+        <v>8.628994435739832e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>17802010001955.61</v>
+        <v>2.033368367950261e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>1960728869792.234</v>
+        <v>2.239569498657315e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>2137383748682.563</v>
+        <v>2.441347085037138e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>3998734024921.417</v>
+        <v>4.567405203859397e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>4979988838792.641</v>
+        <v>5.688207016888611e-06</v>
       </c>
       <c r="H170" t="n">
-        <v>1.908179999787922</v>
+        <v>1.908180001998264</v>
       </c>
       <c r="I170" t="n">
-        <v>0.7526421564138199</v>
+        <v>0.752642156007692</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4770449999469806</v>
+        <v>0.4770450004995661</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>55608679565638.44</v>
+        <v>6.351694583518737e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>11544029557841.33</v>
+        <v>1.318573837359098e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>3501775934739.297</v>
+        <v>3.999773291090721e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>1497763699150.535</v>
+        <v>1.710764874932582e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>2812657625688.642</v>
+        <v>3.212653554240884e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>3518867516612.508</v>
+        <v>4.019295534171399e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>4.236657805034254</v>
+        <v>4.236657801232716</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3749241079276779</v>
+        <v>0.374924108411788</v>
       </c>
       <c r="J171" t="n">
-        <v>1.059164451258563</v>
+        <v>1.059164450308179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>61120760268883.2</v>
+        <v>6.981291499272825e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>13056134499926.78</v>
+        <v>1.49128840011757e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>5063292635522.5</v>
+        <v>5.783357652407536e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>1702322519542.132</v>
+        <v>1.944414579462254e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>3242459702015.199</v>
+        <v>3.703578990433282e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>4011489114603.85</v>
+        <v>4.581974232028088e-06</v>
       </c>
       <c r="H172" t="n">
-        <v>4.560300991440101</v>
+        <v>4.560300950880881</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3354571027050164</v>
+        <v>0.3354571074339839</v>
       </c>
       <c r="J172" t="n">
-        <v>1.140075247860025</v>
+        <v>1.14007523772022</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>82292629708484.28</v>
+        <v>9.399569529924109e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>15234946392253.88</v>
+        <v>1.740155074683329e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>1635569102243.266</v>
+        <v>1.868168113806137e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>2510076831003.055</v>
+        <v>2.867041896384136e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>4622505895890.832</v>
+        <v>5.279885421165496e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>5787286667522.97</v>
+        <v>6.610312934021591e-06</v>
       </c>
       <c r="H173" t="n">
-        <v>1.743374018470607</v>
+        <v>1.743373993159281</v>
       </c>
       <c r="I173" t="n">
-        <v>0.7828244256042904</v>
+        <v>0.7828244302182801</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4358435046176516</v>
+        <v>0.4358434982898202</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>106648790383300.2</v>
+        <v>0.0001218156140864119</v>
       </c>
       <c r="C174" t="n">
-        <v>23371146976449.83</v>
+        <v>2.669482359670265e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>1619267483853.906</v>
+        <v>1.849547860141289e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>2833556791173.545</v>
+        <v>3.236524847656474e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>5166326857039.408</v>
+        <v>5.901044685386487e-06</v>
       </c>
       <c r="G174" t="n">
-        <v>6498560332140.438</v>
+        <v>7.422738819575455e-06</v>
       </c>
       <c r="H174" t="n">
-        <v>1.61602570031922</v>
+        <v>1.616025729916849</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8059089719943776</v>
+        <v>0.8059089666643475</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4040064250798051</v>
+        <v>0.4040064324792123</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>117228512018284.7</v>
+        <v>0.0001338999073151358</v>
       </c>
       <c r="C175" t="n">
-        <v>22354594086893.8</v>
+        <v>2.553370393931152e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>4044859982648.812</v>
+        <v>4.620090784159534e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>3541150706099.072</v>
+        <v>4.044747680089972e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>6486851156348.349</v>
+        <v>7.409364449103066e-06</v>
       </c>
       <c r="G175" t="n">
-        <v>8129831458964.448</v>
+        <v>9.285997596628853e-06</v>
       </c>
       <c r="H175" t="n">
-        <v>3.433804848562487</v>
+        <v>3.433804674203692</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4880145746358506</v>
+        <v>0.488014601521358</v>
       </c>
       <c r="J175" t="n">
-        <v>0.8584512121406217</v>
+        <v>0.858451168550923</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>160695439738095.8</v>
+        <v>0.0001835483887332382</v>
       </c>
       <c r="C176" t="n">
-        <v>30573445559121.08</v>
+        <v>3.492138081155841e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>11514754830305.62</v>
+        <v>1.315230068345014e-05</v>
       </c>
       <c r="E176" t="n">
-        <v>5096050877879.715</v>
+        <v>5.820774556739693e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>9426754718176.627</v>
+        <v>1.076735992116958e-05</v>
       </c>
       <c r="G176" t="n">
-        <v>11734911399726.32</v>
+        <v>1.340376603914696e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>1.835678677416531</v>
+        <v>1.835678763581027</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7659486632319815</v>
+        <v>0.7659486474394244</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4589196693541328</v>
+        <v>0.4589196908952566</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>241425918098506.9</v>
+        <v>0.0002757597748727502</v>
       </c>
       <c r="C177" t="n">
-        <v>49993743868772.25</v>
+        <v>5.710349475651161e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>7247280272395.938</v>
+        <v>8.277935929058107e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>6896544347187.64</v>
+        <v>7.877321259963538e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>12650716585086.76</v>
+        <v>1.444981047095573e-05</v>
       </c>
       <c r="G177" t="n">
-        <v>15916377136727.22</v>
+        <v>1.817988977827074e-05</v>
       </c>
       <c r="H177" t="n">
-        <v>1.681252315881371</v>
+        <v>1.681252243296522</v>
       </c>
       <c r="I177" t="n">
-        <v>0.7941202816522503</v>
+        <v>0.7941202948147866</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4203130789703428</v>
+        <v>0.4203130608241304</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>287007641816055.4</v>
+        <v>0.0003278238036143371</v>
       </c>
       <c r="C178" t="n">
-        <v>55939220307086.44</v>
+        <v>6.389449352886819e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>7084105142107.25</v>
+        <v>8.091555286774354e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>8487292726398.383</v>
+        <v>9.694294418428982e-06</v>
       </c>
       <c r="F178" t="n">
-        <v>15537811554806.48</v>
+        <v>1.77474873070335e-05</v>
       </c>
       <c r="G178" t="n">
-        <v>19581691992565.8</v>
+        <v>2.236645931662027e-05</v>
       </c>
       <c r="H178" t="n">
-        <v>3.445086431413239</v>
+        <v>3.445086456260426</v>
       </c>
       <c r="I178" t="n">
-        <v>0.486277044800177</v>
+        <v>0.4862770409778634</v>
       </c>
       <c r="J178" t="n">
-        <v>0.8612716078533097</v>
+        <v>0.8612716140651064</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>351470626002505.8</v>
+        <v>0.0004014542491366684</v>
       </c>
       <c r="C179" t="n">
-        <v>79093946637998.78</v>
+        <v>9.034211887907332e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>10054626357289.5</v>
+        <v>1.148452274817946e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>9836570527898.961</v>
+        <v>1.12354568104308e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>18072994972943.04</v>
+        <v>2.064320626261533e-05</v>
       </c>
       <c r="G179" t="n">
-        <v>22743347952784.45</v>
+        <v>2.597774324528387e-05</v>
       </c>
       <c r="H179" t="n">
-        <v>1.134156761065035</v>
+        <v>1.134156736376662</v>
       </c>
       <c r="I179" t="n">
-        <v>0.8888156801095761</v>
+        <v>0.8888156840799056</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2835391902662588</v>
+        <v>0.2835391840941655</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>470983308249555.4</v>
+        <v>0.0005352945659019833</v>
       </c>
       <c r="C180" t="n">
-        <v>130452542161762.9</v>
+        <v>0.0001481898970989899</v>
       </c>
       <c r="D180" t="n">
-        <v>31416823774472.12</v>
+        <v>1.80658689549483e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>12415450100914.65</v>
+        <v>9.539155909120014e-06</v>
       </c>
       <c r="F180" t="n">
-        <v>22971521467781.34</v>
+        <v>1.762556364337627e-05</v>
       </c>
       <c r="G180" t="n">
-        <v>29203639312201.67</v>
+        <v>2.244280561238348e-05</v>
       </c>
       <c r="H180" t="n">
-        <v>2.033518683175395</v>
+        <v>3.642641084303811</v>
       </c>
       <c r="I180" t="n">
-        <v>0.7295937513379211</v>
+        <v>0.9792303085786227</v>
       </c>
       <c r="J180" t="n">
-        <v>0.5083796707938487</v>
+        <v>0.3311491894821646</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>466773114290185</v>
+        <v>0.0008043887376760488</v>
       </c>
       <c r="C181" t="n">
-        <v>129162329786877.9</v>
+        <v>0.0001891092954111544</v>
       </c>
       <c r="D181" t="n">
-        <v>3215635590623.25</v>
+        <v>1.701360213164811e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>11288150561944.71</v>
+        <v>2.067098158059563e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>20833436598163.91</v>
+        <v>3.819952767416391e-05</v>
       </c>
       <c r="G181" t="n">
-        <v>26562298792923.64</v>
+        <v>4.816481842843353e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6048591418013983</v>
+        <v>0.7833353606181839</v>
       </c>
       <c r="I181" t="n">
-        <v>0.9625221982565922</v>
+        <v>0.9406681274560214</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1512147854503496</v>
+        <v>0.195833840154546</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>704237191974450.9</v>
+        <v>0.001032920282118864</v>
       </c>
       <c r="C182" t="n">
-        <v>165563978489230.7</v>
+        <v>0.0002292170838564877</v>
       </c>
       <c r="D182" t="n">
-        <v>14895300642251.88</v>
+        <v>1.72439364680818e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>18097312081496.26</v>
+        <v>2.633447603935776e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>33443442019831.79</v>
+        <v>4.810211090651803e-05</v>
       </c>
       <c r="G182" t="n">
-        <v>42167990294278.55</v>
+        <v>6.139627970975227e-05</v>
       </c>
       <c r="H182" t="n">
-        <v>0.7833354240085636</v>
+        <v>5.444152783282073</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9406681190650548</v>
+        <v>0.2446822841789494</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1958338560021409</v>
+        <v>1.361038195820518</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>904315095361661.2</v>
+        <v>0.0013449249885156</v>
       </c>
       <c r="C183" t="n">
-        <v>200678090435469.3</v>
+        <v>0.0002668016285886763</v>
       </c>
       <c r="D183" t="n">
-        <v>15096959141305</v>
+        <v>9.380368565280596e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>23055665241270.73</v>
+        <v>3.129582877008734e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>42113090251099.9</v>
+        <v>5.801221003497977e-05</v>
       </c>
       <c r="G183" t="n">
-        <v>53752049970465.41</v>
+        <v>7.382246495484416e-05</v>
       </c>
       <c r="H183" t="n">
-        <v>5.444152860255944</v>
+        <v>4.995729794957</v>
       </c>
       <c r="I183" t="n">
-        <v>0.2446822772919369</v>
+        <v>0.2877359256174082</v>
       </c>
       <c r="J183" t="n">
-        <v>1.361038215063986</v>
+        <v>1.24893244873925</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>1177473220068922</v>
+        <v>0.001581216924535594</v>
       </c>
       <c r="C184" t="n">
-        <v>233583120703158.8</v>
+        <v>0.0004402218901301785</v>
       </c>
       <c r="D184" t="n">
-        <v>82124523437428.75</v>
+        <v>3.630929832464233e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>27399297789840.27</v>
+        <v>3.633916578686647e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>50789318612298.02</v>
+        <v>6.715734334813202e-05</v>
       </c>
       <c r="G184" t="n">
-        <v>64631095599871.48</v>
+        <v>8.607278587602283e-05</v>
       </c>
       <c r="H184" t="n">
-        <v>4.995729751454151</v>
+        <v>0.5058717913125842</v>
       </c>
       <c r="I184" t="n">
-        <v>0.2877359300867926</v>
+        <v>0.9729268477992089</v>
       </c>
       <c r="J184" t="n">
-        <v>1.248932437863538</v>
+        <v>0.126467947828146</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>1384345298487093</v>
+        <v>0.001539875358556875</v>
       </c>
       <c r="C185" t="n">
-        <v>385411450608747.9</v>
+        <v>0.0003618266808370206</v>
       </c>
       <c r="D185" t="n">
-        <v>31788557842195.25</v>
+        <v>4.476948593105565e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>31814707094339.13</v>
+        <v>3.436429859090065e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>58795824311516.66</v>
+        <v>6.277864838704136e-05</v>
       </c>
       <c r="G185" t="n">
-        <v>75356173144225.16</v>
+        <v>8.09816456954208e-05</v>
       </c>
       <c r="H185" t="n">
-        <v>0.5058718058373217</v>
+        <v>5.127570730770708</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9729268463728129</v>
+        <v>0.2744566152688669</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1264679514593304</v>
+        <v>1.281892682692677</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>1348151023147123</v>
+        <v>0.001517699344614204</v>
       </c>
       <c r="C186" t="n">
-        <v>316776942900043.9</v>
+        <v>0.0003944740209052062</v>
       </c>
       <c r="D186" t="n">
-        <v>39195397331873.25</v>
+        <v>1.25895925811529e-06</v>
       </c>
       <c r="E186" t="n">
-        <v>30085723482490.93</v>
+        <v>3.431432051645466e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>54962304862575.58</v>
+        <v>6.271385014492052e-05</v>
       </c>
       <c r="G186" t="n">
-        <v>70898912486172.5</v>
+        <v>8.05366882670083e-05</v>
       </c>
       <c r="H186" t="n">
-        <v>5.127570512958521</v>
+        <v>0.475406052443787</v>
       </c>
       <c r="I186" t="n">
-        <v>0.2744566367717167</v>
+        <v>0.9758506150594772</v>
       </c>
       <c r="J186" t="n">
-        <v>1.28189262823963</v>
+        <v>0.1188515131109468</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>1328736063142971</v>
+        <v>0.001426112228252969</v>
       </c>
       <c r="C187" t="n">
-        <v>345359481351358.6</v>
+        <v>0.000340966514457598</v>
       </c>
       <c r="D187" t="n">
-        <v>1102207229484.25</v>
+        <v>2.786949048655526e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>30041968011213.96</v>
+        <v>3.256269379613996e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>54905574456226.7</v>
+        <v>5.947876932853458e-05</v>
       </c>
       <c r="G187" t="n">
-        <v>70509355195580.22</v>
+        <v>7.656441923884219e-05</v>
       </c>
       <c r="H187" t="n">
-        <v>0.4754060362147591</v>
+        <v>4.951214332899334</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9758506165802492</v>
+        <v>0.2923399391885411</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1188515090536898</v>
+        <v>1.237803583224834</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>1248552128637073</v>
+        <v>0.001237099456439774</v>
       </c>
       <c r="C188" t="n">
-        <v>298514000268177.9</v>
+        <v>0.0002993326666977105</v>
       </c>
       <c r="D188" t="n">
-        <v>24399561942667.5</v>
+        <v>4.658419838103915e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>28508430021993.29</v>
+        <v>2.733138045271675e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>52073281904178.8</v>
+        <v>5.010127291058409e-05</v>
       </c>
       <c r="G188" t="n">
-        <v>67031659096697.91</v>
+        <v>6.448471465704328e-05</v>
       </c>
       <c r="H188" t="n">
-        <v>4.951214450643407</v>
+        <v>3.353535166986083</v>
       </c>
       <c r="I188" t="n">
-        <v>0.2923399269297329</v>
+        <v>0.5004950139134343</v>
       </c>
       <c r="J188" t="n">
-        <v>1.237803612660852</v>
+        <v>0.8383837917465207</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1083072656046490</v>
+        <v>0.001175125633196067</v>
       </c>
       <c r="C189" t="n">
-        <v>262063835338271.4</v>
+        <v>0.0002901439932637722</v>
       </c>
       <c r="D189" t="n">
-        <v>40784167592096.75</v>
+        <v>4.953432826619543e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>23928448667922.55</v>
+        <v>2.617066692579437e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>43863343789398.7</v>
+        <v>4.812329804447583e-05</v>
       </c>
       <c r="G189" t="n">
-        <v>56455954996150.19</v>
+        <v>6.196060412855452e-05</v>
       </c>
       <c r="H189" t="n">
-        <v>3.353535029678929</v>
+        <v>5.369042154745993</v>
       </c>
       <c r="I189" t="n">
-        <v>0.500495035437541</v>
+        <v>0.2514828391886629</v>
       </c>
       <c r="J189" t="n">
-        <v>0.8383837574197324</v>
+        <v>1.342260538686498</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1028814972055605</v>
+        <v>0.001008860858740865</v>
       </c>
       <c r="C190" t="n">
-        <v>254019207621954.8</v>
+        <v>0.0002642633414123939</v>
       </c>
       <c r="D190" t="n">
-        <v>43366984621184.25</v>
+        <v>3.469390769986419e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>22912251401855.68</v>
+        <v>2.253891541621544e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>42131639457712.61</v>
+        <v>4.135646794236585e-05</v>
       </c>
       <c r="G190" t="n">
-        <v>54246112376118.72</v>
+        <v>5.355980966535875e-05</v>
       </c>
       <c r="H190" t="n">
-        <v>5.369042360514571</v>
+        <v>5.381163206351322</v>
       </c>
       <c r="I190" t="n">
-        <v>0.2514828203372818</v>
+        <v>0.2503744851017359</v>
       </c>
       <c r="J190" t="n">
-        <v>1.342260590128643</v>
+        <v>1.34529080158783</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>883251224949459.5</v>
+        <v>0.0008024534651359256</v>
       </c>
       <c r="C191" t="n">
-        <v>231360862566307.5</v>
+        <v>0.0002171242436141347</v>
       </c>
       <c r="D191" t="n">
-        <v>30374293554574.88</v>
+        <v>2.460483651401659e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>19732676201813.98</v>
+        <v>1.801503001862242e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>36207323013975.8</v>
+        <v>3.317462110898932e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>46891270588908.95</v>
+        <v>4.299722710169772e-05</v>
       </c>
       <c r="H191" t="n">
-        <v>5.381163307400023</v>
+        <v>4.719491814286662</v>
       </c>
       <c r="I191" t="n">
-        <v>0.2503744758793741</v>
+        <v>0.317308574035001</v>
       </c>
       <c r="J191" t="n">
-        <v>1.345290826850006</v>
+        <v>1.179872953571665</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>702542873009887.2</v>
+        <v>0.0006745797409200737</v>
       </c>
       <c r="C192" t="n">
-        <v>190090885594008.1</v>
+        <v>0.0001597776529676879</v>
       </c>
       <c r="D192" t="n">
-        <v>21541375931513.88</v>
+        <v>3.425184853969403e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>15772043487224.39</v>
+        <v>1.533520754032583e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>29044168456392.01</v>
+        <v>2.847175427527611e-05</v>
       </c>
       <c r="G192" t="n">
-        <v>37643797141778.35</v>
+        <v>3.639892808517267e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>4.719491689119806</v>
+        <v>4.238883351026042</v>
       </c>
       <c r="I192" t="n">
-        <v>0.3173085879826165</v>
+        <v>0.3746407770961955</v>
       </c>
       <c r="J192" t="n">
-        <v>1.179872922279952</v>
+        <v>1.05972083775651</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>590590245812690.1</v>
+        <v>0.0005054053635821784</v>
       </c>
       <c r="C193" t="n">
-        <v>139884312697040.7</v>
+        <v>0.0001391863712107673</v>
       </c>
       <c r="D193" t="n">
-        <v>29987274408162.75</v>
+        <v>7.922738379944369e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>13425876053638.07</v>
+        <v>8.300525334340274e-06</v>
       </c>
       <c r="F193" t="n">
-        <v>24926838631178.17</v>
+        <v>1.540626457018738e-05</v>
       </c>
       <c r="G193" t="n">
-        <v>31867028579835.29</v>
+        <v>1.960826348453993e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>4.238883362222951</v>
+        <v>5.625952465930238</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3746407756711529</v>
+        <v>0.8971206158121876</v>
       </c>
       <c r="J193" t="n">
-        <v>1.059720840555738</v>
+        <v>0.5114502241754763</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>435101575944067.9</v>
+        <v>0.0003453706871969044</v>
       </c>
       <c r="C194" t="n">
-        <v>127612621739548.2</v>
+        <v>7.906122084887622e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>-694284344613</v>
+        <v>1.746195513475755e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>10259183503305.45</v>
+        <v>8.066889985575434e-06</v>
       </c>
       <c r="F194" t="n">
-        <v>19126505952211.63</v>
+        <v>1.500987579037045e-05</v>
       </c>
       <c r="G194" t="n">
-        <v>24269332730698.56</v>
+        <v>1.911778366651645e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>0.5512045336887588</v>
+        <v>4.434631007010233</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9683285543808791</v>
+        <v>0.3503690728502195</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1378011334221897</v>
+        <v>1.108657751752558</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>449985394570093.5</v>
+        <v>0.0002130060643840449</v>
       </c>
       <c r="C195" t="n">
-        <v>116055032221962.4</v>
+        <v>5.170043890022307e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>14787627479236</v>
+        <v>-8.241278602256314e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>10296735143251.23</v>
+        <v>5.335463417650505e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>19029728794999.03</v>
+        <v>9.936208540951649e-06</v>
       </c>
       <c r="G195" t="n">
-        <v>24296460025677.91</v>
+        <v>1.235305447774611e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>3.395903920048507</v>
+        <v>0.3000632112427772</v>
       </c>
       <c r="I195" t="n">
-        <v>0.4938818264270843</v>
+        <v>0.9898100920418564</v>
       </c>
       <c r="J195" t="n">
-        <v>0.8489759800121268</v>
+        <v>0.07501580281069431</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>302369826377690.1</v>
+        <v>0.0002145117916482188</v>
       </c>
       <c r="C196" t="n">
-        <v>69217592940509.61</v>
+        <v>4.336238979429273e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>15287829733281.31</v>
+        <v>6.52915867986305e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>7062510555376.966</v>
+        <v>5.205881308622086e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>13141050190343.99</v>
+        <v>9.776004064378788e-06</v>
       </c>
       <c r="G196" t="n">
-        <v>16737497237543.81</v>
+        <v>1.217915944411912e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>4.434631118472376</v>
+        <v>1.460997012997277</v>
       </c>
       <c r="I196" t="n">
-        <v>0.3503690593929486</v>
+        <v>0.8335271653240564</v>
       </c>
       <c r="J196" t="n">
-        <v>1.108657779618094</v>
+        <v>0.3652492532493192</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>186485446504874.4</v>
+        <v>0.0001619841755045763</v>
       </c>
       <c r="C197" t="n">
-        <v>45263403371088</v>
+        <v>3.162642966370214e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>-7215186652783.219</v>
+        <v>-8.333281049298353e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>4671164075322.326</v>
+        <v>4.104897341184386e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>8699086977454.365</v>
+        <v>7.648028134474665e-06</v>
       </c>
       <c r="G197" t="n">
-        <v>10815020129013.54</v>
+        <v>9.413429665583002e-06</v>
       </c>
       <c r="H197" t="n">
-        <v>0.3000632067687735</v>
+        <v>0.6471861430578828</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9898100923307189</v>
+        <v>0.9576786372185735</v>
       </c>
       <c r="J197" t="n">
-        <v>0.07501580169219337</v>
+        <v>0.1617965357644707</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>187803700703165.9</v>
+        <v>0.0001532470645362727</v>
       </c>
       <c r="C198" t="n">
-        <v>37963495039569.53</v>
+        <v>2.76721930866772e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>5716236554143.125</v>
+        <v>9.935115227289657e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>4557715766580.511</v>
+        <v>3.772116680125377e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>8558829001650.439</v>
+        <v>7.173881359982076e-06</v>
       </c>
       <c r="G198" t="n">
-        <v>10662776150197.41</v>
+        <v>8.840966246628887e-06</v>
       </c>
       <c r="H198" t="n">
-        <v>1.46099700990756</v>
+        <v>2.21540148371815</v>
       </c>
       <c r="I198" t="n">
-        <v>0.8335271658676278</v>
+        <v>0.6962105957448798</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3652492524768899</v>
+        <v>0.5538503709295375</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>141816109001455.4</v>
+        <v>0.00014398361320979</v>
       </c>
       <c r="C199" t="n">
-        <v>27688736556952.78</v>
+        <v>2.958087095707679e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>-7295734015785.844</v>
+        <v>-3.61697669838367e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>3593811353192.456</v>
+        <v>3.562741246787281e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>6695799683706.7</v>
+        <v>6.652277737144029e-06</v>
       </c>
       <c r="G199" t="n">
-        <v>8241397424601.625</v>
+        <v>8.242081307716543e-06</v>
       </c>
       <c r="H199" t="n">
-        <v>0.647186151638521</v>
+        <v>0.7840682747417165</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9576786362140638</v>
+        <v>0.9405710842231413</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1617965379096303</v>
+        <v>0.1960170686854291</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>134166824303271.2</v>
+        <v>0.0002429940708977036</v>
       </c>
       <c r="C200" t="n">
-        <v>24226827576367.27</v>
+        <v>5.627893870342359e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>8698129968028.438</v>
+        <v>-5.987640415127499e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>3302464012432.287</v>
+        <v>6.095883973897378e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>6280687217266.782</v>
+        <v>1.130817676989673e-05</v>
       </c>
       <c r="G200" t="n">
-        <v>7740209372737.128</v>
+        <v>1.410696110698827e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>2.215401516900541</v>
+        <v>0.9719808585813347</v>
       </c>
       <c r="I200" t="n">
-        <v>0.6962105896742772</v>
+        <v>0.9140144266232521</v>
       </c>
       <c r="J200" t="n">
-        <v>0.5538503792251352</v>
+        <v>0.2429952146453337</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>126056731800219</v>
+        <v>0.0001876402190286787</v>
       </c>
       <c r="C201" t="n">
-        <v>25897863488763.21</v>
+        <v>4.320091277788139e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>-3166640311227.719</v>
+        <v>4.15180771976627e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>3119157161294.838</v>
+        <v>4.359419205874858e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>5824026585485.46</v>
+        <v>8.079272552622173e-06</v>
       </c>
       <c r="G201" t="n">
-        <v>7215889438281.593</v>
+        <v>1.029045731908618e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>0.7840682593049201</v>
+        <v>3.241591948794958</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9405710862676681</v>
+        <v>0.5182394443519593</v>
       </c>
       <c r="J201" t="n">
-        <v>0.19601706482623</v>
+        <v>0.8103979871987395</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>212739753938484.6</v>
+        <v>0.0002950233952544847</v>
       </c>
       <c r="C202" t="n">
-        <v>49271850479065.78</v>
+        <v>6.206061677627752e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>-5242140953683.188</v>
+        <v>6.801644583318651e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>5336907404315.811</v>
+        <v>7.324525725537373e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>9900236396272.145</v>
+        <v>1.366353090919944e-05</v>
       </c>
       <c r="G202" t="n">
-        <v>12350554165580.68</v>
+        <v>1.705362113818825e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9719808649597523</v>
+        <v>0.9330178132964648</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9140144256699122</v>
+        <v>0.9197768213779222</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2429952162399381</v>
+        <v>0.2332544533241162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>164277810827545.2</v>
+        <v>0.0002801230900247097</v>
       </c>
       <c r="C203" t="n">
-        <v>37822122640034.56</v>
+        <v>6.025520087910881e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>3634881122998.969</v>
+        <v>3.050007006302812e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>3816643613235.932</v>
+        <v>6.953077088003923e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>7073351415571.024</v>
+        <v>1.297726486552089e-05</v>
       </c>
       <c r="G203" t="n">
-        <v>9009229524252.709</v>
+        <v>1.619174549444317e-05</v>
       </c>
       <c r="H203" t="n">
-        <v>3.241591976719193</v>
+        <v>0.9085045478831543</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5182394398771261</v>
+        <v>0.9233375455778337</v>
       </c>
       <c r="J203" t="n">
-        <v>0.8103979941797982</v>
+        <v>0.2271261369707886</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>258291094477559.7</v>
+        <v>0.0002690762163659159</v>
       </c>
       <c r="C204" t="n">
-        <v>54333672915271.61</v>
+        <v>6.322176108125956e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>5954796137315</v>
+        <v>-1.003723701409201e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>6412575400334.952</v>
+        <v>6.754520415808741e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>11962333878898.95</v>
+        <v>1.257079980164363e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>14930336172953.35</v>
+        <v>1.582873500534608e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>0.9330177682073494</v>
+        <v>2.089300322813964</v>
       </c>
       <c r="I204" t="n">
-        <v>0.919776827974207</v>
+        <v>0.7193383435571805</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2332544420518373</v>
+        <v>0.522325080703491</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>245245972670688.8</v>
+        <v>0.0002661035532156613</v>
       </c>
       <c r="C205" t="n">
-        <v>52753042537979.73</v>
+        <v>6.499175841642716e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>2670261894746.75</v>
+        <v>2.046941269863065e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>6087374490907.386</v>
+        <v>6.64737430752726e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>11361512327139.19</v>
+        <v>1.241341026894509e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>14175769545813.76</v>
+        <v>1.571291680786859e-05</v>
       </c>
       <c r="H205" t="n">
-        <v>0.9085045538654547</v>
+        <v>3.167564113540535</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9233375447151411</v>
+        <v>0.5301857735278117</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2271261384663637</v>
+        <v>0.7918910283851338</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>235574505469787.3</v>
+        <v>0.0002602225517699722</v>
       </c>
       <c r="C206" t="n">
-        <v>55350247166499.3</v>
+        <v>5.685951344432328e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>-878753596109.875</v>
+        <v>-1.435725265563903e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>5913539389506.283</v>
+        <v>6.585007600053643e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>11005654766419.48</v>
+        <v>1.219509883832187e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>13857956190834.6</v>
+        <v>1.523896866525381e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>2.089300335115794</v>
+        <v>0.4529400436789147</v>
       </c>
       <c r="I206" t="n">
-        <v>0.7193383412965748</v>
+        <v>0.9779175869106309</v>
       </c>
       <c r="J206" t="n">
-        <v>0.5223250837789486</v>
+        <v>0.1132350109197287</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>232971957778017.2</v>
+        <v>0.0002468908154376682</v>
       </c>
       <c r="C207" t="n">
-        <v>56899868447560.58</v>
+        <v>5.650086110513452e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>1792084330527.75</v>
+        <v>-6.214958192199134e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>5819733668236.115</v>
+        <v>5.837543212123581e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>10867861251189.1</v>
+        <v>1.075090484763611e-05</v>
       </c>
       <c r="G207" t="n">
-        <v>13756558111854.6</v>
+        <v>1.350659363452116e-05</v>
       </c>
       <c r="H207" t="n">
-        <v>3.167564059494531</v>
+        <v>0.3902006227428031</v>
       </c>
       <c r="I207" t="n">
-        <v>0.530185782309969</v>
+        <v>0.9832713178083932</v>
       </c>
       <c r="J207" t="n">
-        <v>0.7918910148736327</v>
+        <v>0.09755015568570077</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>227823178615604.4</v>
+        <v>0.0002499491381408085</v>
       </c>
       <c r="C208" t="n">
-        <v>49780140134543.16</v>
+        <v>5.027482571321094e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>-1256967936037.062</v>
+        <v>3.064071485032679e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>5765132011798.405</v>
+        <v>6.221420331943708e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>10676730980752.76</v>
+        <v>1.153931323252189e-05</v>
       </c>
       <c r="G208" t="n">
-        <v>13341619531923.96</v>
+        <v>1.437613095450439e-05</v>
       </c>
       <c r="H208" t="n">
-        <v>0.4529400537212058</v>
+        <v>0.3774807915514761</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9779175860039409</v>
+        <v>0.9842787493427491</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1132350134303015</v>
+        <v>0.09437019788786902</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>216151328816244.1</v>
+        <v>0.0001473720761739328</v>
       </c>
       <c r="C209" t="n">
-        <v>49466142312416.33</v>
+        <v>3.621597917258236e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>-5441156148488.125</v>
+        <v>1.353248267472145e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>5110731721018.169</v>
+        <v>3.543645345663989e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>9412348409811.842</v>
+        <v>6.576739408247618e-06</v>
       </c>
       <c r="G209" t="n">
-        <v>11824936285719.61</v>
+        <v>8.337139543548927e-06</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3902006345698668</v>
+        <v>1.632759339590357</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9832713168591578</v>
+        <v>0.8028925841238388</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0975501586424667</v>
+        <v>0.4081898348975892</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>218828870823395.8</v>
+        <v>6.462568092803534e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>44015288308785</v>
+        <v>1.434656178415757e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>2682575225838.75</v>
+        <v>-1.112577203641517e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>5446813688151.322</v>
+        <v>1.851014077524145e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>10102594885098.93</v>
+        <v>3.486475650054879e-06</v>
       </c>
       <c r="G210" t="n">
-        <v>12586210651887.36</v>
+        <v>4.252130182631144e-06</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3774808062679511</v>
+        <v>0.625810318229269</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9842787481928233</v>
+        <v>0.9601528402412135</v>
       </c>
       <c r="J210" t="n">
-        <v>0.09437020156698778</v>
+        <v>0.1564525795573173</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>129023309767179.3</v>
+        <v>4.152084343061927e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>31706857881467.04</v>
+        <v>5.32836214191909e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>1184760316021.062</v>
+        <v>-2.268259144508857e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>3102438820410.233</v>
+        <v>1.320861879358226e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>5757893261807.895</v>
+        <v>2.515402476648625e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>7299112314902.488</v>
+        <v>3.002025612692873e-06</v>
       </c>
       <c r="H211" t="n">
-        <v>1.63275931417573</v>
+        <v>0.6437815453879323</v>
       </c>
       <c r="I211" t="n">
-        <v>0.8028925887094447</v>
+        <v>0.9580764931844314</v>
       </c>
       <c r="J211" t="n">
-        <v>0.4081898285439326</v>
+        <v>0.1609453863469831</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>56579370072237.13</v>
+        <v>5.813677506437335e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>12560323022448.42</v>
+        <v>1.2128697755101e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>-974054204694.8125</v>
+        <v>1.375726799578711e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>1620550978322.688</v>
+        <v>1.572996954305474e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>3052387118013.112</v>
+        <v>2.97348201798859e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>3722712760213.297</v>
+        <v>3.673879551736269e-06</v>
       </c>
       <c r="H212" t="n">
-        <v>0.6258103134058766</v>
+        <v>1.551149096770896</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9601528407930906</v>
+        <v>0.8175440543063899</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1564525783514691</v>
+        <v>0.387787274192724</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>36351232686918.77</v>
+        <v>3.656677237071036e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>4664946965852.027</v>
+        <v>6.175920086812557e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>-1985846376602.102</v>
+        <v>-1.104250473624577e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>1156406122123.611</v>
+        <v>1.121395320913172e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>2202218770919.096</v>
+        <v>2.114334093938301e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>2628254211025.364</v>
+        <v>2.557795423926514e-06</v>
       </c>
       <c r="H213" t="n">
-        <v>0.6437815447325554</v>
+        <v>2.782828641786946</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9580764932608808</v>
+        <v>0.5948004166491037</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1609453861831389</v>
+        <v>0.6957071604467364</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>50898374508371.69</v>
+        <v>2.827001390205653e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>10618597281658.59</v>
+        <v>2.934863549002887e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>1204439986298.062</v>
+        <v>1.86673352247123e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>1377148766229.61</v>
+        <v>9.441880623237072e-07</v>
       </c>
       <c r="F214" t="n">
-        <v>2603264475857.571</v>
+        <v>1.825525015104348e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>3216458033615.98</v>
+        <v>2.169401861234394e-06</v>
       </c>
       <c r="H214" t="n">
-        <v>1.551149081889527</v>
+        <v>0.655704105138634</v>
       </c>
       <c r="I214" t="n">
-        <v>0.8175440569634949</v>
+        <v>0.9566770417514675</v>
       </c>
       <c r="J214" t="n">
-        <v>0.3877872704723817</v>
+        <v>0.1639260262846585</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>32013975171207.22</v>
+        <v>2.459321396886191e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>5406978524985.078</v>
+        <v>2.120224217222439e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>-966764193297.2734</v>
+        <v>-1.191752013493451e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>981774427013.465</v>
+        <v>8.224396774633243e-07</v>
       </c>
       <c r="F215" t="n">
-        <v>1851085966838.356</v>
+        <v>1.61965441878566e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>2239333525197.886</v>
+        <v>1.845007243949206e-06</v>
       </c>
       <c r="H215" t="n">
-        <v>2.782828602307229</v>
+        <v>1.105533790497097</v>
       </c>
       <c r="I215" t="n">
-        <v>0.5948004234806172</v>
+        <v>0.893393217394823</v>
       </c>
       <c r="J215" t="n">
-        <v>0.6957071505768072</v>
+        <v>0.2763834476242743</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>24750216240650.18</v>
+        <v>2.292480692273231e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>2569454258306.723</v>
+        <v>6.145351745287312e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>1634313265681.648</v>
+        <v>1.682551135954245e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>826630606593.3401</v>
+        <v>8.151199942247366e-07</v>
       </c>
       <c r="F216" t="n">
-        <v>1598235468097.333</v>
+        <v>1.553871585001719e-06</v>
       </c>
       <c r="G216" t="n">
-        <v>1899297446783.537</v>
+        <v>1.890236771327947e-06</v>
       </c>
       <c r="H216" t="n">
-        <v>0.6557041173941373</v>
+        <v>8.467947848085917</v>
       </c>
       <c r="I216" t="n">
-        <v>0.956677040304047</v>
+        <v>0.07586475207549849</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1639260293485343</v>
+        <v>2.116986962021479</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>21531201416699.08</v>
+        <v>2.238485715656257e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1856242767554.703</v>
+        <v>1.624555648758379e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>-1043371263159.723</v>
+        <v>3.091978386584634e-06</v>
       </c>
       <c r="E217" t="n">
-        <v>720040673926.2271</v>
+        <v>8.092984461665724e-07</v>
       </c>
       <c r="F217" t="n">
-        <v>1417997078040.063</v>
+        <v>1.58358862870573e-06</v>
       </c>
       <c r="G217" t="n">
-        <v>1615292034353.439</v>
+        <v>1.834594001207406e-06</v>
       </c>
       <c r="H217" t="n">
-        <v>1.105533811396206</v>
+        <v>5.266302276327983</v>
       </c>
       <c r="I217" t="n">
-        <v>0.8933932140714722</v>
+        <v>0.2610480512198931</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2763834528490515</v>
+        <v>1.316575569081996</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>20070521729201.61</v>
+        <v>2.721372409155437e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>538021621779.5977</v>
+        <v>7.623990774568621e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>1473062775419.141</v>
+        <v>7.64795792776065e-07</v>
       </c>
       <c r="E218" t="n">
-        <v>713632337440.0046</v>
+        <v>9.353268281823746e-07</v>
       </c>
       <c r="F218" t="n">
-        <v>1360404627224.472</v>
+        <v>1.832276759159664e-06</v>
       </c>
       <c r="G218" t="n">
-        <v>1654890194178.967</v>
+        <v>2.128420571225927e-06</v>
       </c>
       <c r="H218" t="n">
-        <v>8.467947821994459</v>
+        <v>1.961740236241348</v>
       </c>
       <c r="I218" t="n">
-        <v>0.0758647528761159</v>
+        <v>0.7427959392380428</v>
       </c>
       <c r="J218" t="n">
-        <v>2.116986955498615</v>
+        <v>0.490435059060337</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>19597799198428.11</v>
+        <v>2.72231168072582e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>142228824980.8887</v>
+        <v>3.100008112957376e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>2707007235084.508</v>
+        <v>1.158059734251316e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>708535609688.0934</v>
+        <v>9.572256870240536e-07</v>
       </c>
       <c r="F219" t="n">
-        <v>1386421708937.961</v>
+        <v>1.860032782924288e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>1606175306471.032</v>
+        <v>2.18319871976321e-06</v>
       </c>
       <c r="H219" t="n">
-        <v>5.266302272067633</v>
+        <v>0.6139628961835003</v>
       </c>
       <c r="I219" t="n">
-        <v>0.2610480516229145</v>
+        <v>0.9614995251488407</v>
       </c>
       <c r="J219" t="n">
-        <v>1.316575568016908</v>
+        <v>0.1534907240458751</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>23825441265634.2</v>
+        <v>3.038806154693012e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>667475524117.3516</v>
+        <v>4.705588220928061e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>669573865630</v>
+        <v>1.566964370907978e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>818872652064.3329</v>
+        <v>9.0976207003613e-07</v>
       </c>
       <c r="F220" t="n">
-        <v>1604146576236.093</v>
+        <v>1.788052780711886e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>1863418587892.387</v>
+        <v>2.122103794135188e-06</v>
       </c>
       <c r="H220" t="n">
-        <v>1.961740222917191</v>
+        <v>2.460643127012849</v>
       </c>
       <c r="I220" t="n">
-        <v>0.7427959416884302</v>
+        <v>0.6516968432351159</v>
       </c>
       <c r="J220" t="n">
-        <v>0.4904350557292978</v>
+        <v>0.6151607817532123</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>23833664531125.26</v>
+        <v>3.50675826802906e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>2714037269902.133</v>
+        <v>4.548074535173035e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>1013873891351.258</v>
+        <v>1.250829858726492e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>838044962370.4185</v>
+        <v>1.062550885234915e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>1628446795121.667</v>
+        <v>2.052832818047263e-06</v>
       </c>
       <c r="G221" t="n">
-        <v>1911376504993.591</v>
+        <v>2.466093471241534e-06</v>
       </c>
       <c r="H221" t="n">
-        <v>0.6139628970389089</v>
+        <v>1.254027440282731</v>
       </c>
       <c r="I221" t="n">
-        <v>0.96149952505225</v>
+        <v>0.8691257486715847</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1534907242597272</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>26604553411862.84</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4119712364051.312</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1371867266452.07</v>
-      </c>
-      <c r="E222" t="n">
-        <v>796490869623.9098</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1565428764155.245</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1857888289273.699</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2.460643116580964</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0.6516968451102381</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0.615160779145241</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30701444194480.7</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3981810126003.324</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1095093570244.156</v>
-      </c>
-      <c r="E223" t="n">
-        <v>930256500349.9475</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1797241995383.975</v>
-      </c>
-      <c r="G223" t="n">
-        <v>2159049052828.115</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1.254027446352838</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0.8691257476550205</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0.3135068615882096</v>
+        <v>0.3135068600706828</v>
       </c>
     </row>
   </sheetData>
